--- a/Logs/success_rates.xlsx
+++ b/Logs/success_rates.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="32">
   <si>
     <t>Timestamp</t>
   </si>
@@ -49,16 +49,67 @@
     <t>2025-07-25 17:21:41</t>
   </si>
   <si>
+    <t>2025-08-01 12:56:36</t>
+  </si>
+  <si>
+    <t>2025-08-01 13:11:24</t>
+  </si>
+  <si>
+    <t>2025-08-01 13:13:13</t>
+  </si>
+  <si>
+    <t>2025-08-01 13:17:13</t>
+  </si>
+  <si>
+    <t>2025-08-02 09:08:56</t>
+  </si>
+  <si>
+    <t>2025-08-02 09:12:08</t>
+  </si>
+  <si>
+    <t>2025-08-02 09:25:51</t>
+  </si>
+  <si>
+    <t>2025-08-04 06:26:15</t>
+  </si>
+  <si>
+    <t>2025-08-04 06:54:52</t>
+  </si>
+  <si>
     <t>CMM0246LCL0040</t>
   </si>
   <si>
     <t>CMM0246LCL0039</t>
   </si>
   <si>
+    <t>CMM0804LCL0049</t>
+  </si>
+  <si>
+    <t>CMM0808LCL0014</t>
+  </si>
+  <si>
+    <t>CMM0547LCL0072</t>
+  </si>
+  <si>
+    <t>CMM0628LCL0011</t>
+  </si>
+  <si>
+    <t>CMM0800LCL0050</t>
+  </si>
+  <si>
     <t>Success</t>
   </si>
   <si>
     <t>not selected</t>
+  </si>
+  <si>
+    <t>Coload</t>
+  </si>
+  <si>
+    <t>LTL</t>
+  </si>
+  <si>
+    <t>❌ Error parsing cargo for SWF2 12533, Hopewell Junction, Hopewell Junction, New York, United States: float() argument must be a string or a real number, not 'dict'; ❌ Error parsing cargo for MDW2 60433, Joliet, Joliet, Illinois, United States: float() argument must be a string or a real number, not 'dict'; ⚠️ FBA Code MDW2 not found in FBA Locations sheet.; ❌ Error parsing cargo for CLT2 28214, Moores Chapel, Charlotte, North Carolina, United States: float() argument must be a string or a real number, not 'dict'; ❌ Error parsing cargo for FWA4 46809, Fort Wayne, Fort Wayne, Indiana, United States: float() argument must be a string or a real number, not 'dict'</t>
   </si>
 </sst>
 </file>
@@ -416,7 +467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -450,13 +501,13 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -467,13 +518,13 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -484,13 +535,13 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -501,16 +552,178 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G5">
         <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/success_rates.xlsx
+++ b/Logs/success_rates.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="48">
   <si>
     <t>Timestamp</t>
   </si>
@@ -76,6 +76,51 @@
     <t>2025-08-04 06:54:52</t>
   </si>
   <si>
+    <t>2025-08-05 13:39:28</t>
+  </si>
+  <si>
+    <t>2025-08-05 13:46:31</t>
+  </si>
+  <si>
+    <t>2025-08-05 13:49:37</t>
+  </si>
+  <si>
+    <t>2025-08-05 13:54:14</t>
+  </si>
+  <si>
+    <t>2025-08-05 14:06:58</t>
+  </si>
+  <si>
+    <t>2025-08-05 14:08:43</t>
+  </si>
+  <si>
+    <t>2025-08-05 14:15:07</t>
+  </si>
+  <si>
+    <t>2025-08-05 14:21:06</t>
+  </si>
+  <si>
+    <t>2025-08-05 14:38:45</t>
+  </si>
+  <si>
+    <t>2025-08-05 17:30:17</t>
+  </si>
+  <si>
+    <t>2025-08-05 18:11:17</t>
+  </si>
+  <si>
+    <t>2025-08-05 18:12:07</t>
+  </si>
+  <si>
+    <t>2025-08-05 18:12:58</t>
+  </si>
+  <si>
+    <t>2025-08-05 18:15:42</t>
+  </si>
+  <si>
+    <t>2025-08-05 18:24:22</t>
+  </si>
+  <si>
     <t>CMM0246LCL0040</t>
   </si>
   <si>
@@ -95,6 +140,9 @@
   </si>
   <si>
     <t>CMM0800LCL0050</t>
+  </si>
+  <si>
+    <t>CMM0246LCL0041</t>
   </si>
   <si>
     <t>Success</t>
@@ -467,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -501,13 +549,13 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -518,13 +566,13 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -535,13 +583,13 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -552,13 +600,13 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -569,16 +617,16 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -589,16 +637,16 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G7">
         <v>3</v>
@@ -609,13 +657,13 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -626,16 +674,16 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -646,13 +694,13 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -663,13 +711,13 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -680,13 +728,13 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -697,13 +745,13 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -714,15 +762,270 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" t="s">
+        <v>44</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
         <v>26</v>
       </c>
-      <c r="C14" t="s">
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
         <v>27</v>
       </c>
-      <c r="D14" t="s">
+      <c r="B22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" t="s">
+        <v>44</v>
+      </c>
+      <c r="G22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
         <v>28</v>
       </c>
-      <c r="G14">
+      <c r="B23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" t="s">
+        <v>44</v>
+      </c>
+      <c r="G23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" t="s">
+        <v>44</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" t="s">
+        <v>44</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" t="s">
+        <v>44</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" t="s">
+        <v>44</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" t="s">
+        <v>44</v>
+      </c>
+      <c r="G28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" t="s">
+        <v>44</v>
+      </c>
+      <c r="G29">
         <v>3</v>
       </c>
     </row>

--- a/Logs/success_rates.xlsx
+++ b/Logs/success_rates.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
   <si>
     <t>Timestamp</t>
   </si>
@@ -43,10 +43,25 @@
     <t>2025-08-06 16:49:41</t>
   </si>
   <si>
+    <t>2025-08-06 11:25:39</t>
+  </si>
+  <si>
+    <t>2025-08-06 11:28:36</t>
+  </si>
+  <si>
+    <t>2025-08-06 11:31:47</t>
+  </si>
+  <si>
+    <t>2025-08-06 11:43:08</t>
+  </si>
+  <si>
     <t>CMM0246LCL0040</t>
   </si>
   <si>
     <t>CMM0246LCL0039</t>
+  </si>
+  <si>
+    <t>CMM0575LCL0025</t>
   </si>
   <si>
     <t>Success</t>
@@ -410,7 +425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -444,13 +459,13 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -461,16 +476,84 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G3">
         <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/success_rates.xlsx
+++ b/Logs/success_rates.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="21">
   <si>
     <t>Timestamp</t>
   </si>
@@ -53,6 +53,15 @@
   </si>
   <si>
     <t>2025-08-06 11:43:08</t>
+  </si>
+  <si>
+    <t>2025-08-06 18:37:54</t>
+  </si>
+  <si>
+    <t>2025-08-06 18:38:51</t>
+  </si>
+  <si>
+    <t>2025-08-06 18:59:42</t>
   </si>
   <si>
     <t>CMM0246LCL0040</t>
@@ -425,7 +434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -459,13 +468,13 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -476,13 +485,13 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -493,13 +502,13 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -510,13 +519,13 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -527,13 +536,13 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -544,15 +553,66 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7">
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10">
         <v>1</v>
       </c>
     </row>

--- a/Logs/success_rates.xlsx
+++ b/Logs/success_rates.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="24">
   <si>
     <t>Timestamp</t>
   </si>
@@ -62,6 +62,15 @@
   </si>
   <si>
     <t>2025-08-06 18:59:42</t>
+  </si>
+  <si>
+    <t>2025-08-07 07:49:18</t>
+  </si>
+  <si>
+    <t>2025-08-07 07:52:05</t>
+  </si>
+  <si>
+    <t>2025-08-07 07:54:42</t>
   </si>
   <si>
     <t>CMM0246LCL0040</t>
@@ -434,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -468,13 +477,13 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -485,13 +494,13 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -502,13 +511,13 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -519,13 +528,13 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -536,13 +545,13 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -553,13 +562,13 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -570,13 +579,13 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -587,13 +596,13 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -604,16 +613,67 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G10">
         <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/success_rates.xlsx
+++ b/Logs/success_rates.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="50">
   <si>
     <t>Timestamp</t>
   </si>
@@ -73,6 +73,66 @@
     <t>2025-08-07 07:54:42</t>
   </si>
   <si>
+    <t>2025-08-07 08:48:25</t>
+  </si>
+  <si>
+    <t>2025-08-07 08:50:10</t>
+  </si>
+  <si>
+    <t>2025-08-07 10:23:16</t>
+  </si>
+  <si>
+    <t>2025-08-07 10:23:51</t>
+  </si>
+  <si>
+    <t>2025-08-07 10:25:37</t>
+  </si>
+  <si>
+    <t>2025-08-07 14:29:57</t>
+  </si>
+  <si>
+    <t>2025-08-07 14:32:35</t>
+  </si>
+  <si>
+    <t>2025-08-07 14:44:04</t>
+  </si>
+  <si>
+    <t>2025-08-07 14:48:31</t>
+  </si>
+  <si>
+    <t>2025-08-07 14:50:12</t>
+  </si>
+  <si>
+    <t>2025-08-07 14:50:21</t>
+  </si>
+  <si>
+    <t>2025-08-07 14:50:30</t>
+  </si>
+  <si>
+    <t>2025-08-07 14:50:34</t>
+  </si>
+  <si>
+    <t>2025-08-07 14:50:40</t>
+  </si>
+  <si>
+    <t>2025-08-07 14:51:16</t>
+  </si>
+  <si>
+    <t>2025-08-07 14:52:12</t>
+  </si>
+  <si>
+    <t>2025-08-07 14:57:45</t>
+  </si>
+  <si>
+    <t>2025-08-07 15:00:09</t>
+  </si>
+  <si>
+    <t>2025-08-07 15:28:47</t>
+  </si>
+  <si>
+    <t>2025-08-07 15:34:00</t>
+  </si>
+  <si>
     <t>CMM0246LCL0040</t>
   </si>
   <si>
@@ -82,10 +142,28 @@
     <t>CMM0575LCL0025</t>
   </si>
   <si>
+    <t>CMM0575LCL0026</t>
+  </si>
+  <si>
     <t>Success</t>
   </si>
   <si>
+    <t>Error</t>
+  </si>
+  <si>
     <t>not selected</t>
+  </si>
+  <si>
+    <t>both selected</t>
+  </si>
+  <si>
+    <t>Coload</t>
+  </si>
+  <si>
+    <t>LTL</t>
+  </si>
+  <si>
+    <t>Pickup charges are required for Door-to-Door shipment scope.</t>
   </si>
 </sst>
 </file>
@@ -443,7 +521,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -477,13 +555,13 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -494,13 +572,13 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -511,13 +589,13 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -528,13 +606,13 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -545,13 +623,13 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -562,13 +640,13 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -579,13 +657,13 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -596,13 +674,13 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -613,13 +691,13 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -630,13 +708,13 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -647,13 +725,13 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -664,15 +742,364 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
         <v>20</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
         <v>22</v>
       </c>
-      <c r="D13" t="s">
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
         <v>23</v>
       </c>
-      <c r="G13">
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" t="s">
+        <v>45</v>
+      </c>
+      <c r="G22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" t="s">
+        <v>45</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" t="s">
+        <v>46</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" t="s">
+        <v>46</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" t="s">
+        <v>46</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" t="s">
+        <v>45</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" t="s">
+        <v>46</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" t="s">
+        <v>47</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" t="s">
+        <v>47</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" t="s">
+        <v>47</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" t="s">
+        <v>45</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" t="s">
+        <v>45</v>
+      </c>
+      <c r="G33">
         <v>3</v>
       </c>
     </row>

--- a/Logs/success_rates.xlsx
+++ b/Logs/success_rates.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="58">
   <si>
     <t>Timestamp</t>
   </si>
@@ -131,6 +131,30 @@
   </si>
   <si>
     <t>2025-08-07 15:34:00</t>
+  </si>
+  <si>
+    <t>2025-08-08 10:50:21</t>
+  </si>
+  <si>
+    <t>2025-08-08 11:15:03</t>
+  </si>
+  <si>
+    <t>2025-08-08 11:15:22</t>
+  </si>
+  <si>
+    <t>2025-08-08 11:15:36</t>
+  </si>
+  <si>
+    <t>2025-08-08 11:17:27</t>
+  </si>
+  <si>
+    <t>2025-08-08 11:23:02</t>
+  </si>
+  <si>
+    <t>2025-08-08 11:23:51</t>
+  </si>
+  <si>
+    <t>2025-08-08 11:26:23</t>
   </si>
   <si>
     <t>CMM0246LCL0040</t>
@@ -521,7 +545,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -555,13 +579,13 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -572,13 +596,13 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -589,13 +613,13 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -606,13 +630,13 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -623,13 +647,13 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -640,13 +664,13 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -657,13 +681,13 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -674,13 +698,13 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -691,13 +715,13 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -708,13 +732,13 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -725,13 +749,13 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -742,13 +766,13 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -759,16 +783,16 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D14" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="E14" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="G14">
         <v>3</v>
@@ -779,16 +803,16 @@
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="E15" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="G15">
         <v>3</v>
@@ -799,13 +823,13 @@
         <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D16" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -816,16 +840,16 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D17" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="F17" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -836,13 +860,13 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D18" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="G18">
         <v>3</v>
@@ -853,13 +877,13 @@
         <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D19" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G19">
         <v>3</v>
@@ -870,13 +894,13 @@
         <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D20" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="G20">
         <v>3</v>
@@ -887,13 +911,13 @@
         <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D21" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="G21">
         <v>3</v>
@@ -904,13 +928,13 @@
         <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C22" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D22" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G22">
         <v>3</v>
@@ -921,13 +945,13 @@
         <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C23" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D23" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -938,13 +962,13 @@
         <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C24" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D24" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -955,13 +979,13 @@
         <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C25" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D25" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -972,13 +996,13 @@
         <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C26" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D26" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -989,13 +1013,13 @@
         <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C27" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D27" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -1006,13 +1030,13 @@
         <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C28" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D28" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -1023,13 +1047,13 @@
         <v>34</v>
       </c>
       <c r="B29" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C29" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D29" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -1040,13 +1064,13 @@
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C30" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D30" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -1057,13 +1081,13 @@
         <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C31" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D31" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -1074,13 +1098,13 @@
         <v>37</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C32" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D32" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -1091,16 +1115,167 @@
         <v>38</v>
       </c>
       <c r="B33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" t="s">
+        <v>54</v>
+      </c>
+      <c r="G34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
         <v>40</v>
       </c>
-      <c r="C33" t="s">
+      <c r="B35" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" t="s">
+        <v>51</v>
+      </c>
+      <c r="D35" t="s">
+        <v>54</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36" t="s">
+        <v>53</v>
+      </c>
+      <c r="E36" t="s">
+        <v>56</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37" t="s">
+        <v>53</v>
+      </c>
+      <c r="E37" t="s">
+        <v>56</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
         <v>43</v>
       </c>
-      <c r="D33" t="s">
+      <c r="B38" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" t="s">
+        <v>51</v>
+      </c>
+      <c r="D38" t="s">
+        <v>53</v>
+      </c>
+      <c r="E38" t="s">
+        <v>56</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" t="s">
+        <v>51</v>
+      </c>
+      <c r="D39" t="s">
+        <v>53</v>
+      </c>
+      <c r="E39" t="s">
+        <v>56</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
         <v>45</v>
       </c>
-      <c r="G33">
-        <v>3</v>
+      <c r="B40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" t="s">
+        <v>51</v>
+      </c>
+      <c r="D40" t="s">
+        <v>53</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" t="s">
+        <v>51</v>
+      </c>
+      <c r="D41" t="s">
+        <v>53</v>
+      </c>
+      <c r="E41" t="s">
+        <v>56</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/success_rates.xlsx
+++ b/Logs/success_rates.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="68">
   <si>
     <t>Timestamp</t>
   </si>
@@ -157,6 +157,30 @@
     <t>2025-08-08 11:26:23</t>
   </si>
   <si>
+    <t>2025-08-08 12:51:40</t>
+  </si>
+  <si>
+    <t>2025-08-08 12:51:54</t>
+  </si>
+  <si>
+    <t>2025-08-08 12:56:01</t>
+  </si>
+  <si>
+    <t>2025-08-08 12:57:54</t>
+  </si>
+  <si>
+    <t>2025-08-08 12:59:05</t>
+  </si>
+  <si>
+    <t>2025-08-08 13:00:03</t>
+  </si>
+  <si>
+    <t>2025-08-08 13:11:36</t>
+  </si>
+  <si>
+    <t>2025-08-08 13:18:43</t>
+  </si>
+  <si>
     <t>CMM0246LCL0040</t>
   </si>
   <si>
@@ -169,6 +193,9 @@
     <t>CMM0575LCL0026</t>
   </si>
   <si>
+    <t>CMM0598LCL0010</t>
+  </si>
+  <si>
     <t>Success</t>
   </si>
   <si>
@@ -188,6 +215,9 @@
   </si>
   <si>
     <t>Pickup charges are required for Door-to-Door shipment scope.</t>
+  </si>
+  <si>
+    <t>❌ Error processing P2P row for IUSL 21901, North East, North East, Maryland, United States: float division by zero</t>
   </si>
 </sst>
 </file>
@@ -545,7 +575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -579,13 +609,13 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -596,13 +626,13 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -613,13 +643,13 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -630,13 +660,13 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -647,13 +677,13 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -664,13 +694,13 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -681,13 +711,13 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D8" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -698,13 +728,13 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D9" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -715,13 +745,13 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D10" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -732,13 +762,13 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -749,13 +779,13 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D12" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -766,13 +796,13 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D13" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -783,16 +813,16 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E14" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="G14">
         <v>3</v>
@@ -803,16 +833,16 @@
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D15" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E15" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="G15">
         <v>3</v>
@@ -823,13 +853,13 @@
         <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D16" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -840,16 +870,16 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C17" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="D17" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="F17" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -860,13 +890,13 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D18" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="G18">
         <v>3</v>
@@ -877,13 +907,13 @@
         <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C19" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D19" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="G19">
         <v>3</v>
@@ -894,13 +924,13 @@
         <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C20" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D20" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="G20">
         <v>3</v>
@@ -911,13 +941,13 @@
         <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C21" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="G21">
         <v>3</v>
@@ -928,13 +958,13 @@
         <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C22" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D22" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="G22">
         <v>3</v>
@@ -945,13 +975,13 @@
         <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C23" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D23" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -962,13 +992,13 @@
         <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C24" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D24" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -979,13 +1009,13 @@
         <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C25" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D25" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -996,13 +1026,13 @@
         <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C26" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D26" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -1013,13 +1043,13 @@
         <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C27" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D27" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -1030,13 +1060,13 @@
         <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C28" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D28" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -1047,13 +1077,13 @@
         <v>34</v>
       </c>
       <c r="B29" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C29" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D29" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -1064,13 +1094,13 @@
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C30" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D30" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -1081,13 +1111,13 @@
         <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C31" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D31" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -1098,13 +1128,13 @@
         <v>37</v>
       </c>
       <c r="B32" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C32" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D32" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -1115,13 +1145,13 @@
         <v>38</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C33" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D33" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="G33">
         <v>3</v>
@@ -1132,13 +1162,13 @@
         <v>39</v>
       </c>
       <c r="B34" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C34" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D34" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="G34">
         <v>3</v>
@@ -1149,13 +1179,13 @@
         <v>40</v>
       </c>
       <c r="B35" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C35" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D35" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -1166,16 +1196,16 @@
         <v>41</v>
       </c>
       <c r="B36" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C36" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D36" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E36" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -1186,16 +1216,16 @@
         <v>42</v>
       </c>
       <c r="B37" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C37" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D37" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E37" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -1206,16 +1236,16 @@
         <v>43</v>
       </c>
       <c r="B38" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C38" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D38" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E38" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -1226,16 +1256,16 @@
         <v>44</v>
       </c>
       <c r="B39" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C39" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D39" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E39" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -1246,13 +1276,13 @@
         <v>45</v>
       </c>
       <c r="B40" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C40" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D40" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -1263,18 +1293,166 @@
         <v>46</v>
       </c>
       <c r="B41" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41" t="s">
+        <v>60</v>
+      </c>
+      <c r="D41" t="s">
+        <v>62</v>
+      </c>
+      <c r="E41" t="s">
+        <v>65</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
         <v>47</v>
       </c>
-      <c r="C41" t="s">
+      <c r="B42" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42" t="s">
+        <v>60</v>
+      </c>
+      <c r="D42" t="s">
+        <v>62</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43" t="s">
+        <v>60</v>
+      </c>
+      <c r="D43" t="s">
+        <v>62</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" t="s">
+        <v>59</v>
+      </c>
+      <c r="C44" t="s">
+        <v>61</v>
+      </c>
+      <c r="D44" t="s">
+        <v>62</v>
+      </c>
+      <c r="F44" t="s">
+        <v>67</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" t="s">
+        <v>59</v>
+      </c>
+      <c r="C45" t="s">
+        <v>61</v>
+      </c>
+      <c r="D45" t="s">
+        <v>62</v>
+      </c>
+      <c r="F45" t="s">
+        <v>67</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
         <v>51</v>
       </c>
-      <c r="D41" t="s">
+      <c r="B46" t="s">
+        <v>59</v>
+      </c>
+      <c r="C46" t="s">
+        <v>61</v>
+      </c>
+      <c r="D46" t="s">
+        <v>62</v>
+      </c>
+      <c r="F46" t="s">
+        <v>67</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47" t="s">
+        <v>61</v>
+      </c>
+      <c r="D47" t="s">
+        <v>62</v>
+      </c>
+      <c r="F47" t="s">
+        <v>67</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" t="s">
         <v>53</v>
       </c>
-      <c r="E41" t="s">
-        <v>56</v>
-      </c>
-      <c r="G41">
+      <c r="B48" t="s">
+        <v>56</v>
+      </c>
+      <c r="C48" t="s">
+        <v>60</v>
+      </c>
+      <c r="D48" t="s">
+        <v>62</v>
+      </c>
+      <c r="G48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" t="s">
+        <v>60</v>
+      </c>
+      <c r="D49" t="s">
+        <v>62</v>
+      </c>
+      <c r="G49">
         <v>1</v>
       </c>
     </row>

--- a/Logs/success_rates.xlsx
+++ b/Logs/success_rates.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="81">
   <si>
     <t>Timestamp</t>
   </si>
@@ -181,6 +181,30 @@
     <t>2025-08-08 13:18:43</t>
   </si>
   <si>
+    <t>2025-08-08 07:51:51</t>
+  </si>
+  <si>
+    <t>2025-08-08 07:52:31</t>
+  </si>
+  <si>
+    <t>2025-08-08 07:52:43</t>
+  </si>
+  <si>
+    <t>2025-08-08 07:52:52</t>
+  </si>
+  <si>
+    <t>2025-08-08 07:52:58</t>
+  </si>
+  <si>
+    <t>2025-08-08 07:56:26</t>
+  </si>
+  <si>
+    <t>2025-08-08 08:01:16</t>
+  </si>
+  <si>
+    <t>2025-08-08 08:03:48</t>
+  </si>
+  <si>
     <t>CMM0246LCL0040</t>
   </si>
   <si>
@@ -196,6 +220,18 @@
     <t>CMM0598LCL0010</t>
   </si>
   <si>
+    <t>CMM0804LCL0055</t>
+  </si>
+  <si>
+    <t>CMM0077LCL0001</t>
+  </si>
+  <si>
+    <t>CMM0804LCL0053</t>
+  </si>
+  <si>
+    <t>CMM0804LCL0054</t>
+  </si>
+  <si>
     <t>Success</t>
   </si>
   <si>
@@ -218,6 +254,9 @@
   </si>
   <si>
     <t>❌ Error processing P2P row for IUSL 21901, North East, North East, Maryland, United States: float division by zero</t>
+  </si>
+  <si>
+    <t>❌ Error parsing cargo for GYR2 85395, Palm Valley, Goodyear, Arizona, United States: float() argument must be a string or a real number, not 'dict'; ❌ Error processing P2P row for GYR2 85395, Palm Valley, Goodyear, Arizona, United States: float division by zero; ❌ Error parsing cargo for GYR3 85043, Estrella Village, Phoenix, Arizona, United States: float() argument must be a string or a real number, not 'dict'; ❌ Error processing P2P row for GYR3 85043, Estrella Village, Phoenix, Arizona, United States: float division by zero</t>
   </si>
 </sst>
 </file>
@@ -575,7 +614,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -609,13 +648,13 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -626,13 +665,13 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -643,13 +682,13 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -660,13 +699,13 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -677,13 +716,13 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -694,13 +733,13 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -711,13 +750,13 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="D8" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -728,13 +767,13 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="D9" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -745,13 +784,13 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="D10" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -762,13 +801,13 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="D11" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -779,13 +818,13 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="D12" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -796,13 +835,13 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="D13" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -813,16 +852,16 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C14" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="D14" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="E14" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="G14">
         <v>3</v>
@@ -833,16 +872,16 @@
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C15" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="D15" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="E15" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="G15">
         <v>3</v>
@@ -853,13 +892,13 @@
         <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="D16" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -870,16 +909,16 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="D17" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="F17" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -890,13 +929,13 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="D18" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="G18">
         <v>3</v>
@@ -907,13 +946,13 @@
         <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="D19" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="G19">
         <v>3</v>
@@ -924,13 +963,13 @@
         <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C20" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="D20" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="G20">
         <v>3</v>
@@ -941,13 +980,13 @@
         <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="D21" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="G21">
         <v>3</v>
@@ -958,13 +997,13 @@
         <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C22" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="D22" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="G22">
         <v>3</v>
@@ -975,13 +1014,13 @@
         <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C23" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="D23" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -992,13 +1031,13 @@
         <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C24" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="D24" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1009,13 +1048,13 @@
         <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C25" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="D25" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1026,13 +1065,13 @@
         <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C26" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="D26" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -1043,13 +1082,13 @@
         <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C27" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="D27" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -1060,13 +1099,13 @@
         <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C28" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="D28" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -1077,13 +1116,13 @@
         <v>34</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C29" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="D29" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -1094,13 +1133,13 @@
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C30" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="D30" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -1111,13 +1150,13 @@
         <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C31" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -1128,13 +1167,13 @@
         <v>37</v>
       </c>
       <c r="B32" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C32" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="D32" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -1145,13 +1184,13 @@
         <v>38</v>
       </c>
       <c r="B33" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C33" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="D33" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="G33">
         <v>3</v>
@@ -1162,13 +1201,13 @@
         <v>39</v>
       </c>
       <c r="B34" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C34" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="D34" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="G34">
         <v>3</v>
@@ -1179,13 +1218,13 @@
         <v>40</v>
       </c>
       <c r="B35" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C35" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="D35" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -1196,16 +1235,16 @@
         <v>41</v>
       </c>
       <c r="B36" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C36" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="D36" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="E36" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -1216,16 +1255,16 @@
         <v>42</v>
       </c>
       <c r="B37" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C37" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="D37" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="E37" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -1236,16 +1275,16 @@
         <v>43</v>
       </c>
       <c r="B38" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C38" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="D38" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="E38" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -1256,16 +1295,16 @@
         <v>44</v>
       </c>
       <c r="B39" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C39" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="D39" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="E39" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -1276,13 +1315,13 @@
         <v>45</v>
       </c>
       <c r="B40" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C40" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="D40" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -1293,16 +1332,16 @@
         <v>46</v>
       </c>
       <c r="B41" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C41" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="D41" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="E41" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -1313,13 +1352,13 @@
         <v>47</v>
       </c>
       <c r="B42" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C42" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="D42" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -1330,13 +1369,13 @@
         <v>48</v>
       </c>
       <c r="B43" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C43" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="D43" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -1347,16 +1386,16 @@
         <v>49</v>
       </c>
       <c r="B44" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C44" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="D44" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="F44" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -1367,16 +1406,16 @@
         <v>50</v>
       </c>
       <c r="B45" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C45" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="D45" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="F45" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -1387,16 +1426,16 @@
         <v>51</v>
       </c>
       <c r="B46" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C46" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="D46" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="F46" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -1407,16 +1446,16 @@
         <v>52</v>
       </c>
       <c r="B47" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C47" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="D47" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="F47" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -1427,13 +1466,13 @@
         <v>53</v>
       </c>
       <c r="B48" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C48" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="D48" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -1444,16 +1483,158 @@
         <v>54</v>
       </c>
       <c r="B49" t="s">
+        <v>63</v>
+      </c>
+      <c r="C49" t="s">
+        <v>72</v>
+      </c>
+      <c r="D49" t="s">
+        <v>74</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
         <v>55</v>
       </c>
-      <c r="C49" t="s">
+      <c r="B50" t="s">
+        <v>64</v>
+      </c>
+      <c r="C50" t="s">
+        <v>72</v>
+      </c>
+      <c r="D50" t="s">
+        <v>74</v>
+      </c>
+      <c r="G50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" t="s">
+        <v>63</v>
+      </c>
+      <c r="C51" t="s">
+        <v>73</v>
+      </c>
+      <c r="D51" t="s">
+        <v>74</v>
+      </c>
+      <c r="F51" t="s">
+        <v>78</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52" t="s">
+        <v>68</v>
+      </c>
+      <c r="C52" t="s">
+        <v>72</v>
+      </c>
+      <c r="D52" t="s">
+        <v>74</v>
+      </c>
+      <c r="G52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53" t="s">
+        <v>64</v>
+      </c>
+      <c r="C53" t="s">
+        <v>72</v>
+      </c>
+      <c r="D53" t="s">
+        <v>75</v>
+      </c>
+      <c r="G53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54" t="s">
+        <v>63</v>
+      </c>
+      <c r="C54" t="s">
+        <v>72</v>
+      </c>
+      <c r="D54" t="s">
+        <v>74</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" t="s">
         <v>60</v>
       </c>
-      <c r="D49" t="s">
+      <c r="B55" t="s">
+        <v>69</v>
+      </c>
+      <c r="C55" t="s">
+        <v>72</v>
+      </c>
+      <c r="D55" t="s">
+        <v>74</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56" t="s">
+        <v>70</v>
+      </c>
+      <c r="C56" t="s">
+        <v>72</v>
+      </c>
+      <c r="D56" t="s">
+        <v>74</v>
+      </c>
+      <c r="G56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" t="s">
         <v>62</v>
       </c>
-      <c r="G49">
-        <v>1</v>
+      <c r="B57" t="s">
+        <v>71</v>
+      </c>
+      <c r="C57" t="s">
+        <v>73</v>
+      </c>
+      <c r="D57" t="s">
+        <v>74</v>
+      </c>
+      <c r="F57" t="s">
+        <v>80</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/success_rates.xlsx
+++ b/Logs/success_rates.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="95">
   <si>
     <t>Timestamp</t>
   </si>
@@ -205,6 +205,33 @@
     <t>2025-08-08 08:03:48</t>
   </si>
   <si>
+    <t>2025-08-08 08:10:08</t>
+  </si>
+  <si>
+    <t>2025-08-08 08:12:55</t>
+  </si>
+  <si>
+    <t>2025-08-08 08:16:57</t>
+  </si>
+  <si>
+    <t>2025-08-08 08:20:04</t>
+  </si>
+  <si>
+    <t>2025-08-08 08:21:04</t>
+  </si>
+  <si>
+    <t>2025-08-08 08:21:30</t>
+  </si>
+  <si>
+    <t>2025-08-08 08:22:25</t>
+  </si>
+  <si>
+    <t>2025-08-08 08:22:56</t>
+  </si>
+  <si>
+    <t>2025-08-08 08:23:07</t>
+  </si>
+  <si>
     <t>CMM0246LCL0040</t>
   </si>
   <si>
@@ -232,6 +259,15 @@
     <t>CMM0804LCL0054</t>
   </si>
   <si>
+    <t>CMM0657LCL0098</t>
+  </si>
+  <si>
+    <t>CMM0050LCL0065</t>
+  </si>
+  <si>
+    <t>CMM0657LCL0096</t>
+  </si>
+  <si>
     <t>Success</t>
   </si>
   <si>
@@ -248,6 +284,12 @@
   </si>
   <si>
     <t>LTL</t>
+  </si>
+  <si>
+    <t>Drayage</t>
+  </si>
+  <si>
+    <t>LTL, FTL, FTL53, Drayage</t>
   </si>
   <si>
     <t>Pickup charges are required for Door-to-Door shipment scope.</t>
@@ -614,7 +656,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G57"/>
+  <dimension ref="A1:G66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -648,13 +690,13 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D2" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -665,13 +707,13 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D3" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -682,13 +724,13 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D4" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -699,13 +741,13 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D5" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -716,13 +758,13 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D6" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -733,13 +775,13 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="C7" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D7" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -750,13 +792,13 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="C8" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D8" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -767,13 +809,13 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D9" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -784,13 +826,13 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D10" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -801,13 +843,13 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D11" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -818,13 +860,13 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C12" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D12" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -835,13 +877,13 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C13" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D13" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -852,16 +894,16 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C14" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D14" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="E14" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G14">
         <v>3</v>
@@ -872,16 +914,16 @@
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C15" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D15" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="E15" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G15">
         <v>3</v>
@@ -892,13 +934,13 @@
         <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C16" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D16" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -909,16 +951,16 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C17" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="D17" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="F17" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -929,13 +971,13 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C18" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D18" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="G18">
         <v>3</v>
@@ -946,13 +988,13 @@
         <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C19" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D19" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="G19">
         <v>3</v>
@@ -963,13 +1005,13 @@
         <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C20" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D20" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="G20">
         <v>3</v>
@@ -980,13 +1022,13 @@
         <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C21" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D21" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="G21">
         <v>3</v>
@@ -997,13 +1039,13 @@
         <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C22" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D22" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="G22">
         <v>3</v>
@@ -1014,13 +1056,13 @@
         <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C23" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D23" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1031,13 +1073,13 @@
         <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C24" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D24" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1048,13 +1090,13 @@
         <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C25" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D25" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1065,13 +1107,13 @@
         <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C26" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D26" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -1082,13 +1124,13 @@
         <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C27" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D27" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -1099,13 +1141,13 @@
         <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C28" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D28" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -1116,13 +1158,13 @@
         <v>34</v>
       </c>
       <c r="B29" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C29" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D29" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -1133,13 +1175,13 @@
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C30" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D30" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -1150,13 +1192,13 @@
         <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C31" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D31" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -1167,13 +1209,13 @@
         <v>37</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C32" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D32" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -1184,13 +1226,13 @@
         <v>38</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C33" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D33" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="G33">
         <v>3</v>
@@ -1201,13 +1243,13 @@
         <v>39</v>
       </c>
       <c r="B34" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C34" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D34" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="G34">
         <v>3</v>
@@ -1218,13 +1260,13 @@
         <v>40</v>
       </c>
       <c r="B35" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C35" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D35" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -1235,16 +1277,16 @@
         <v>41</v>
       </c>
       <c r="B36" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C36" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D36" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="E36" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -1255,16 +1297,16 @@
         <v>42</v>
       </c>
       <c r="B37" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C37" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D37" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="E37" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -1275,16 +1317,16 @@
         <v>43</v>
       </c>
       <c r="B38" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C38" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D38" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="E38" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -1295,16 +1337,16 @@
         <v>44</v>
       </c>
       <c r="B39" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C39" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D39" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="E39" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -1315,13 +1357,13 @@
         <v>45</v>
       </c>
       <c r="B40" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C40" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D40" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -1332,16 +1374,16 @@
         <v>46</v>
       </c>
       <c r="B41" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C41" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="E41" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -1352,13 +1394,13 @@
         <v>47</v>
       </c>
       <c r="B42" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C42" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D42" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -1369,13 +1411,13 @@
         <v>48</v>
       </c>
       <c r="B43" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C43" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D43" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -1386,16 +1428,16 @@
         <v>49</v>
       </c>
       <c r="B44" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C44" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="D44" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="F44" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -1406,16 +1448,16 @@
         <v>50</v>
       </c>
       <c r="B45" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C45" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="D45" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="F45" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -1426,16 +1468,16 @@
         <v>51</v>
       </c>
       <c r="B46" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C46" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="D46" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="F46" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -1446,16 +1488,16 @@
         <v>52</v>
       </c>
       <c r="B47" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C47" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="D47" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="F47" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -1466,13 +1508,13 @@
         <v>53</v>
       </c>
       <c r="B48" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C48" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D48" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -1483,13 +1525,13 @@
         <v>54</v>
       </c>
       <c r="B49" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C49" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D49" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -1500,13 +1542,13 @@
         <v>55</v>
       </c>
       <c r="B50" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C50" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D50" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="G50">
         <v>3</v>
@@ -1517,16 +1559,16 @@
         <v>56</v>
       </c>
       <c r="B51" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C51" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="D51" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="F51" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -1537,13 +1579,13 @@
         <v>57</v>
       </c>
       <c r="B52" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C52" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D52" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="G52">
         <v>3</v>
@@ -1554,13 +1596,13 @@
         <v>58</v>
       </c>
       <c r="B53" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C53" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D53" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="G53">
         <v>3</v>
@@ -1571,13 +1613,13 @@
         <v>59</v>
       </c>
       <c r="B54" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C54" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D54" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -1588,13 +1630,13 @@
         <v>60</v>
       </c>
       <c r="B55" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C55" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D55" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -1605,13 +1647,13 @@
         <v>61</v>
       </c>
       <c r="B56" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="C56" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D56" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="G56">
         <v>3</v>
@@ -1622,18 +1664,189 @@
         <v>62</v>
       </c>
       <c r="B57" t="s">
+        <v>80</v>
+      </c>
+      <c r="C57" t="s">
+        <v>85</v>
+      </c>
+      <c r="D57" t="s">
+        <v>86</v>
+      </c>
+      <c r="F57" t="s">
+        <v>94</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58" t="s">
+        <v>81</v>
+      </c>
+      <c r="C58" t="s">
+        <v>84</v>
+      </c>
+      <c r="D58" t="s">
+        <v>86</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59" t="s">
+        <v>82</v>
+      </c>
+      <c r="C59" t="s">
+        <v>84</v>
+      </c>
+      <c r="D59" t="s">
+        <v>86</v>
+      </c>
+      <c r="G59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60" t="s">
+        <v>83</v>
+      </c>
+      <c r="C60" t="s">
+        <v>84</v>
+      </c>
+      <c r="D60" t="s">
+        <v>86</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61" t="s">
+        <v>79</v>
+      </c>
+      <c r="C61" t="s">
+        <v>84</v>
+      </c>
+      <c r="D61" t="s">
+        <v>86</v>
+      </c>
+      <c r="E61" t="s">
+        <v>89</v>
+      </c>
+      <c r="G61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" t="s">
+        <v>67</v>
+      </c>
+      <c r="B62" t="s">
+        <v>79</v>
+      </c>
+      <c r="C62" t="s">
+        <v>84</v>
+      </c>
+      <c r="D62" t="s">
+        <v>86</v>
+      </c>
+      <c r="E62" t="s">
+        <v>90</v>
+      </c>
+      <c r="G62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" t="s">
+        <v>68</v>
+      </c>
+      <c r="B63" t="s">
+        <v>79</v>
+      </c>
+      <c r="C63" t="s">
+        <v>84</v>
+      </c>
+      <c r="D63" t="s">
+        <v>86</v>
+      </c>
+      <c r="E63" t="s">
+        <v>91</v>
+      </c>
+      <c r="G63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64" t="s">
+        <v>79</v>
+      </c>
+      <c r="C64" t="s">
+        <v>84</v>
+      </c>
+      <c r="D64" t="s">
+        <v>86</v>
+      </c>
+      <c r="E64" t="s">
+        <v>90</v>
+      </c>
+      <c r="G64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" t="s">
+        <v>70</v>
+      </c>
+      <c r="B65" t="s">
+        <v>77</v>
+      </c>
+      <c r="C65" t="s">
+        <v>84</v>
+      </c>
+      <c r="D65" t="s">
+        <v>86</v>
+      </c>
+      <c r="G65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" t="s">
         <v>71</v>
       </c>
-      <c r="C57" t="s">
-        <v>73</v>
-      </c>
-      <c r="D57" t="s">
-        <v>74</v>
-      </c>
-      <c r="F57" t="s">
-        <v>80</v>
-      </c>
-      <c r="G57">
+      <c r="B66" t="s">
+        <v>77</v>
+      </c>
+      <c r="C66" t="s">
+        <v>85</v>
+      </c>
+      <c r="D66" t="s">
+        <v>86</v>
+      </c>
+      <c r="E66" t="s">
+        <v>89</v>
+      </c>
+      <c r="F66" t="s">
+        <v>92</v>
+      </c>
+      <c r="G66">
         <v>0</v>
       </c>
     </row>

--- a/Logs/success_rates.xlsx
+++ b/Logs/success_rates.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="106">
   <si>
     <t>Timestamp</t>
   </si>
@@ -181,6 +181,105 @@
     <t>2025-08-08 13:18:43</t>
   </si>
   <si>
+    <t>2025-08-08 14:00:01</t>
+  </si>
+  <si>
+    <t>2025-08-08 16:17:03</t>
+  </si>
+  <si>
+    <t>2025-08-08 16:19:49</t>
+  </si>
+  <si>
+    <t>2025-08-08 16:35:42</t>
+  </si>
+  <si>
+    <t>2025-08-09 14:42:36</t>
+  </si>
+  <si>
+    <t>2025-08-09 14:43:46</t>
+  </si>
+  <si>
+    <t>2025-08-09 14:44:58</t>
+  </si>
+  <si>
+    <t>2025-08-09 14:45:25</t>
+  </si>
+  <si>
+    <t>2025-08-09 14:48:19</t>
+  </si>
+  <si>
+    <t>2025-08-09 14:49:46</t>
+  </si>
+  <si>
+    <t>2025-08-09 14:54:32</t>
+  </si>
+  <si>
+    <t>2025-08-09 14:54:52</t>
+  </si>
+  <si>
+    <t>2025-08-09 14:57:13</t>
+  </si>
+  <si>
+    <t>2025-08-09 15:01:13</t>
+  </si>
+  <si>
+    <t>2025-08-09 15:05:51</t>
+  </si>
+  <si>
+    <t>2025-08-09 15:09:43</t>
+  </si>
+  <si>
+    <t>2025-08-09 15:11:43</t>
+  </si>
+  <si>
+    <t>2025-08-09 15:12:58</t>
+  </si>
+  <si>
+    <t>2025-08-09 15:13:50</t>
+  </si>
+  <si>
+    <t>2025-08-09 15:18:45</t>
+  </si>
+  <si>
+    <t>2025-08-09 15:21:12</t>
+  </si>
+  <si>
+    <t>2025-08-09 15:22:17</t>
+  </si>
+  <si>
+    <t>2025-08-09 15:23:14</t>
+  </si>
+  <si>
+    <t>2025-08-09 15:23:52</t>
+  </si>
+  <si>
+    <t>2025-08-09 15:26:21</t>
+  </si>
+  <si>
+    <t>2025-08-09 15:33:08</t>
+  </si>
+  <si>
+    <t>2025-08-09 15:35:18</t>
+  </si>
+  <si>
+    <t>2025-08-09 15:38:25</t>
+  </si>
+  <si>
+    <t>2025-08-09 15:43:01</t>
+  </si>
+  <si>
+    <t>2025-08-09 15:44:14</t>
+  </si>
+  <si>
+    <t>2025-08-09 15:46:47</t>
+  </si>
+  <si>
+    <t>2025-08-09 15:52:42</t>
+  </si>
+  <si>
+    <t>2025-08-09 15:59:01</t>
+  </si>
+  <si>
     <t>CMM0246LCL0040</t>
   </si>
   <si>
@@ -196,6 +295,12 @@
     <t>CMM0598LCL0010</t>
   </si>
   <si>
+    <t>CMM0804LCL0053</t>
+  </si>
+  <si>
+    <t>CMM0246LCL0044</t>
+  </si>
+  <si>
     <t>Success</t>
   </si>
   <si>
@@ -218,6 +323,15 @@
   </si>
   <si>
     <t>❌ Error processing P2P row for IUSL 21901, North East, North East, Maryland, United States: float division by zero</t>
+  </si>
+  <si>
+    <t>❌ Rate comparison failed for AGS2 30567, Pendergrass, Pendergrass, Georgia, United States (FBA AGS2): 'float' object is not iterable; ❌ Rate comparison failed for TEB9 08873, Somerset, Franklin Township, New Jersey, United States (FBA TEB9): 'float' object is not iterable; ❌ Rate comparison failed for IUSL 21901, North East, North East, Maryland, United States (FBA IUSL): 'float' object is not iterable</t>
+  </si>
+  <si>
+    <t>❌ Rate comparison failed for IUSL 21901, North East, North East, Maryland, United States (FBA IUSL): not enough values to unpack (expected 6, got 5)</t>
+  </si>
+  <si>
+    <t>❌ Rate comparison failed for AGS2 30567, Pendergrass, Pendergrass, Georgia, United States (FBA AGS2): 'NoneType' object is not subscriptable</t>
   </si>
 </sst>
 </file>
@@ -575,7 +689,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -609,13 +723,13 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -626,13 +740,13 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -643,13 +757,13 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -660,13 +774,13 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -677,13 +791,13 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -694,13 +808,13 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -711,13 +825,13 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="D8" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -728,13 +842,13 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="D9" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -745,13 +859,13 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="D10" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -762,13 +876,13 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="D11" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -779,13 +893,13 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="D12" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -796,13 +910,13 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="D13" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -813,16 +927,16 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="C14" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="D14" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="E14" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="G14">
         <v>3</v>
@@ -833,16 +947,16 @@
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="C15" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="D15" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="E15" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="G15">
         <v>3</v>
@@ -853,13 +967,13 @@
         <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="D16" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -870,16 +984,16 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="D17" t="s">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="F17" t="s">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -890,13 +1004,13 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="D18" t="s">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="G18">
         <v>3</v>
@@ -907,13 +1021,13 @@
         <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="D19" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="G19">
         <v>3</v>
@@ -924,13 +1038,13 @@
         <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="C20" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="D20" t="s">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="G20">
         <v>3</v>
@@ -941,13 +1055,13 @@
         <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="D21" t="s">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="G21">
         <v>3</v>
@@ -958,13 +1072,13 @@
         <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="C22" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="D22" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="G22">
         <v>3</v>
@@ -975,13 +1089,13 @@
         <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="C23" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="D23" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -992,13 +1106,13 @@
         <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="C24" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="D24" t="s">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1009,13 +1123,13 @@
         <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="C25" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="D25" t="s">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1026,13 +1140,13 @@
         <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="C26" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="D26" t="s">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -1043,13 +1157,13 @@
         <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="C27" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="D27" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -1060,13 +1174,13 @@
         <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="C28" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="D28" t="s">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -1077,13 +1191,13 @@
         <v>34</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="C29" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="D29" t="s">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -1094,13 +1208,13 @@
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="C30" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="D30" t="s">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -1111,13 +1225,13 @@
         <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="C31" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -1128,13 +1242,13 @@
         <v>37</v>
       </c>
       <c r="B32" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="C32" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="D32" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -1145,13 +1259,13 @@
         <v>38</v>
       </c>
       <c r="B33" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="C33" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="D33" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="G33">
         <v>3</v>
@@ -1162,13 +1276,13 @@
         <v>39</v>
       </c>
       <c r="B34" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="C34" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="D34" t="s">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="G34">
         <v>3</v>
@@ -1179,13 +1293,13 @@
         <v>40</v>
       </c>
       <c r="B35" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="C35" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="D35" t="s">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -1196,16 +1310,16 @@
         <v>41</v>
       </c>
       <c r="B36" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="C36" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="D36" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="E36" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -1216,16 +1330,16 @@
         <v>42</v>
       </c>
       <c r="B37" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="C37" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="D37" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="E37" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -1236,16 +1350,16 @@
         <v>43</v>
       </c>
       <c r="B38" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="C38" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="D38" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="E38" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -1256,16 +1370,16 @@
         <v>44</v>
       </c>
       <c r="B39" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="C39" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="D39" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="E39" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -1276,13 +1390,13 @@
         <v>45</v>
       </c>
       <c r="B40" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="C40" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="D40" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -1293,16 +1407,16 @@
         <v>46</v>
       </c>
       <c r="B41" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="C41" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="D41" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="E41" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -1313,13 +1427,13 @@
         <v>47</v>
       </c>
       <c r="B42" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="C42" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="D42" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -1330,13 +1444,13 @@
         <v>48</v>
       </c>
       <c r="B43" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="C43" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="D43" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -1347,16 +1461,16 @@
         <v>49</v>
       </c>
       <c r="B44" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="C44" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="D44" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="F44" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -1367,16 +1481,16 @@
         <v>50</v>
       </c>
       <c r="B45" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="C45" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="D45" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="F45" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -1387,16 +1501,16 @@
         <v>51</v>
       </c>
       <c r="B46" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="C46" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="D46" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="F46" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -1407,16 +1521,16 @@
         <v>52</v>
       </c>
       <c r="B47" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="C47" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="D47" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="F47" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -1427,13 +1541,13 @@
         <v>53</v>
       </c>
       <c r="B48" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="C48" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="D48" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -1444,16 +1558,589 @@
         <v>54</v>
       </c>
       <c r="B49" t="s">
+        <v>88</v>
+      </c>
+      <c r="C49" t="s">
+        <v>95</v>
+      </c>
+      <c r="D49" t="s">
+        <v>97</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
         <v>55</v>
       </c>
-      <c r="C49" t="s">
+      <c r="B50" t="s">
+        <v>93</v>
+      </c>
+      <c r="C50" t="s">
+        <v>95</v>
+      </c>
+      <c r="D50" t="s">
+        <v>97</v>
+      </c>
+      <c r="G50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" t="s">
+        <v>94</v>
+      </c>
+      <c r="C51" t="s">
+        <v>95</v>
+      </c>
+      <c r="D51" t="s">
+        <v>97</v>
+      </c>
+      <c r="G51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52" t="s">
+        <v>94</v>
+      </c>
+      <c r="C52" t="s">
+        <v>95</v>
+      </c>
+      <c r="D52" t="s">
+        <v>97</v>
+      </c>
+      <c r="G52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53" t="s">
+        <v>94</v>
+      </c>
+      <c r="C53" t="s">
+        <v>95</v>
+      </c>
+      <c r="D53" t="s">
+        <v>97</v>
+      </c>
+      <c r="G53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54" t="s">
+        <v>93</v>
+      </c>
+      <c r="C54" t="s">
+        <v>95</v>
+      </c>
+      <c r="D54" t="s">
+        <v>97</v>
+      </c>
+      <c r="G54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" t="s">
         <v>60</v>
       </c>
-      <c r="D49" t="s">
+      <c r="B55" t="s">
+        <v>93</v>
+      </c>
+      <c r="C55" t="s">
+        <v>95</v>
+      </c>
+      <c r="D55" t="s">
+        <v>97</v>
+      </c>
+      <c r="G55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56" t="s">
+        <v>93</v>
+      </c>
+      <c r="C56" t="s">
+        <v>95</v>
+      </c>
+      <c r="D56" t="s">
+        <v>97</v>
+      </c>
+      <c r="G56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" t="s">
         <v>62</v>
       </c>
-      <c r="G49">
-        <v>1</v>
+      <c r="B57" t="s">
+        <v>93</v>
+      </c>
+      <c r="C57" t="s">
+        <v>95</v>
+      </c>
+      <c r="D57" t="s">
+        <v>97</v>
+      </c>
+      <c r="G57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58" t="s">
+        <v>93</v>
+      </c>
+      <c r="C58" t="s">
+        <v>95</v>
+      </c>
+      <c r="D58" t="s">
+        <v>97</v>
+      </c>
+      <c r="G58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59" t="s">
+        <v>93</v>
+      </c>
+      <c r="C59" t="s">
+        <v>95</v>
+      </c>
+      <c r="D59" t="s">
+        <v>97</v>
+      </c>
+      <c r="G59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60" t="s">
+        <v>93</v>
+      </c>
+      <c r="C60" t="s">
+        <v>95</v>
+      </c>
+      <c r="D60" t="s">
+        <v>97</v>
+      </c>
+      <c r="G60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61" t="s">
+        <v>93</v>
+      </c>
+      <c r="C61" t="s">
+        <v>95</v>
+      </c>
+      <c r="D61" t="s">
+        <v>97</v>
+      </c>
+      <c r="G61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" t="s">
+        <v>67</v>
+      </c>
+      <c r="B62" t="s">
+        <v>89</v>
+      </c>
+      <c r="C62" t="s">
+        <v>95</v>
+      </c>
+      <c r="D62" t="s">
+        <v>97</v>
+      </c>
+      <c r="G62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" t="s">
+        <v>68</v>
+      </c>
+      <c r="B63" t="s">
+        <v>89</v>
+      </c>
+      <c r="C63" t="s">
+        <v>95</v>
+      </c>
+      <c r="D63" t="s">
+        <v>97</v>
+      </c>
+      <c r="G63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64" t="s">
+        <v>95</v>
+      </c>
+      <c r="D64" t="s">
+        <v>97</v>
+      </c>
+      <c r="G64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" t="s">
+        <v>70</v>
+      </c>
+      <c r="B65" t="s">
+        <v>89</v>
+      </c>
+      <c r="C65" t="s">
+        <v>95</v>
+      </c>
+      <c r="D65" t="s">
+        <v>97</v>
+      </c>
+      <c r="G65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" t="s">
+        <v>71</v>
+      </c>
+      <c r="B66" t="s">
+        <v>89</v>
+      </c>
+      <c r="C66" t="s">
+        <v>95</v>
+      </c>
+      <c r="D66" t="s">
+        <v>97</v>
+      </c>
+      <c r="G66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" t="s">
+        <v>72</v>
+      </c>
+      <c r="B67" t="s">
+        <v>89</v>
+      </c>
+      <c r="C67" t="s">
+        <v>95</v>
+      </c>
+      <c r="D67" t="s">
+        <v>97</v>
+      </c>
+      <c r="G67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" t="s">
+        <v>73</v>
+      </c>
+      <c r="B68" t="s">
+        <v>89</v>
+      </c>
+      <c r="C68" t="s">
+        <v>95</v>
+      </c>
+      <c r="D68" t="s">
+        <v>97</v>
+      </c>
+      <c r="G68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" t="s">
+        <v>74</v>
+      </c>
+      <c r="B69" t="s">
+        <v>89</v>
+      </c>
+      <c r="C69" t="s">
+        <v>96</v>
+      </c>
+      <c r="D69" t="s">
+        <v>97</v>
+      </c>
+      <c r="F69" t="s">
+        <v>103</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" t="s">
+        <v>75</v>
+      </c>
+      <c r="B70" t="s">
+        <v>89</v>
+      </c>
+      <c r="C70" t="s">
+        <v>96</v>
+      </c>
+      <c r="D70" t="s">
+        <v>97</v>
+      </c>
+      <c r="F70" t="s">
+        <v>103</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" t="s">
+        <v>76</v>
+      </c>
+      <c r="B71" t="s">
+        <v>89</v>
+      </c>
+      <c r="C71" t="s">
+        <v>95</v>
+      </c>
+      <c r="D71" t="s">
+        <v>97</v>
+      </c>
+      <c r="G71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" t="s">
+        <v>77</v>
+      </c>
+      <c r="B72" t="s">
+        <v>89</v>
+      </c>
+      <c r="C72" t="s">
+        <v>95</v>
+      </c>
+      <c r="D72" t="s">
+        <v>97</v>
+      </c>
+      <c r="G72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" t="s">
+        <v>78</v>
+      </c>
+      <c r="B73" t="s">
+        <v>89</v>
+      </c>
+      <c r="C73" t="s">
+        <v>95</v>
+      </c>
+      <c r="D73" t="s">
+        <v>97</v>
+      </c>
+      <c r="G73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" t="s">
+        <v>79</v>
+      </c>
+      <c r="B74" t="s">
+        <v>89</v>
+      </c>
+      <c r="C74" t="s">
+        <v>95</v>
+      </c>
+      <c r="D74" t="s">
+        <v>97</v>
+      </c>
+      <c r="G74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" t="s">
+        <v>80</v>
+      </c>
+      <c r="B75" t="s">
+        <v>89</v>
+      </c>
+      <c r="C75" t="s">
+        <v>95</v>
+      </c>
+      <c r="D75" t="s">
+        <v>97</v>
+      </c>
+      <c r="G75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" t="s">
+        <v>81</v>
+      </c>
+      <c r="B76" t="s">
+        <v>89</v>
+      </c>
+      <c r="C76" t="s">
+        <v>95</v>
+      </c>
+      <c r="D76" t="s">
+        <v>97</v>
+      </c>
+      <c r="F76" t="s">
+        <v>104</v>
+      </c>
+      <c r="G76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" t="s">
+        <v>82</v>
+      </c>
+      <c r="B77" t="s">
+        <v>89</v>
+      </c>
+      <c r="C77" t="s">
+        <v>95</v>
+      </c>
+      <c r="D77" t="s">
+        <v>97</v>
+      </c>
+      <c r="G77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" t="s">
+        <v>83</v>
+      </c>
+      <c r="B78" t="s">
+        <v>89</v>
+      </c>
+      <c r="C78" t="s">
+        <v>95</v>
+      </c>
+      <c r="D78" t="s">
+        <v>97</v>
+      </c>
+      <c r="G78">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" t="s">
+        <v>84</v>
+      </c>
+      <c r="B79" t="s">
+        <v>89</v>
+      </c>
+      <c r="C79" t="s">
+        <v>95</v>
+      </c>
+      <c r="D79" t="s">
+        <v>99</v>
+      </c>
+      <c r="G79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" t="s">
+        <v>85</v>
+      </c>
+      <c r="B80" t="s">
+        <v>89</v>
+      </c>
+      <c r="C80" t="s">
+        <v>95</v>
+      </c>
+      <c r="D80" t="s">
+        <v>99</v>
+      </c>
+      <c r="F80" t="s">
+        <v>105</v>
+      </c>
+      <c r="G80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" t="s">
+        <v>86</v>
+      </c>
+      <c r="B81" t="s">
+        <v>89</v>
+      </c>
+      <c r="C81" t="s">
+        <v>95</v>
+      </c>
+      <c r="D81" t="s">
+        <v>99</v>
+      </c>
+      <c r="G81">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" t="s">
+        <v>87</v>
+      </c>
+      <c r="B82" t="s">
+        <v>89</v>
+      </c>
+      <c r="C82" t="s">
+        <v>95</v>
+      </c>
+      <c r="D82" t="s">
+        <v>97</v>
+      </c>
+      <c r="G82">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/success_rates.xlsx
+++ b/Logs/success_rates.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="108">
   <si>
     <t>Timestamp</t>
   </si>
@@ -278,6 +278,12 @@
   </si>
   <si>
     <t>2025-08-09 15:59:01</t>
+  </si>
+  <si>
+    <t>2025-08-09 16:23:28</t>
+  </si>
+  <si>
+    <t>2025-08-09 16:23:39</t>
   </si>
   <si>
     <t>CMM0246LCL0040</t>
@@ -689,7 +695,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G82"/>
+  <dimension ref="A1:G84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -723,13 +729,13 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -740,13 +746,13 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -757,13 +763,13 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -774,13 +780,13 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -791,13 +797,13 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -808,13 +814,13 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -825,13 +831,13 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D8" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -842,13 +848,13 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C9" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -859,13 +865,13 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C10" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D10" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -876,13 +882,13 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C11" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D11" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -893,13 +899,13 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C12" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D12" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -910,13 +916,13 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C13" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D13" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -927,16 +933,16 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C14" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D14" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E14" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G14">
         <v>3</v>
@@ -947,16 +953,16 @@
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C15" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D15" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E15" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G15">
         <v>3</v>
@@ -967,13 +973,13 @@
         <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C16" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D16" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -984,16 +990,16 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C17" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D17" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F17" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1004,13 +1010,13 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C18" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D18" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G18">
         <v>3</v>
@@ -1021,13 +1027,13 @@
         <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C19" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D19" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G19">
         <v>3</v>
@@ -1038,13 +1044,13 @@
         <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C20" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D20" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G20">
         <v>3</v>
@@ -1055,13 +1061,13 @@
         <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C21" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D21" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G21">
         <v>3</v>
@@ -1072,13 +1078,13 @@
         <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C22" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D22" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G22">
         <v>3</v>
@@ -1089,13 +1095,13 @@
         <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C23" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D23" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1106,13 +1112,13 @@
         <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C24" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D24" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1123,13 +1129,13 @@
         <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C25" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D25" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1140,13 +1146,13 @@
         <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C26" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D26" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -1157,13 +1163,13 @@
         <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C27" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D27" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -1174,13 +1180,13 @@
         <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C28" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D28" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -1191,13 +1197,13 @@
         <v>34</v>
       </c>
       <c r="B29" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C29" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D29" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -1208,13 +1214,13 @@
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C30" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D30" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -1225,13 +1231,13 @@
         <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C31" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D31" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -1242,13 +1248,13 @@
         <v>37</v>
       </c>
       <c r="B32" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C32" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D32" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -1259,13 +1265,13 @@
         <v>38</v>
       </c>
       <c r="B33" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C33" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D33" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G33">
         <v>3</v>
@@ -1276,13 +1282,13 @@
         <v>39</v>
       </c>
       <c r="B34" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C34" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D34" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G34">
         <v>3</v>
@@ -1293,13 +1299,13 @@
         <v>40</v>
       </c>
       <c r="B35" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C35" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D35" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -1310,16 +1316,16 @@
         <v>41</v>
       </c>
       <c r="B36" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C36" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D36" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E36" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -1330,16 +1336,16 @@
         <v>42</v>
       </c>
       <c r="B37" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C37" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D37" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E37" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -1350,16 +1356,16 @@
         <v>43</v>
       </c>
       <c r="B38" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C38" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D38" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E38" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -1370,16 +1376,16 @@
         <v>44</v>
       </c>
       <c r="B39" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C39" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D39" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E39" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -1390,13 +1396,13 @@
         <v>45</v>
       </c>
       <c r="B40" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C40" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D40" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -1407,16 +1413,16 @@
         <v>46</v>
       </c>
       <c r="B41" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C41" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D41" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E41" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -1427,13 +1433,13 @@
         <v>47</v>
       </c>
       <c r="B42" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C42" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D42" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -1444,13 +1450,13 @@
         <v>48</v>
       </c>
       <c r="B43" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C43" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D43" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -1461,16 +1467,16 @@
         <v>49</v>
       </c>
       <c r="B44" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C44" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D44" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F44" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -1481,16 +1487,16 @@
         <v>50</v>
       </c>
       <c r="B45" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C45" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D45" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F45" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -1501,16 +1507,16 @@
         <v>51</v>
       </c>
       <c r="B46" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C46" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D46" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F46" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -1521,16 +1527,16 @@
         <v>52</v>
       </c>
       <c r="B47" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C47" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D47" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F47" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -1541,13 +1547,13 @@
         <v>53</v>
       </c>
       <c r="B48" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C48" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D48" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -1558,13 +1564,13 @@
         <v>54</v>
       </c>
       <c r="B49" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C49" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D49" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -1575,13 +1581,13 @@
         <v>55</v>
       </c>
       <c r="B50" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C50" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D50" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G50">
         <v>3</v>
@@ -1592,13 +1598,13 @@
         <v>56</v>
       </c>
       <c r="B51" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C51" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D51" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G51">
         <v>5</v>
@@ -1609,13 +1615,13 @@
         <v>57</v>
       </c>
       <c r="B52" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C52" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D52" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G52">
         <v>5</v>
@@ -1626,13 +1632,13 @@
         <v>58</v>
       </c>
       <c r="B53" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C53" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D53" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G53">
         <v>5</v>
@@ -1643,13 +1649,13 @@
         <v>59</v>
       </c>
       <c r="B54" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C54" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D54" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G54">
         <v>3</v>
@@ -1660,13 +1666,13 @@
         <v>60</v>
       </c>
       <c r="B55" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C55" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D55" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G55">
         <v>3</v>
@@ -1677,13 +1683,13 @@
         <v>61</v>
       </c>
       <c r="B56" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C56" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D56" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G56">
         <v>3</v>
@@ -1694,13 +1700,13 @@
         <v>62</v>
       </c>
       <c r="B57" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C57" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D57" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G57">
         <v>3</v>
@@ -1711,13 +1717,13 @@
         <v>63</v>
       </c>
       <c r="B58" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C58" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D58" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G58">
         <v>3</v>
@@ -1728,13 +1734,13 @@
         <v>64</v>
       </c>
       <c r="B59" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C59" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D59" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G59">
         <v>3</v>
@@ -1745,13 +1751,13 @@
         <v>65</v>
       </c>
       <c r="B60" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C60" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D60" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G60">
         <v>3</v>
@@ -1762,13 +1768,13 @@
         <v>66</v>
       </c>
       <c r="B61" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C61" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D61" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G61">
         <v>3</v>
@@ -1779,13 +1785,13 @@
         <v>67</v>
       </c>
       <c r="B62" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C62" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D62" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G62">
         <v>3</v>
@@ -1796,13 +1802,13 @@
         <v>68</v>
       </c>
       <c r="B63" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C63" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D63" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G63">
         <v>3</v>
@@ -1813,13 +1819,13 @@
         <v>69</v>
       </c>
       <c r="B64" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C64" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D64" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G64">
         <v>3</v>
@@ -1830,13 +1836,13 @@
         <v>70</v>
       </c>
       <c r="B65" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C65" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D65" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G65">
         <v>3</v>
@@ -1847,13 +1853,13 @@
         <v>71</v>
       </c>
       <c r="B66" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C66" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D66" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G66">
         <v>3</v>
@@ -1864,13 +1870,13 @@
         <v>72</v>
       </c>
       <c r="B67" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C67" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D67" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G67">
         <v>3</v>
@@ -1881,13 +1887,13 @@
         <v>73</v>
       </c>
       <c r="B68" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C68" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D68" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G68">
         <v>3</v>
@@ -1898,16 +1904,16 @@
         <v>74</v>
       </c>
       <c r="B69" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C69" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D69" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F69" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -1918,16 +1924,16 @@
         <v>75</v>
       </c>
       <c r="B70" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C70" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D70" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F70" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -1938,13 +1944,13 @@
         <v>76</v>
       </c>
       <c r="B71" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C71" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D71" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G71">
         <v>3</v>
@@ -1955,13 +1961,13 @@
         <v>77</v>
       </c>
       <c r="B72" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C72" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D72" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G72">
         <v>3</v>
@@ -1972,13 +1978,13 @@
         <v>78</v>
       </c>
       <c r="B73" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C73" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D73" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G73">
         <v>3</v>
@@ -1989,13 +1995,13 @@
         <v>79</v>
       </c>
       <c r="B74" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C74" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D74" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G74">
         <v>3</v>
@@ -2006,13 +2012,13 @@
         <v>80</v>
       </c>
       <c r="B75" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C75" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D75" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G75">
         <v>3</v>
@@ -2023,16 +2029,16 @@
         <v>81</v>
       </c>
       <c r="B76" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C76" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D76" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F76" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G76">
         <v>2</v>
@@ -2043,13 +2049,13 @@
         <v>82</v>
       </c>
       <c r="B77" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C77" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D77" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G77">
         <v>3</v>
@@ -2060,13 +2066,13 @@
         <v>83</v>
       </c>
       <c r="B78" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C78" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D78" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G78">
         <v>3</v>
@@ -2077,13 +2083,13 @@
         <v>84</v>
       </c>
       <c r="B79" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C79" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D79" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G79">
         <v>3</v>
@@ -2094,16 +2100,16 @@
         <v>85</v>
       </c>
       <c r="B80" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C80" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D80" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F80" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G80">
         <v>2</v>
@@ -2114,13 +2120,13 @@
         <v>86</v>
       </c>
       <c r="B81" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C81" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D81" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G81">
         <v>3</v>
@@ -2131,15 +2137,49 @@
         <v>87</v>
       </c>
       <c r="B82" t="s">
+        <v>91</v>
+      </c>
+      <c r="C82" t="s">
+        <v>97</v>
+      </c>
+      <c r="D82" t="s">
+        <v>99</v>
+      </c>
+      <c r="G82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" t="s">
+        <v>88</v>
+      </c>
+      <c r="B83" t="s">
+        <v>91</v>
+      </c>
+      <c r="C83" t="s">
+        <v>97</v>
+      </c>
+      <c r="D83" t="s">
+        <v>99</v>
+      </c>
+      <c r="G83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" t="s">
         <v>89</v>
       </c>
-      <c r="C82" t="s">
-        <v>95</v>
-      </c>
-      <c r="D82" t="s">
-        <v>97</v>
-      </c>
-      <c r="G82">
+      <c r="B84" t="s">
+        <v>91</v>
+      </c>
+      <c r="C84" t="s">
+        <v>97</v>
+      </c>
+      <c r="D84" t="s">
+        <v>99</v>
+      </c>
+      <c r="G84">
         <v>3</v>
       </c>
     </row>

--- a/Logs/success_rates.xlsx
+++ b/Logs/success_rates.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
   <si>
     <t>Timestamp</t>
   </si>
@@ -40,7 +40,19 @@
     <t>2025-08-10 14:23:33</t>
   </si>
   <si>
+    <t>2025-08-11 12:43:13</t>
+  </si>
+  <si>
+    <t>2025-08-11 12:46:14</t>
+  </si>
+  <si>
+    <t>2025-08-11 12:53:50</t>
+  </si>
+  <si>
     <t>CMM0246LCL0044</t>
+  </si>
+  <si>
+    <t>CMM0246LCL0039</t>
   </si>
   <si>
     <t>Success</t>
@@ -404,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -438,16 +450,67 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G2">
         <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/success_rates.xlsx
+++ b/Logs/success_rates.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="22">
   <si>
     <t>Timestamp</t>
   </si>
@@ -49,10 +49,31 @@
     <t>2025-08-11 12:53:50</t>
   </si>
   <si>
+    <t>2025-08-11 13:06:25</t>
+  </si>
+  <si>
+    <t>2025-08-11 13:08:13</t>
+  </si>
+  <si>
+    <t>2025-08-11 13:12:14</t>
+  </si>
+  <si>
+    <t>2025-08-11 13:19:11</t>
+  </si>
+  <si>
+    <t>2025-08-11 14:54:01</t>
+  </si>
+  <si>
+    <t>2025-08-11 14:55:35</t>
+  </si>
+  <si>
     <t>CMM0246LCL0044</t>
   </si>
   <si>
     <t>CMM0246LCL0039</t>
+  </si>
+  <si>
+    <t>CMM0246LCL0045</t>
   </si>
   <si>
     <t>Success</t>
@@ -416,7 +437,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -450,13 +471,13 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G2">
         <v>5</v>
@@ -467,13 +488,13 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -484,13 +505,13 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -501,16 +522,118 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G5">
         <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/success_rates.xlsx
+++ b/Logs/success_rates.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="31">
   <si>
     <t>Timestamp</t>
   </si>
@@ -67,6 +67,30 @@
     <t>2025-08-11 14:55:35</t>
   </si>
   <si>
+    <t>2025-08-12 11:54:01</t>
+  </si>
+  <si>
+    <t>2025-08-12 12:07:42</t>
+  </si>
+  <si>
+    <t>2025-08-12 12:31:07</t>
+  </si>
+  <si>
+    <t>2025-08-12 12:51:25</t>
+  </si>
+  <si>
+    <t>2025-08-12 12:57:00</t>
+  </si>
+  <si>
+    <t>2025-08-12 13:41:08</t>
+  </si>
+  <si>
+    <t>2025-08-12 13:44:39</t>
+  </si>
+  <si>
+    <t>2025-08-12 13:47:57</t>
+  </si>
+  <si>
     <t>CMM0246LCL0044</t>
   </si>
   <si>
@@ -74,6 +98,9 @@
   </si>
   <si>
     <t>CMM0246LCL0045</t>
+  </si>
+  <si>
+    <t>CMM0246LCL0046</t>
   </si>
   <si>
     <t>Success</t>
@@ -437,7 +464,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -471,13 +498,13 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G2">
         <v>5</v>
@@ -488,13 +515,13 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -505,13 +532,13 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -522,13 +549,13 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -539,13 +566,13 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -556,13 +583,13 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -573,13 +600,13 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G8">
         <v>5</v>
@@ -590,13 +617,13 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G9">
         <v>5</v>
@@ -607,13 +634,13 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G10">
         <v>5</v>
@@ -624,16 +651,152 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G11">
         <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/success_rates.xlsx
+++ b/Logs/success_rates.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="54">
   <si>
     <t>Timestamp</t>
   </si>
@@ -91,6 +91,54 @@
     <t>2025-08-12 13:47:57</t>
   </si>
   <si>
+    <t>2025-08-12 13:53:08</t>
+  </si>
+  <si>
+    <t>2025-08-12 14:21:32</t>
+  </si>
+  <si>
+    <t>2025-08-12 14:23:32</t>
+  </si>
+  <si>
+    <t>2025-08-12 14:29:43</t>
+  </si>
+  <si>
+    <t>2025-08-12 14:45:28</t>
+  </si>
+  <si>
+    <t>2025-08-13 07:43:45</t>
+  </si>
+  <si>
+    <t>2025-08-13 07:44:13</t>
+  </si>
+  <si>
+    <t>2025-08-13 07:44:44</t>
+  </si>
+  <si>
+    <t>2025-08-13 07:45:02</t>
+  </si>
+  <si>
+    <t>2025-08-13 07:46:36</t>
+  </si>
+  <si>
+    <t>2025-08-13 07:50:03</t>
+  </si>
+  <si>
+    <t>2025-08-13 07:57:45</t>
+  </si>
+  <si>
+    <t>2025-08-13 08:01:38</t>
+  </si>
+  <si>
+    <t>2025-08-13 08:05:25</t>
+  </si>
+  <si>
+    <t>2025-08-13 08:06:41</t>
+  </si>
+  <si>
+    <t>2025-08-13 08:11:53</t>
+  </si>
+  <si>
     <t>CMM0246LCL0044</t>
   </si>
   <si>
@@ -103,10 +151,31 @@
     <t>CMM0246LCL0046</t>
   </si>
   <si>
+    <t>CMM0246LCL0048</t>
+  </si>
+  <si>
+    <t>CMM0246LCL0037</t>
+  </si>
+  <si>
+    <t>CMM0246LCL0047</t>
+  </si>
+  <si>
+    <t>CMM0246LCL0049</t>
+  </si>
+  <si>
+    <t>CMM0613LCL0008</t>
+  </si>
+  <si>
     <t>Success</t>
   </si>
   <si>
+    <t>Error</t>
+  </si>
+  <si>
     <t>not selected</t>
+  </si>
+  <si>
+    <t>❌ Error processing P2P row for IUST 17225, Greencastle, Greencastle, Pennsylvania, United States: cannot access local variable 'pickup_charges' where it is not associated with a value</t>
   </si>
 </sst>
 </file>
@@ -464,7 +533,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -498,13 +567,13 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="G2">
         <v>5</v>
@@ -515,13 +584,13 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -532,13 +601,13 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -549,13 +618,13 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -566,13 +635,13 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -583,13 +652,13 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -600,13 +669,13 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="G8">
         <v>5</v>
@@ -617,13 +686,13 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="G9">
         <v>5</v>
@@ -634,13 +703,13 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="G10">
         <v>5</v>
@@ -651,13 +720,13 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="G11">
         <v>5</v>
@@ -668,13 +737,13 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -685,13 +754,13 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -702,13 +771,13 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="G14">
         <v>3</v>
@@ -719,13 +788,13 @@
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -736,13 +805,13 @@
         <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="D16" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -753,13 +822,13 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="D17" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="G17">
         <v>3</v>
@@ -770,13 +839,13 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="D18" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="G18">
         <v>3</v>
@@ -787,16 +856,291 @@
         <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="D19" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="G19">
         <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" t="s">
+        <v>52</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" t="s">
+        <v>52</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" t="s">
+        <v>52</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" t="s">
+        <v>52</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" t="s">
+        <v>52</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" t="s">
+        <v>52</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" t="s">
+        <v>52</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" t="s">
+        <v>52</v>
+      </c>
+      <c r="G29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" t="s">
+        <v>52</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" t="s">
+        <v>52</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" t="s">
+        <v>52</v>
+      </c>
+      <c r="G32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" t="s">
+        <v>52</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" t="s">
+        <v>52</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" t="s">
+        <v>51</v>
+      </c>
+      <c r="D35" t="s">
+        <v>52</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/success_rates.xlsx
+++ b/Logs/success_rates.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="58">
   <si>
     <t>Timestamp</t>
   </si>
@@ -137,6 +137,18 @@
   </si>
   <si>
     <t>2025-08-13 08:11:53</t>
+  </si>
+  <si>
+    <t>2025-08-13 02:45:00</t>
+  </si>
+  <si>
+    <t>2025-08-13 02:59:09</t>
+  </si>
+  <si>
+    <t>2025-08-13 03:15:01</t>
+  </si>
+  <si>
+    <t>2025-08-13 03:17:32</t>
   </si>
   <si>
     <t>CMM0246LCL0044</t>
@@ -533,7 +545,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -567,13 +579,13 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G2">
         <v>5</v>
@@ -584,13 +596,13 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -601,13 +613,13 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -618,13 +630,13 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -635,13 +647,13 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -652,13 +664,13 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -669,13 +681,13 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D8" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G8">
         <v>5</v>
@@ -686,13 +698,13 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G9">
         <v>5</v>
@@ -703,13 +715,13 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D10" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G10">
         <v>5</v>
@@ -720,13 +732,13 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D11" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G11">
         <v>5</v>
@@ -737,13 +749,13 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D12" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -754,13 +766,13 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D13" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -771,13 +783,13 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G14">
         <v>3</v>
@@ -788,13 +800,13 @@
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D15" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -805,13 +817,13 @@
         <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -822,13 +834,13 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D17" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G17">
         <v>3</v>
@@ -839,13 +851,13 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D18" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G18">
         <v>3</v>
@@ -856,13 +868,13 @@
         <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C19" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G19">
         <v>3</v>
@@ -873,16 +885,16 @@
         <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C20" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D20" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F20" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -893,13 +905,13 @@
         <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C21" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D21" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -910,13 +922,13 @@
         <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C22" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D22" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -927,13 +939,13 @@
         <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C23" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D23" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G23">
         <v>2</v>
@@ -944,13 +956,13 @@
         <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C24" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D24" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -961,13 +973,13 @@
         <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C25" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D25" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -978,13 +990,13 @@
         <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C26" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D26" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -995,13 +1007,13 @@
         <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C27" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D27" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -1012,13 +1024,13 @@
         <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C28" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D28" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -1029,13 +1041,13 @@
         <v>34</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C29" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D29" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -1046,13 +1058,13 @@
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C30" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D30" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -1063,13 +1075,13 @@
         <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C31" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D31" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -1080,13 +1092,13 @@
         <v>37</v>
       </c>
       <c r="B32" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C32" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D32" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G32">
         <v>5</v>
@@ -1097,13 +1109,13 @@
         <v>38</v>
       </c>
       <c r="B33" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C33" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D33" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -1114,13 +1126,13 @@
         <v>39</v>
       </c>
       <c r="B34" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C34" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D34" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -1131,16 +1143,84 @@
         <v>40</v>
       </c>
       <c r="B35" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C35" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D35" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G35">
         <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" t="s">
+        <v>55</v>
+      </c>
+      <c r="D36" t="s">
+        <v>56</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" t="s">
+        <v>56</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38" t="s">
+        <v>56</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39" t="s">
+        <v>56</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/success_rates.xlsx
+++ b/Logs/success_rates.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="69">
   <si>
     <t>Timestamp</t>
   </si>
@@ -151,6 +151,36 @@
     <t>2025-08-13 03:17:32</t>
   </si>
   <si>
+    <t>2025-08-13 08:54:17</t>
+  </si>
+  <si>
+    <t>2025-08-13 11:25:40</t>
+  </si>
+  <si>
+    <t>2025-08-13 11:28:45</t>
+  </si>
+  <si>
+    <t>2025-08-13 11:29:27</t>
+  </si>
+  <si>
+    <t>2025-08-13 11:29:49</t>
+  </si>
+  <si>
+    <t>2025-08-13 11:32:38</t>
+  </si>
+  <si>
+    <t>2025-08-13 11:33:38</t>
+  </si>
+  <si>
+    <t>2025-08-13 11:37:13</t>
+  </si>
+  <si>
+    <t>2025-08-13 11:38:53</t>
+  </si>
+  <si>
+    <t>2025-08-13 11:39:31</t>
+  </si>
+  <si>
     <t>CMM0246LCL0044</t>
   </si>
   <si>
@@ -188,6 +218,9 @@
   </si>
   <si>
     <t>❌ Error processing P2P row for IUST 17225, Greencastle, Greencastle, Pennsylvania, United States: cannot access local variable 'pickup_charges' where it is not associated with a value</t>
+  </si>
+  <si>
+    <t>Pickup charges are required for Door-to-Door shipment scope.</t>
   </si>
 </sst>
 </file>
@@ -545,7 +578,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -579,13 +612,13 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="G2">
         <v>5</v>
@@ -596,13 +629,13 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -613,13 +646,13 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -630,13 +663,13 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -647,13 +680,13 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -664,13 +697,13 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -681,13 +714,13 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="G8">
         <v>5</v>
@@ -698,13 +731,13 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="G9">
         <v>5</v>
@@ -715,13 +748,13 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="G10">
         <v>5</v>
@@ -732,13 +765,13 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D11" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="G11">
         <v>5</v>
@@ -749,13 +782,13 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D12" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -766,13 +799,13 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D13" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -783,13 +816,13 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="G14">
         <v>3</v>
@@ -800,13 +833,13 @@
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -817,13 +850,13 @@
         <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D16" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -834,13 +867,13 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D17" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="G17">
         <v>3</v>
@@ -851,13 +884,13 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C18" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D18" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="G18">
         <v>3</v>
@@ -868,13 +901,13 @@
         <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C19" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D19" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="G19">
         <v>3</v>
@@ -885,16 +918,16 @@
         <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C20" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D20" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="F20" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -905,13 +938,13 @@
         <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D21" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -922,13 +955,13 @@
         <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C22" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D22" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -939,13 +972,13 @@
         <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C23" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="G23">
         <v>2</v>
@@ -956,13 +989,13 @@
         <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C24" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D24" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -973,13 +1006,13 @@
         <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C25" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D25" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -990,13 +1023,13 @@
         <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C26" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D26" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1007,13 +1040,13 @@
         <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C27" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D27" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -1024,13 +1057,13 @@
         <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C28" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D28" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -1041,13 +1074,13 @@
         <v>34</v>
       </c>
       <c r="B29" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C29" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D29" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -1058,13 +1091,13 @@
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C30" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D30" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -1075,13 +1108,13 @@
         <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C31" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D31" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -1092,13 +1125,13 @@
         <v>37</v>
       </c>
       <c r="B32" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C32" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D32" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="G32">
         <v>5</v>
@@ -1109,13 +1142,13 @@
         <v>38</v>
       </c>
       <c r="B33" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C33" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D33" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -1126,13 +1159,13 @@
         <v>39</v>
       </c>
       <c r="B34" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C34" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D34" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -1143,13 +1176,13 @@
         <v>40</v>
       </c>
       <c r="B35" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C35" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D35" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -1160,13 +1193,13 @@
         <v>41</v>
       </c>
       <c r="B36" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C36" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D36" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -1177,13 +1210,13 @@
         <v>42</v>
       </c>
       <c r="B37" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C37" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D37" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -1194,13 +1227,13 @@
         <v>43</v>
       </c>
       <c r="B38" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C38" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D38" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -1211,15 +1244,197 @@
         <v>44</v>
       </c>
       <c r="B39" t="s">
+        <v>59</v>
+      </c>
+      <c r="C39" t="s">
+        <v>64</v>
+      </c>
+      <c r="D39" t="s">
+        <v>66</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" t="s">
+        <v>59</v>
+      </c>
+      <c r="C40" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" t="s">
+        <v>66</v>
+      </c>
+      <c r="F40" t="s">
+        <v>68</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" t="s">
+        <v>59</v>
+      </c>
+      <c r="C41" t="s">
+        <v>64</v>
+      </c>
+      <c r="D41" t="s">
+        <v>66</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" t="s">
+        <v>59</v>
+      </c>
+      <c r="C42" t="s">
+        <v>64</v>
+      </c>
+      <c r="D42" t="s">
+        <v>66</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" t="s">
+        <v>59</v>
+      </c>
+      <c r="C43" t="s">
+        <v>64</v>
+      </c>
+      <c r="D43" t="s">
+        <v>66</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
         <v>49</v>
       </c>
-      <c r="C39" t="s">
+      <c r="B44" t="s">
+        <v>59</v>
+      </c>
+      <c r="C44" t="s">
+        <v>65</v>
+      </c>
+      <c r="D44" t="s">
+        <v>66</v>
+      </c>
+      <c r="F44" t="s">
+        <v>68</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" t="s">
+        <v>59</v>
+      </c>
+      <c r="C45" t="s">
+        <v>64</v>
+      </c>
+      <c r="D45" t="s">
+        <v>66</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" t="s">
+        <v>59</v>
+      </c>
+      <c r="C46" t="s">
+        <v>65</v>
+      </c>
+      <c r="D46" t="s">
+        <v>66</v>
+      </c>
+      <c r="F46" t="s">
+        <v>68</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47" t="s">
+        <v>64</v>
+      </c>
+      <c r="D47" t="s">
+        <v>66</v>
+      </c>
+      <c r="G47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" t="s">
+        <v>59</v>
+      </c>
+      <c r="C48" t="s">
+        <v>65</v>
+      </c>
+      <c r="D48" t="s">
+        <v>66</v>
+      </c>
+      <c r="F48" t="s">
+        <v>68</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
         <v>54</v>
       </c>
-      <c r="D39" t="s">
-        <v>56</v>
-      </c>
-      <c r="G39">
+      <c r="B49" t="s">
+        <v>59</v>
+      </c>
+      <c r="C49" t="s">
+        <v>64</v>
+      </c>
+      <c r="D49" t="s">
+        <v>66</v>
+      </c>
+      <c r="G49">
         <v>1</v>
       </c>
     </row>

--- a/Logs/success_rates.xlsx
+++ b/Logs/success_rates.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="46">
   <si>
     <t>Timestamp</t>
   </si>
@@ -52,6 +52,36 @@
     <t>2025-08-14 15:40:08</t>
   </si>
   <si>
+    <t>2025-08-14 10:25:34</t>
+  </si>
+  <si>
+    <t>2025-08-14 10:28:20</t>
+  </si>
+  <si>
+    <t>2025-08-15 06:19:03</t>
+  </si>
+  <si>
+    <t>2025-08-15 06:21:01</t>
+  </si>
+  <si>
+    <t>2025-08-15 06:21:43</t>
+  </si>
+  <si>
+    <t>2025-08-15 10:12:45</t>
+  </si>
+  <si>
+    <t>2025-08-16 04:29:40</t>
+  </si>
+  <si>
+    <t>2025-08-16 04:38:34</t>
+  </si>
+  <si>
+    <t>2025-08-18 06:06:35</t>
+  </si>
+  <si>
+    <t>2025-08-18 06:27:12</t>
+  </si>
+  <si>
     <t>CMM0246LCL0044</t>
   </si>
   <si>
@@ -61,16 +91,67 @@
     <t>CMM0246LCL0052</t>
   </si>
   <si>
+    <t>CMM0246LCL0043</t>
+  </si>
+  <si>
+    <t>CMM0246LCL0053</t>
+  </si>
+  <si>
+    <t>CMM0246LCL0054</t>
+  </si>
+  <si>
+    <t>CMM0829LCL0007</t>
+  </si>
+  <si>
+    <t>CMM0829LCL0008</t>
+  </si>
+  <si>
+    <t>CMM0800LCL0062</t>
+  </si>
+  <si>
     <t>Success</t>
   </si>
   <si>
     <t>not selected</t>
   </si>
   <si>
+    <t>❌ Error parsing cargo for LAN2 48917, Lansing, Lansing, Michigan, United States: float() argument must be a string or a real number, not 'dict'; ❌ Error parsing cargo for LAN2 48917, Lansing, Lansing, Michigan, United States: float() argument must be a string or a real number, not 'dict'; ❌ Error parsing cargo for LAN2 48917, Lansing, Lansing, Michigan, United States: float() argument must be a string or a real number, not 'dict'; ❌ Error parsing cargo for LAN2 48917, Lansing, Lansing, Michigan, United States: float() argument must be a string or a real number, not 'dict'; ❌ Error parsing cargo for MDW2 60433, Joliet, Joliet, Illinois, United States: float() argument must be a string or a real number, not 'dict'; ❌ Error parsing cargo for MDW2 60433, Joliet, Joliet, Illinois, United States: float() argument must be a string or a real number, not 'dict'; ❌ Error parsing cargo for MDW2 60433, Joliet, Joliet, Illinois, United States: float() argument must be a string or a real number, not 'dict'; ❌ Error parsing cargo for MDW2 60433, Joliet, Joliet, Illinois, United States: float() argument must be a string or a real number, not 'dict'; ❌ Error parsing cargo for MDW2 60433, Joliet, Joliet, Illinois, United States: float() argument must be a string or a real number, not 'dict'; ❌ Error parsing cargo for MDW2 60433, Joliet, Joliet, Illinois, United States: float() argument must be a string or a real number, not 'dict'; ❌ Error parsing cargo for MDW2 60433, Joliet, Joliet, Illinois, United States: float() argument must be a string or a real number, not 'dict'; ❌ Error parsing cargo for MDW2 60433, Joliet, Joliet, Illinois, United States: float() argument must be a string or a real number, not 'dict'; ❌ Error parsing cargo for MDW2 60433, Joliet, Joliet, Illinois, United States: float() argument must be a string or a real number, not 'dict'; ❌ Rate comparison failed for MDW2 60433, Joliet, Joliet, Illinois, United States (FBA MDW2): log_jbhunt_quote() missing 2 required positional arguments: 'quote_id' and 'source'; ❌ Error parsing cargo for FWA4 46818, Fort Wayne, Fort Wayne, Indiana, United States: float() argument must be a string or a real number, not 'dict'; ❌ Error parsing cargo for FWA4 46818, Fort Wayne, Fort Wayne, Indiana, United States: float() argument must be a string or a real number, not 'dict'; ❌ Error parsing cargo for FWA4 46818, Fort Wayne, Fort Wayne, Indiana, United States: float() argument must be a string or a real number, not 'dict'; ❌ Error parsing cargo for FWA4 46818, Fort Wayne, Fort Wayne, Indiana, United States: float() argument must be a string or a real number, not 'dict'; ❌ Error parsing cargo for FWA4 46818, Fort Wayne, Fort Wayne, Indiana, United States: float() argument must be a string or a real number, not 'dict'; ❌ Error parsing cargo for FWA4 46818, Fort Wayne, Fort Wayne, Indiana, United States: float() argument must be a string or a real number, not 'dict'; ❌ Error parsing cargo for FWA4 46818, Fort Wayne, Fort Wayne, Indiana, United States: float() argument must be a string or a real number, not 'dict'; ❌ Error parsing cargo for FWA4 46818, Fort Wayne, Fort Wayne, Indiana, United States: float() argument must be a string or a real number, not 'dict'; ❌ Error parsing cargo for FWA4 46818, Fort Wayne, Fort Wayne, Indiana, United States: float() argument must be a string or a real number, not 'dict'; ❌ Error parsing cargo for FWA4 46818, Fort Wayne, Fort Wayne, Indiana, United States: float() argument must be a string or a real number, not 'dict'</t>
+  </si>
+  <si>
     <t>1 minutes, 4.45 seconds</t>
   </si>
   <si>
     <t>1 minutes, 14.28 seconds</t>
+  </si>
+  <si>
+    <t>0 minutes, 25.81 seconds</t>
+  </si>
+  <si>
+    <t>1 minutes, 20.53 seconds</t>
+  </si>
+  <si>
+    <t>0 minutes, 35.77 seconds</t>
+  </si>
+  <si>
+    <t>0 minutes, 16.24 seconds</t>
+  </si>
+  <si>
+    <t>0 minutes, 17.43 seconds</t>
+  </si>
+  <si>
+    <t>0 minutes, 43.8 seconds</t>
+  </si>
+  <si>
+    <t>0 minutes, 29.72 seconds</t>
+  </si>
+  <si>
+    <t>0 minutes, 30.88 seconds</t>
+  </si>
+  <si>
+    <t>1 minutes, 7.21 seconds</t>
+  </si>
+  <si>
+    <t>0 minutes, 53.37 seconds</t>
   </si>
 </sst>
 </file>
@@ -428,7 +509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -465,13 +546,13 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="G2">
         <v>5</v>
@@ -482,13 +563,13 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="G3">
         <v>5</v>
@@ -499,19 +580,19 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="G4">
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -519,19 +600,225 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="G5">
         <v>3</v>
       </c>
       <c r="H5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
         <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/success_rates.xlsx
+++ b/Logs/success_rates.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="57">
   <si>
     <t>Timestamp</t>
   </si>
@@ -82,6 +82,18 @@
     <t>2025-08-18 06:27:12</t>
   </si>
   <si>
+    <t>2025-08-18 06:51:48</t>
+  </si>
+  <si>
+    <t>2025-08-18 06:56:48</t>
+  </si>
+  <si>
+    <t>2025-08-18 07:03:53</t>
+  </si>
+  <si>
+    <t>2025-08-18 07:04:04</t>
+  </si>
+  <si>
     <t>CMM0246LCL0044</t>
   </si>
   <si>
@@ -109,15 +121,24 @@
     <t>CMM0800LCL0062</t>
   </si>
   <si>
+    <t>CMM0800LCL0069</t>
+  </si>
+  <si>
     <t>Success</t>
   </si>
   <si>
+    <t>Error</t>
+  </si>
+  <si>
     <t>not selected</t>
   </si>
   <si>
     <t>❌ Error parsing cargo for LAN2 48917, Lansing, Lansing, Michigan, United States: float() argument must be a string or a real number, not 'dict'; ❌ Error parsing cargo for LAN2 48917, Lansing, Lansing, Michigan, United States: float() argument must be a string or a real number, not 'dict'; ❌ Error parsing cargo for LAN2 48917, Lansing, Lansing, Michigan, United States: float() argument must be a string or a real number, not 'dict'; ❌ Error parsing cargo for LAN2 48917, Lansing, Lansing, Michigan, United States: float() argument must be a string or a real number, not 'dict'; ❌ Error parsing cargo for MDW2 60433, Joliet, Joliet, Illinois, United States: float() argument must be a string or a real number, not 'dict'; ❌ Error parsing cargo for MDW2 60433, Joliet, Joliet, Illinois, United States: float() argument must be a string or a real number, not 'dict'; ❌ Error parsing cargo for MDW2 60433, Joliet, Joliet, Illinois, United States: float() argument must be a string or a real number, not 'dict'; ❌ Error parsing cargo for MDW2 60433, Joliet, Joliet, Illinois, United States: float() argument must be a string or a real number, not 'dict'; ❌ Error parsing cargo for MDW2 60433, Joliet, Joliet, Illinois, United States: float() argument must be a string or a real number, not 'dict'; ❌ Error parsing cargo for MDW2 60433, Joliet, Joliet, Illinois, United States: float() argument must be a string or a real number, not 'dict'; ❌ Error parsing cargo for MDW2 60433, Joliet, Joliet, Illinois, United States: float() argument must be a string or a real number, not 'dict'; ❌ Error parsing cargo for MDW2 60433, Joliet, Joliet, Illinois, United States: float() argument must be a string or a real number, not 'dict'; ❌ Error parsing cargo for MDW2 60433, Joliet, Joliet, Illinois, United States: float() argument must be a string or a real number, not 'dict'; ❌ Rate comparison failed for MDW2 60433, Joliet, Joliet, Illinois, United States (FBA MDW2): log_jbhunt_quote() missing 2 required positional arguments: 'quote_id' and 'source'; ❌ Error parsing cargo for FWA4 46818, Fort Wayne, Fort Wayne, Indiana, United States: float() argument must be a string or a real number, not 'dict'; ❌ Error parsing cargo for FWA4 46818, Fort Wayne, Fort Wayne, Indiana, United States: float() argument must be a string or a real number, not 'dict'; ❌ Error parsing cargo for FWA4 46818, Fort Wayne, Fort Wayne, Indiana, United States: float() argument must be a string or a real number, not 'dict'; ❌ Error parsing cargo for FWA4 46818, Fort Wayne, Fort Wayne, Indiana, United States: float() argument must be a string or a real number, not 'dict'; ❌ Error parsing cargo for FWA4 46818, Fort Wayne, Fort Wayne, Indiana, United States: float() argument must be a string or a real number, not 'dict'; ❌ Error parsing cargo for FWA4 46818, Fort Wayne, Fort Wayne, Indiana, United States: float() argument must be a string or a real number, not 'dict'; ❌ Error parsing cargo for FWA4 46818, Fort Wayne, Fort Wayne, Indiana, United States: float() argument must be a string or a real number, not 'dict'; ❌ Error parsing cargo for FWA4 46818, Fort Wayne, Fort Wayne, Indiana, United States: float() argument must be a string or a real number, not 'dict'; ❌ Error parsing cargo for FWA4 46818, Fort Wayne, Fort Wayne, Indiana, United States: float() argument must be a string or a real number, not 'dict'; ❌ Error parsing cargo for FWA4 46818, Fort Wayne, Fort Wayne, Indiana, United States: float() argument must be a string or a real number, not 'dict'</t>
   </si>
   <si>
+    <t>❌ Rate comparison failed for MDW2 60433, Joliet, Joliet, Illinois, United States (FBA MDW2): log_jbhunt_quote() missing 2 required positional arguments: 'quote_id' and 'source'</t>
+  </si>
+  <si>
     <t>1 minutes, 4.45 seconds</t>
   </si>
   <si>
@@ -152,6 +173,18 @@
   </si>
   <si>
     <t>0 minutes, 53.37 seconds</t>
+  </si>
+  <si>
+    <t>0 minutes, 13.43 seconds</t>
+  </si>
+  <si>
+    <t>1 minutes, 1.71 seconds</t>
+  </si>
+  <si>
+    <t>1 minutes, 3.43 seconds</t>
+  </si>
+  <si>
+    <t>0 minutes, 17.69 seconds</t>
   </si>
 </sst>
 </file>
@@ -509,7 +542,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -546,13 +579,13 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G2">
         <v>5</v>
@@ -563,13 +596,13 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G3">
         <v>5</v>
@@ -580,19 +613,19 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G4">
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -600,19 +633,19 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G5">
         <v>3</v>
       </c>
       <c r="H5" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -620,19 +653,19 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -640,19 +673,19 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G7">
         <v>3</v>
       </c>
       <c r="H7" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -660,19 +693,19 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -680,19 +713,19 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -700,19 +733,19 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -720,19 +753,19 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -740,19 +773,19 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -760,19 +793,19 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -780,22 +813,22 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F14" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G14">
         <v>2</v>
       </c>
       <c r="H14" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -803,22 +836,105 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F15" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G15">
         <v>2</v>
       </c>
       <c r="H15" t="s">
-        <v>45</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="H17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
+      <c r="H18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/success_rates.xlsx
+++ b/Logs/success_rates.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="101">
   <si>
     <t>Timestamp</t>
   </si>
@@ -94,6 +94,57 @@
     <t>2025-08-18 07:04:04</t>
   </si>
   <si>
+    <t>2025-08-18 07:49:06</t>
+  </si>
+  <si>
+    <t>2025-08-18 07:49:19</t>
+  </si>
+  <si>
+    <t>2025-08-18 07:52:37</t>
+  </si>
+  <si>
+    <t>2025-08-18 07:54:05</t>
+  </si>
+  <si>
+    <t>2025-08-18 10:58:07</t>
+  </si>
+  <si>
+    <t>2025-08-18 13:24:57</t>
+  </si>
+  <si>
+    <t>2025-08-18 13:25:19</t>
+  </si>
+  <si>
+    <t>2025-08-18 13:48:54</t>
+  </si>
+  <si>
+    <t>2025-08-19 05:47:03</t>
+  </si>
+  <si>
+    <t>2025-08-19 05:48:54</t>
+  </si>
+  <si>
+    <t>2025-08-19 07:50:21</t>
+  </si>
+  <si>
+    <t>2025-08-19 09:16:25</t>
+  </si>
+  <si>
+    <t>2025-08-19 10:37:13</t>
+  </si>
+  <si>
+    <t>2025-08-19 10:44:51</t>
+  </si>
+  <si>
+    <t>2025-08-19 10:49:10</t>
+  </si>
+  <si>
+    <t>2025-08-19 12:08:15</t>
+  </si>
+  <si>
+    <t>2025-08-19 12:09:20</t>
+  </si>
+  <si>
     <t>CMM0246LCL0044</t>
   </si>
   <si>
@@ -124,6 +175,33 @@
     <t>CMM0800LCL0069</t>
   </si>
   <si>
+    <t>CMM0800LCL0064</t>
+  </si>
+  <si>
+    <t>CMM0800LCL0063</t>
+  </si>
+  <si>
+    <t>CMM0642LCL0006</t>
+  </si>
+  <si>
+    <t>CMM0637LCL0005</t>
+  </si>
+  <si>
+    <t>CEN0479LCL0069</t>
+  </si>
+  <si>
+    <t>CMM0246LCL0055</t>
+  </si>
+  <si>
+    <t>CMM0827LCL0038</t>
+  </si>
+  <si>
+    <t>CMM0827LCL0039</t>
+  </si>
+  <si>
+    <t>CMM0608LCL0040</t>
+  </si>
+  <si>
     <t>Success</t>
   </si>
   <si>
@@ -139,6 +217,9 @@
     <t>❌ Rate comparison failed for MDW2 60433, Joliet, Joliet, Illinois, United States (FBA MDW2): log_jbhunt_quote() missing 2 required positional arguments: 'quote_id' and 'source'</t>
   </si>
   <si>
+    <t>⚠️ FBA Code 08067, not found in FBA Locations sheet.</t>
+  </si>
+  <si>
     <t>1 minutes, 4.45 seconds</t>
   </si>
   <si>
@@ -185,6 +266,57 @@
   </si>
   <si>
     <t>0 minutes, 17.69 seconds</t>
+  </si>
+  <si>
+    <t>0 minutes, 41.46 seconds</t>
+  </si>
+  <si>
+    <t>0 minutes, 29.46 seconds</t>
+  </si>
+  <si>
+    <t>0 minutes, 17.93 seconds</t>
+  </si>
+  <si>
+    <t>0 minutes, 19.4 seconds</t>
+  </si>
+  <si>
+    <t>0 minutes, 0.32 seconds</t>
+  </si>
+  <si>
+    <t>0 minutes, 30.95 seconds</t>
+  </si>
+  <si>
+    <t>0 minutes, 7.47 seconds</t>
+  </si>
+  <si>
+    <t>0 minutes, 0.33 seconds</t>
+  </si>
+  <si>
+    <t>0 minutes, 29.83 seconds</t>
+  </si>
+  <si>
+    <t>0 minutes, 13.42 seconds</t>
+  </si>
+  <si>
+    <t>0 minutes, 28.09 seconds</t>
+  </si>
+  <si>
+    <t>0 minutes, 46.45 seconds</t>
+  </si>
+  <si>
+    <t>0 minutes, 42.59 seconds</t>
+  </si>
+  <si>
+    <t>0 minutes, 33.5 seconds</t>
+  </si>
+  <si>
+    <t>0 minutes, 26.2 seconds</t>
+  </si>
+  <si>
+    <t>0 minutes, 0.31 seconds</t>
+  </si>
+  <si>
+    <t>0 minutes, 42.4 seconds</t>
   </si>
 </sst>
 </file>
@@ -542,7 +674,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -579,13 +711,13 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="G2">
         <v>5</v>
@@ -596,13 +728,13 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="G3">
         <v>5</v>
@@ -613,19 +745,19 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="G4">
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -633,19 +765,19 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="G5">
         <v>3</v>
       </c>
       <c r="H5" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -653,19 +785,19 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -673,19 +805,19 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="G7">
         <v>3</v>
       </c>
       <c r="H7" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -693,19 +825,19 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -713,19 +845,19 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -733,19 +865,19 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -753,19 +885,19 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -773,19 +905,19 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -793,19 +925,19 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -813,22 +945,22 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="F14" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="G14">
         <v>2</v>
       </c>
       <c r="H14" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -836,22 +968,22 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="D15" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="F15" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="G15">
         <v>2</v>
       </c>
       <c r="H15" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -859,22 +991,22 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="D16" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="F16" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -882,19 +1014,19 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="D17" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="G17">
         <v>3</v>
       </c>
       <c r="H17" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -902,19 +1034,19 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="D18" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="G18">
         <v>3</v>
       </c>
       <c r="H18" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -922,19 +1054,362 @@
         <v>25</v>
       </c>
       <c r="B19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" t="s">
+        <v>64</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" t="s">
+        <v>64</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" t="s">
+        <v>64</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" t="s">
+        <v>64</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" t="s">
+        <v>64</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" t="s">
+        <v>64</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
         <v>35</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
         <v>36</v>
       </c>
-      <c r="D19" t="s">
+      <c r="B30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" t="s">
+        <v>64</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
         <v>38</v>
       </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19" t="s">
-        <v>56</v>
+      <c r="B32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" t="s">
+        <v>62</v>
+      </c>
+      <c r="D32" t="s">
+        <v>64</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33" t="s">
+        <v>64</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34" t="s">
+        <v>64</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" t="s">
+        <v>64</v>
+      </c>
+      <c r="F35" t="s">
+        <v>67</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" t="s">
+        <v>62</v>
+      </c>
+      <c r="D36" t="s">
+        <v>64</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/success_rates.xlsx
+++ b/Logs/success_rates.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="153">
   <si>
     <t>Timestamp</t>
   </si>
@@ -145,6 +145,78 @@
     <t>2025-08-19 12:09:20</t>
   </si>
   <si>
+    <t>2025-08-20 07:27:36</t>
+  </si>
+  <si>
+    <t>2025-08-21 13:03:52</t>
+  </si>
+  <si>
+    <t>2025-08-21 13:06:23</t>
+  </si>
+  <si>
+    <t>2025-08-22 09:56:01</t>
+  </si>
+  <si>
+    <t>2025-08-22 12:43:59</t>
+  </si>
+  <si>
+    <t>2025-08-22 12:45:52</t>
+  </si>
+  <si>
+    <t>2025-08-22 12:48:42</t>
+  </si>
+  <si>
+    <t>2025-08-22 12:50:07</t>
+  </si>
+  <si>
+    <t>2025-08-22 12:53:04</t>
+  </si>
+  <si>
+    <t>2025-08-23 06:28:50</t>
+  </si>
+  <si>
+    <t>2025-08-23 06:30:27</t>
+  </si>
+  <si>
+    <t>2025-08-23 06:34:08</t>
+  </si>
+  <si>
+    <t>2025-08-23 06:35:57</t>
+  </si>
+  <si>
+    <t>2025-08-23 07:30:53</t>
+  </si>
+  <si>
+    <t>2025-08-23 07:34:04</t>
+  </si>
+  <si>
+    <t>2025-08-23 07:38:08</t>
+  </si>
+  <si>
+    <t>2025-08-23 09:34:19</t>
+  </si>
+  <si>
+    <t>2025-08-23 09:36:39</t>
+  </si>
+  <si>
+    <t>2025-08-23 09:48:12</t>
+  </si>
+  <si>
+    <t>2025-08-25 05:52:23</t>
+  </si>
+  <si>
+    <t>2025-08-25 06:10:17</t>
+  </si>
+  <si>
+    <t>2025-08-25 07:50:47</t>
+  </si>
+  <si>
+    <t>2025-08-25 10:22:35</t>
+  </si>
+  <si>
+    <t>2025-08-26 05:42:04</t>
+  </si>
+  <si>
     <t>CMM0246LCL0044</t>
   </si>
   <si>
@@ -202,6 +274,36 @@
     <t>CMM0608LCL0040</t>
   </si>
   <si>
+    <t>CMM0014LCL0005</t>
+  </si>
+  <si>
+    <t>CMM0637LCL0006</t>
+  </si>
+  <si>
+    <t>CMM0804LCL0062</t>
+  </si>
+  <si>
+    <t>CMM0804LCL0063</t>
+  </si>
+  <si>
+    <t>CMM0246LCL0056</t>
+  </si>
+  <si>
+    <t>CMM0246LCL0057</t>
+  </si>
+  <si>
+    <t>CEN0479LCL0072</t>
+  </si>
+  <si>
+    <t>CEN0479LCL0073</t>
+  </si>
+  <si>
+    <t>CMM0077LCL0002</t>
+  </si>
+  <si>
+    <t>CMM0657LCL0117</t>
+  </si>
+  <si>
     <t>Success</t>
   </si>
   <si>
@@ -220,6 +322,9 @@
     <t>⚠️ FBA Code 08067, not found in FBA Locations sheet.</t>
   </si>
   <si>
+    <t>Pickup charges are required for Door-to-Door shipment scope.</t>
+  </si>
+  <si>
     <t>1 minutes, 4.45 seconds</t>
   </si>
   <si>
@@ -317,6 +422,57 @@
   </si>
   <si>
     <t>0 minutes, 42.4 seconds</t>
+  </si>
+  <si>
+    <t>0 minutes, 26.01 seconds</t>
+  </si>
+  <si>
+    <t>0 minutes, 49.8 seconds</t>
+  </si>
+  <si>
+    <t>0 minutes, 41.53 seconds</t>
+  </si>
+  <si>
+    <t>0 minutes, 30.77 seconds</t>
+  </si>
+  <si>
+    <t>0 minutes, 0.0 seconds</t>
+  </si>
+  <si>
+    <t>0 minutes, 52.8 seconds</t>
+  </si>
+  <si>
+    <t>1 minutes, 31.19 seconds</t>
+  </si>
+  <si>
+    <t>1 minutes, 40.81 seconds</t>
+  </si>
+  <si>
+    <t>3 minutes, 3.88 seconds</t>
+  </si>
+  <si>
+    <t>0 minutes, 50.7 seconds</t>
+  </si>
+  <si>
+    <t>0 minutes, 21.24 seconds</t>
+  </si>
+  <si>
+    <t>0 minutes, 27.5 seconds</t>
+  </si>
+  <si>
+    <t>0 minutes, 34.44 seconds</t>
+  </si>
+  <si>
+    <t>0 minutes, 36.48 seconds</t>
+  </si>
+  <si>
+    <t>0 minutes, 43.35 seconds</t>
+  </si>
+  <si>
+    <t>0 minutes, 45.35 seconds</t>
+  </si>
+  <si>
+    <t>0 minutes, 31.6 seconds</t>
   </si>
 </sst>
 </file>
@@ -674,7 +830,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -711,13 +867,13 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="D2" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="G2">
         <v>5</v>
@@ -728,13 +884,13 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="G3">
         <v>5</v>
@@ -745,19 +901,19 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="D4" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="G4">
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>68</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -765,19 +921,19 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="D5" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="G5">
         <v>3</v>
       </c>
       <c r="H5" t="s">
-        <v>69</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -785,19 +941,19 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="D6" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>70</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -805,19 +961,19 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="D7" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="G7">
         <v>3</v>
       </c>
       <c r="H7" t="s">
-        <v>71</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -825,19 +981,19 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="D8" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -845,19 +1001,19 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="D9" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>73</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -865,19 +1021,19 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="D10" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>74</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -885,19 +1041,19 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="D11" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>75</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -905,19 +1061,19 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="D12" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>76</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -925,19 +1081,19 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="D13" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>77</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -945,22 +1101,22 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="C14" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="D14" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="F14" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="G14">
         <v>2</v>
       </c>
       <c r="H14" t="s">
-        <v>78</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -968,22 +1124,22 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="C15" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="D15" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="F15" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="G15">
         <v>2</v>
       </c>
       <c r="H15" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -991,22 +1147,22 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="D16" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="F16" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>80</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1014,19 +1170,19 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="C17" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="D17" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="G17">
         <v>3</v>
       </c>
       <c r="H17" t="s">
-        <v>81</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1034,19 +1190,19 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="D18" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="G18">
         <v>3</v>
       </c>
       <c r="H18" t="s">
-        <v>82</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1054,19 +1210,19 @@
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="C19" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="D19" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>83</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1074,19 +1230,19 @@
         <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="C20" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="D20" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>84</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1094,19 +1250,19 @@
         <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="C21" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="D21" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1114,19 +1270,19 @@
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="C22" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="D22" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1134,19 +1290,19 @@
         <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="C23" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="D23" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>87</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1154,19 +1310,19 @@
         <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="C24" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="D24" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>88</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1174,19 +1330,19 @@
         <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="C25" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="D25" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1194,19 +1350,19 @@
         <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="C26" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="D26" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="G26">
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1214,19 +1370,19 @@
         <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="C27" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="D27" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1234,19 +1390,19 @@
         <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="C28" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="D28" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="G28">
         <v>1</v>
       </c>
       <c r="H28" t="s">
-        <v>92</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1254,19 +1410,19 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="C29" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="D29" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="G29">
         <v>1</v>
       </c>
       <c r="H29" t="s">
-        <v>93</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1274,19 +1430,19 @@
         <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="C30" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="D30" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="G30">
         <v>1</v>
       </c>
       <c r="H30" t="s">
-        <v>94</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1294,19 +1450,19 @@
         <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="C31" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="G31">
         <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>95</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1314,19 +1470,19 @@
         <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="C32" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="D32" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="G32">
         <v>1</v>
       </c>
       <c r="H32" t="s">
-        <v>96</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1334,19 +1490,19 @@
         <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="C33" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="D33" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="G33">
         <v>1</v>
       </c>
       <c r="H33" t="s">
-        <v>97</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1354,19 +1510,19 @@
         <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="C34" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="D34" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="G34">
         <v>1</v>
       </c>
       <c r="H34" t="s">
-        <v>98</v>
+        <v>133</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1374,22 +1530,22 @@
         <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="C35" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="D35" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="F35" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>99</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1397,19 +1553,520 @@
         <v>42</v>
       </c>
       <c r="B36" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" t="s">
+        <v>96</v>
+      </c>
+      <c r="D36" t="s">
+        <v>98</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" t="s">
+        <v>96</v>
+      </c>
+      <c r="D37" t="s">
+        <v>98</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" t="s">
+        <v>96</v>
+      </c>
+      <c r="D38" t="s">
+        <v>98</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" t="s">
+        <v>96</v>
+      </c>
+      <c r="D39" t="s">
+        <v>98</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" t="s">
+        <v>96</v>
+      </c>
+      <c r="D40" t="s">
+        <v>98</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" t="s">
+        <v>97</v>
+      </c>
+      <c r="D41" t="s">
+        <v>98</v>
+      </c>
+      <c r="F41" t="s">
+        <v>102</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" t="s">
+        <v>97</v>
+      </c>
+      <c r="D42" t="s">
+        <v>98</v>
+      </c>
+      <c r="F42" t="s">
+        <v>102</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" t="s">
+        <v>97</v>
+      </c>
+      <c r="D43" t="s">
+        <v>98</v>
+      </c>
+      <c r="F43" t="s">
+        <v>102</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" t="s">
+        <v>88</v>
+      </c>
+      <c r="C44" t="s">
+        <v>97</v>
+      </c>
+      <c r="D44" t="s">
+        <v>98</v>
+      </c>
+      <c r="F44" t="s">
+        <v>102</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45" t="s">
+        <v>88</v>
+      </c>
+      <c r="C45" t="s">
+        <v>96</v>
+      </c>
+      <c r="D45" t="s">
+        <v>98</v>
+      </c>
+      <c r="G45">
+        <v>2</v>
+      </c>
+      <c r="H45" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46" t="s">
+        <v>89</v>
+      </c>
+      <c r="C46" t="s">
+        <v>97</v>
+      </c>
+      <c r="D46" t="s">
+        <v>98</v>
+      </c>
+      <c r="F46" t="s">
+        <v>102</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" t="s">
+        <v>53</v>
+      </c>
+      <c r="B47" t="s">
+        <v>89</v>
+      </c>
+      <c r="C47" t="s">
+        <v>96</v>
+      </c>
+      <c r="D47" t="s">
+        <v>98</v>
+      </c>
+      <c r="G47">
+        <v>2</v>
+      </c>
+      <c r="H47" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" t="s">
+        <v>88</v>
+      </c>
+      <c r="C48" t="s">
+        <v>97</v>
+      </c>
+      <c r="D48" t="s">
+        <v>98</v>
+      </c>
+      <c r="F48" t="s">
+        <v>102</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49" t="s">
+        <v>88</v>
+      </c>
+      <c r="C49" t="s">
+        <v>96</v>
+      </c>
+      <c r="D49" t="s">
+        <v>98</v>
+      </c>
+      <c r="G49">
+        <v>3</v>
+      </c>
+      <c r="H49" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" t="s">
+        <v>56</v>
+      </c>
+      <c r="B50" t="s">
+        <v>89</v>
+      </c>
+      <c r="C50" t="s">
+        <v>97</v>
+      </c>
+      <c r="D50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
+        <v>102</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" t="s">
+        <v>57</v>
+      </c>
+      <c r="B51" t="s">
+        <v>89</v>
+      </c>
+      <c r="C51" t="s">
+        <v>96</v>
+      </c>
+      <c r="D51" t="s">
+        <v>98</v>
+      </c>
+      <c r="G51">
+        <v>3</v>
+      </c>
+      <c r="H51" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" t="s">
+        <v>58</v>
+      </c>
+      <c r="B52" t="s">
+        <v>88</v>
+      </c>
+      <c r="C52" t="s">
+        <v>96</v>
+      </c>
+      <c r="D52" t="s">
+        <v>98</v>
+      </c>
+      <c r="G52">
+        <v>2</v>
+      </c>
+      <c r="H52" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" t="s">
         <v>59</v>
       </c>
-      <c r="C36" t="s">
+      <c r="B53" t="s">
+        <v>90</v>
+      </c>
+      <c r="C53" t="s">
+        <v>96</v>
+      </c>
+      <c r="D53" t="s">
+        <v>98</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" t="s">
+        <v>60</v>
+      </c>
+      <c r="B54" t="s">
+        <v>90</v>
+      </c>
+      <c r="C54" t="s">
+        <v>96</v>
+      </c>
+      <c r="D54" t="s">
+        <v>98</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" t="s">
+        <v>61</v>
+      </c>
+      <c r="B55" t="s">
+        <v>91</v>
+      </c>
+      <c r="C55" t="s">
+        <v>96</v>
+      </c>
+      <c r="D55" t="s">
+        <v>98</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="H55" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" t="s">
         <v>62</v>
       </c>
-      <c r="D36" t="s">
+      <c r="B56" t="s">
+        <v>92</v>
+      </c>
+      <c r="C56" t="s">
+        <v>96</v>
+      </c>
+      <c r="D56" t="s">
+        <v>98</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" t="s">
+        <v>63</v>
+      </c>
+      <c r="B57" t="s">
+        <v>93</v>
+      </c>
+      <c r="C57" t="s">
+        <v>96</v>
+      </c>
+      <c r="D57" t="s">
+        <v>98</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="H57" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" t="s">
         <v>64</v>
       </c>
-      <c r="G36">
-        <v>1</v>
-      </c>
-      <c r="H36" t="s">
-        <v>100</v>
+      <c r="B58" t="s">
+        <v>94</v>
+      </c>
+      <c r="C58" t="s">
+        <v>96</v>
+      </c>
+      <c r="D58" t="s">
+        <v>98</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" t="s">
+        <v>65</v>
+      </c>
+      <c r="B59" t="s">
+        <v>95</v>
+      </c>
+      <c r="C59" t="s">
+        <v>96</v>
+      </c>
+      <c r="D59" t="s">
+        <v>98</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" t="s">
+        <v>66</v>
+      </c>
+      <c r="B60" t="s">
+        <v>90</v>
+      </c>
+      <c r="C60" t="s">
+        <v>96</v>
+      </c>
+      <c r="D60" t="s">
+        <v>98</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="H60" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/success_rates.xlsx
+++ b/Logs/success_rates.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="165">
   <si>
     <t>Timestamp</t>
   </si>
@@ -217,6 +217,24 @@
     <t>2025-08-26 05:42:04</t>
   </si>
   <si>
+    <t>2025-08-26 06:01:54</t>
+  </si>
+  <si>
+    <t>2025-08-28 08:57:20</t>
+  </si>
+  <si>
+    <t>2025-08-28 08:57:26</t>
+  </si>
+  <si>
+    <t>2025-08-28 08:57:27</t>
+  </si>
+  <si>
+    <t>2025-08-28 08:59:31</t>
+  </si>
+  <si>
+    <t>2025-08-28 09:53:59</t>
+  </si>
+  <si>
     <t>CMM0246LCL0044</t>
   </si>
   <si>
@@ -304,6 +322,15 @@
     <t>CMM0657LCL0117</t>
   </si>
   <si>
+    <t>CMM0910LCL0001</t>
+  </si>
+  <si>
+    <t>CMM0910LCL0002</t>
+  </si>
+  <si>
+    <t>CMM0911LCL0001</t>
+  </si>
+  <si>
     <t>Success</t>
   </si>
   <si>
@@ -473,6 +500,15 @@
   </si>
   <si>
     <t>0 minutes, 31.6 seconds</t>
+  </si>
+  <si>
+    <t>0 minutes, 28.7 seconds</t>
+  </si>
+  <si>
+    <t>0 minutes, 18.44 seconds</t>
+  </si>
+  <si>
+    <t>0 minutes, 20.64 seconds</t>
   </si>
 </sst>
 </file>
@@ -830,7 +866,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H60"/>
+  <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -867,13 +903,13 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="D2" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="G2">
         <v>5</v>
@@ -884,13 +920,13 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C3" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="D3" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="G3">
         <v>5</v>
@@ -901,19 +937,19 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="D4" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="G4">
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -921,19 +957,19 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="D5" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="G5">
         <v>3</v>
       </c>
       <c r="H5" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -941,19 +977,19 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C6" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="D6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -961,19 +997,19 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="D7" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="G7">
         <v>3</v>
       </c>
       <c r="H7" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -981,19 +1017,19 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C8" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="D8" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1001,19 +1037,19 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C9" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="D9" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1021,19 +1057,19 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="D10" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1041,19 +1077,19 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C11" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="D11" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1061,19 +1097,19 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C12" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="D12" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1081,19 +1117,19 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C13" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="D13" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1101,22 +1137,22 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C14" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="D14" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="F14" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="G14">
         <v>2</v>
       </c>
       <c r="H14" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1124,22 +1160,22 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C15" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="D15" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="F15" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="G15">
         <v>2</v>
       </c>
       <c r="H15" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1147,22 +1183,22 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C16" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="D16" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="F16" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1170,19 +1206,19 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C17" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="D17" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="G17">
         <v>3</v>
       </c>
       <c r="H17" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1190,19 +1226,19 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C18" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="D18" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="G18">
         <v>3</v>
       </c>
       <c r="H18" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1210,19 +1246,19 @@
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C19" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="D19" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1230,19 +1266,19 @@
         <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C20" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="D20" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1250,19 +1286,19 @@
         <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C21" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="D21" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1270,19 +1306,19 @@
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C22" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="D22" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1290,19 +1326,19 @@
         <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C23" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="D23" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1310,19 +1346,19 @@
         <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C24" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="D24" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1330,19 +1366,19 @@
         <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C25" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="D25" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1350,19 +1386,19 @@
         <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C26" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="D26" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="G26">
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1370,19 +1406,19 @@
         <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C27" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="D27" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1390,19 +1426,19 @@
         <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C28" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="D28" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="G28">
         <v>1</v>
       </c>
       <c r="H28" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1410,19 +1446,19 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C29" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="D29" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="G29">
         <v>1</v>
       </c>
       <c r="H29" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1430,19 +1466,19 @@
         <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C30" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="D30" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="G30">
         <v>1</v>
       </c>
       <c r="H30" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1450,19 +1486,19 @@
         <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C31" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="D31" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="G31">
         <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1470,19 +1506,19 @@
         <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C32" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="D32" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="G32">
         <v>1</v>
       </c>
       <c r="H32" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1490,19 +1526,19 @@
         <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C33" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="D33" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="G33">
         <v>1</v>
       </c>
       <c r="H33" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1510,19 +1546,19 @@
         <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C34" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="D34" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="G34">
         <v>1</v>
       </c>
       <c r="H34" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1530,22 +1566,22 @@
         <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C35" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="D35" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="F35" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1553,19 +1589,19 @@
         <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C36" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="D36" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="G36">
         <v>1</v>
       </c>
       <c r="H36" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1573,19 +1609,19 @@
         <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C37" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="D37" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="G37">
         <v>1</v>
       </c>
       <c r="H37" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1593,19 +1629,19 @@
         <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C38" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="D38" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="G38">
         <v>1</v>
       </c>
       <c r="H38" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1613,19 +1649,19 @@
         <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C39" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="D39" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="G39">
         <v>1</v>
       </c>
       <c r="H39" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1633,19 +1669,19 @@
         <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C40" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="D40" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="G40">
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1653,22 +1689,22 @@
         <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C41" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="D41" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="F41" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="G41">
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1676,22 +1712,22 @@
         <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C42" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="D42" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="F42" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="G42">
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1699,22 +1735,22 @@
         <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C43" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="D43" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="F43" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="G43">
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1722,22 +1758,22 @@
         <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C44" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="D44" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="F44" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="G44">
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1745,19 +1781,19 @@
         <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C45" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="D45" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="G45">
         <v>2</v>
       </c>
       <c r="H45" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1765,22 +1801,22 @@
         <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C46" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="D46" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="F46" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="G46">
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1788,19 +1824,19 @@
         <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C47" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="D47" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="G47">
         <v>2</v>
       </c>
       <c r="H47" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1808,22 +1844,22 @@
         <v>54</v>
       </c>
       <c r="B48" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C48" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="D48" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="F48" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="G48">
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1831,19 +1867,19 @@
         <v>55</v>
       </c>
       <c r="B49" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C49" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="D49" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="G49">
         <v>3</v>
       </c>
       <c r="H49" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1851,22 +1887,22 @@
         <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C50" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="D50" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="F50" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="G50">
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1874,19 +1910,19 @@
         <v>57</v>
       </c>
       <c r="B51" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C51" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="D51" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="G51">
         <v>3</v>
       </c>
       <c r="H51" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1894,19 +1930,19 @@
         <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C52" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="D52" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="G52">
         <v>2</v>
       </c>
       <c r="H52" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1914,19 +1950,19 @@
         <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C53" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="D53" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="G53">
         <v>1</v>
       </c>
       <c r="H53" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1934,19 +1970,19 @@
         <v>60</v>
       </c>
       <c r="B54" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C54" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="D54" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="G54">
         <v>1</v>
       </c>
       <c r="H54" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1954,19 +1990,19 @@
         <v>61</v>
       </c>
       <c r="B55" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C55" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="D55" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="G55">
         <v>1</v>
       </c>
       <c r="H55" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1974,19 +2010,19 @@
         <v>62</v>
       </c>
       <c r="B56" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C56" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="D56" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="G56">
         <v>1</v>
       </c>
       <c r="H56" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1994,19 +2030,19 @@
         <v>63</v>
       </c>
       <c r="B57" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C57" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="D57" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="G57">
         <v>1</v>
       </c>
       <c r="H57" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2014,19 +2050,19 @@
         <v>64</v>
       </c>
       <c r="B58" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C58" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="D58" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="G58">
         <v>1</v>
       </c>
       <c r="H58" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2034,19 +2070,19 @@
         <v>65</v>
       </c>
       <c r="B59" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="C59" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="D59" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="G59">
         <v>1</v>
       </c>
       <c r="H59" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2054,19 +2090,171 @@
         <v>66</v>
       </c>
       <c r="B60" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C60" t="s">
+        <v>105</v>
+      </c>
+      <c r="D60" t="s">
+        <v>107</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="H60" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" t="s">
+        <v>67</v>
+      </c>
+      <c r="B61" t="s">
         <v>96</v>
       </c>
-      <c r="D60" t="s">
-        <v>98</v>
-      </c>
-      <c r="G60">
-        <v>1</v>
-      </c>
-      <c r="H60" t="s">
-        <v>152</v>
+      <c r="C61" t="s">
+        <v>105</v>
+      </c>
+      <c r="D61" t="s">
+        <v>107</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="H61" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" t="s">
+        <v>68</v>
+      </c>
+      <c r="B62" t="s">
+        <v>102</v>
+      </c>
+      <c r="C62" t="s">
+        <v>106</v>
+      </c>
+      <c r="D62" t="s">
+        <v>107</v>
+      </c>
+      <c r="F62" t="s">
+        <v>111</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" t="s">
+        <v>69</v>
+      </c>
+      <c r="B63" t="s">
+        <v>102</v>
+      </c>
+      <c r="C63" t="s">
+        <v>106</v>
+      </c>
+      <c r="D63" t="s">
+        <v>107</v>
+      </c>
+      <c r="F63" t="s">
+        <v>111</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64" t="s">
+        <v>102</v>
+      </c>
+      <c r="C64" t="s">
+        <v>106</v>
+      </c>
+      <c r="D64" t="s">
+        <v>107</v>
+      </c>
+      <c r="F64" t="s">
+        <v>111</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" t="s">
+        <v>70</v>
+      </c>
+      <c r="B65" t="s">
+        <v>102</v>
+      </c>
+      <c r="C65" t="s">
+        <v>106</v>
+      </c>
+      <c r="D65" t="s">
+        <v>107</v>
+      </c>
+      <c r="F65" t="s">
+        <v>111</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" t="s">
+        <v>71</v>
+      </c>
+      <c r="B66" t="s">
+        <v>103</v>
+      </c>
+      <c r="C66" t="s">
+        <v>105</v>
+      </c>
+      <c r="D66" t="s">
+        <v>107</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="H66" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" t="s">
+        <v>72</v>
+      </c>
+      <c r="B67" t="s">
+        <v>104</v>
+      </c>
+      <c r="C67" t="s">
+        <v>105</v>
+      </c>
+      <c r="D67" t="s">
+        <v>107</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="H67" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/success_rates.xlsx
+++ b/Logs/success_rates.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="189">
   <si>
     <t>Timestamp</t>
   </si>
@@ -235,6 +235,39 @@
     <t>2025-08-28 09:53:59</t>
   </si>
   <si>
+    <t>2025-08-28 12:07:46</t>
+  </si>
+  <si>
+    <t>2025-08-29 11:18:57</t>
+  </si>
+  <si>
+    <t>2025-08-30 10:59:47</t>
+  </si>
+  <si>
+    <t>2025-08-30 11:00:23</t>
+  </si>
+  <si>
+    <t>2025-08-30 11:02:27</t>
+  </si>
+  <si>
+    <t>2025-09-01 08:15:19</t>
+  </si>
+  <si>
+    <t>2025-09-02 07:11:39</t>
+  </si>
+  <si>
+    <t>2025-09-02 07:15:40</t>
+  </si>
+  <si>
+    <t>2025-09-02 07:16:10</t>
+  </si>
+  <si>
+    <t>2025-09-02 07:16:25</t>
+  </si>
+  <si>
+    <t>2025-09-02 07:17:13</t>
+  </si>
+  <si>
     <t>CMM0246LCL0044</t>
   </si>
   <si>
@@ -331,6 +364,27 @@
     <t>CMM0911LCL0001</t>
   </si>
   <si>
+    <t>CMM0914LCL0001</t>
+  </si>
+  <si>
+    <t>CMM0916LCL0001</t>
+  </si>
+  <si>
+    <t>CMM0916LCL0002</t>
+  </si>
+  <si>
+    <t>CMM0878LCL0003</t>
+  </si>
+  <si>
+    <t>CMM0919LCL0001</t>
+  </si>
+  <si>
+    <t>CMM0875LCL0003</t>
+  </si>
+  <si>
+    <t>CMM0608LCL0044</t>
+  </si>
+  <si>
     <t>Success</t>
   </si>
   <si>
@@ -509,6 +563,24 @@
   </si>
   <si>
     <t>0 minutes, 20.64 seconds</t>
+  </si>
+  <si>
+    <t>0 minutes, 36.14 seconds</t>
+  </si>
+  <si>
+    <t>0 minutes, 36.27 seconds</t>
+  </si>
+  <si>
+    <t>0 minutes, 47.63 seconds</t>
+  </si>
+  <si>
+    <t>0 minutes, 32.17 seconds</t>
+  </si>
+  <si>
+    <t>0 minutes, 47.35 seconds</t>
+  </si>
+  <si>
+    <t>0 minutes, 29.13 seconds</t>
   </si>
 </sst>
 </file>
@@ -866,7 +938,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H67"/>
+  <dimension ref="A1:H78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -903,13 +975,13 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C2" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="D2" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="G2">
         <v>5</v>
@@ -920,13 +992,13 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C3" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="D3" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="G3">
         <v>5</v>
@@ -937,19 +1009,19 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C4" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="D4" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="G4">
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -957,19 +1029,19 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C5" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="D5" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="G5">
         <v>3</v>
       </c>
       <c r="H5" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -977,19 +1049,19 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C6" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="D6" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -997,19 +1069,19 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C7" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="D7" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="G7">
         <v>3</v>
       </c>
       <c r="H7" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1017,19 +1089,19 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="C8" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="D8" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1037,19 +1109,19 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="C9" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="D9" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1057,19 +1129,19 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="C10" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="D10" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1077,19 +1149,19 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="C11" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="D11" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1097,19 +1169,19 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C12" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="D12" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1117,19 +1189,19 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="C13" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="D13" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1137,22 +1209,22 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C14" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="D14" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="F14" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="G14">
         <v>2</v>
       </c>
       <c r="H14" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1160,22 +1232,22 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C15" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="D15" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="F15" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="G15">
         <v>2</v>
       </c>
       <c r="H15" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1183,22 +1255,22 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C16" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="D16" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="F16" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1206,19 +1278,19 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C17" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="D17" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="G17">
         <v>3</v>
       </c>
       <c r="H17" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1226,19 +1298,19 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C18" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="D18" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="G18">
         <v>3</v>
       </c>
       <c r="H18" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1246,19 +1318,19 @@
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C19" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="D19" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1266,19 +1338,19 @@
         <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="C20" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="D20" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1286,19 +1358,19 @@
         <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C21" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="D21" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1306,19 +1378,19 @@
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C22" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="D22" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1326,19 +1398,19 @@
         <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C23" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="D23" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1346,19 +1418,19 @@
         <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="C24" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="D24" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1366,19 +1438,19 @@
         <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="C25" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="D25" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1386,19 +1458,19 @@
         <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="C26" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="D26" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="G26">
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1406,19 +1478,19 @@
         <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="C27" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="D27" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1426,19 +1498,19 @@
         <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="C28" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="D28" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="G28">
         <v>1</v>
       </c>
       <c r="H28" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1446,19 +1518,19 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="C29" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="D29" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="G29">
         <v>1</v>
       </c>
       <c r="H29" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1466,19 +1538,19 @@
         <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="C30" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="D30" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="G30">
         <v>1</v>
       </c>
       <c r="H30" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1486,19 +1558,19 @@
         <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="C31" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="D31" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="G31">
         <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1506,19 +1578,19 @@
         <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="C32" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="D32" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="G32">
         <v>1</v>
       </c>
       <c r="H32" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1526,19 +1598,19 @@
         <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="C33" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="D33" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="G33">
         <v>1</v>
       </c>
       <c r="H33" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1546,19 +1618,19 @@
         <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="C34" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="D34" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="G34">
         <v>1</v>
       </c>
       <c r="H34" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1566,22 +1638,22 @@
         <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="C35" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="D35" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="F35" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1589,19 +1661,19 @@
         <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="C36" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="D36" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="G36">
         <v>1</v>
       </c>
       <c r="H36" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1609,19 +1681,19 @@
         <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="C37" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="D37" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="G37">
         <v>1</v>
       </c>
       <c r="H37" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1629,19 +1701,19 @@
         <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="C38" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="D38" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="G38">
         <v>1</v>
       </c>
       <c r="H38" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1649,19 +1721,19 @@
         <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="C39" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="D39" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="G39">
         <v>1</v>
       </c>
       <c r="H39" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1669,19 +1741,19 @@
         <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="C40" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="D40" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="G40">
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1689,22 +1761,22 @@
         <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="C41" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="D41" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="F41" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="G41">
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1712,22 +1784,22 @@
         <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="C42" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="D42" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="F42" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="G42">
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1735,22 +1807,22 @@
         <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="C43" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="D43" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="F43" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="G43">
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1758,22 +1830,22 @@
         <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="C44" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="D44" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="F44" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="G44">
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1781,19 +1853,19 @@
         <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="C45" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="D45" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="G45">
         <v>2</v>
       </c>
       <c r="H45" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1801,22 +1873,22 @@
         <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="C46" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="D46" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="F46" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="G46">
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1824,19 +1896,19 @@
         <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="C47" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="D47" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="G47">
         <v>2</v>
       </c>
       <c r="H47" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1844,22 +1916,22 @@
         <v>54</v>
       </c>
       <c r="B48" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="C48" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="D48" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="F48" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="G48">
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1867,19 +1939,19 @@
         <v>55</v>
       </c>
       <c r="B49" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="C49" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="D49" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="G49">
         <v>3</v>
       </c>
       <c r="H49" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1887,22 +1959,22 @@
         <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="C50" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="D50" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="F50" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="G50">
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1910,19 +1982,19 @@
         <v>57</v>
       </c>
       <c r="B51" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="C51" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="D51" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="G51">
         <v>3</v>
       </c>
       <c r="H51" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1930,19 +2002,19 @@
         <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="C52" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="D52" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="G52">
         <v>2</v>
       </c>
       <c r="H52" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1950,19 +2022,19 @@
         <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="C53" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="D53" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="G53">
         <v>1</v>
       </c>
       <c r="H53" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1970,19 +2042,19 @@
         <v>60</v>
       </c>
       <c r="B54" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="C54" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="D54" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="G54">
         <v>1</v>
       </c>
       <c r="H54" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1990,19 +2062,19 @@
         <v>61</v>
       </c>
       <c r="B55" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="C55" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="D55" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="G55">
         <v>1</v>
       </c>
       <c r="H55" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2010,19 +2082,19 @@
         <v>62</v>
       </c>
       <c r="B56" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="C56" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="D56" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="G56">
         <v>1</v>
       </c>
       <c r="H56" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2030,19 +2102,19 @@
         <v>63</v>
       </c>
       <c r="B57" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="C57" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="D57" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="G57">
         <v>1</v>
       </c>
       <c r="H57" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2050,19 +2122,19 @@
         <v>64</v>
       </c>
       <c r="B58" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="C58" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="D58" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="G58">
         <v>1</v>
       </c>
       <c r="H58" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2070,19 +2142,19 @@
         <v>65</v>
       </c>
       <c r="B59" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="C59" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="D59" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="G59">
         <v>1</v>
       </c>
       <c r="H59" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2090,19 +2162,19 @@
         <v>66</v>
       </c>
       <c r="B60" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="C60" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="D60" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="G60">
         <v>1</v>
       </c>
       <c r="H60" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2110,19 +2182,19 @@
         <v>67</v>
       </c>
       <c r="B61" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="C61" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="D61" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="G61">
         <v>1</v>
       </c>
       <c r="H61" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2130,22 +2202,22 @@
         <v>68</v>
       </c>
       <c r="B62" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="C62" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="D62" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="F62" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="G62">
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2153,22 +2225,22 @@
         <v>69</v>
       </c>
       <c r="B63" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="C63" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="D63" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="F63" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="G63">
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2176,22 +2248,22 @@
         <v>69</v>
       </c>
       <c r="B64" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="C64" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="D64" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="F64" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="G64">
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2199,22 +2271,22 @@
         <v>70</v>
       </c>
       <c r="B65" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="C65" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="D65" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="F65" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="G65">
         <v>0</v>
       </c>
       <c r="H65" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2222,19 +2294,19 @@
         <v>71</v>
       </c>
       <c r="B66" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="C66" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="D66" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="G66">
         <v>1</v>
       </c>
       <c r="H66" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2242,19 +2314,251 @@
         <v>72</v>
       </c>
       <c r="B67" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="C67" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="D67" t="s">
+        <v>125</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="H67" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" t="s">
+        <v>73</v>
+      </c>
+      <c r="B68" t="s">
         <v>107</v>
       </c>
-      <c r="G67">
-        <v>1</v>
-      </c>
-      <c r="H67" t="s">
-        <v>164</v>
+      <c r="C68" t="s">
+        <v>123</v>
+      </c>
+      <c r="D68" t="s">
+        <v>125</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+      <c r="H68" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" t="s">
+        <v>74</v>
+      </c>
+      <c r="B69" t="s">
+        <v>116</v>
+      </c>
+      <c r="C69" t="s">
+        <v>123</v>
+      </c>
+      <c r="D69" t="s">
+        <v>125</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+      <c r="H69" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" t="s">
+        <v>75</v>
+      </c>
+      <c r="B70" t="s">
+        <v>117</v>
+      </c>
+      <c r="C70" t="s">
+        <v>124</v>
+      </c>
+      <c r="D70" t="s">
+        <v>125</v>
+      </c>
+      <c r="F70" t="s">
+        <v>129</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" t="s">
+        <v>76</v>
+      </c>
+      <c r="B71" t="s">
+        <v>117</v>
+      </c>
+      <c r="C71" t="s">
+        <v>124</v>
+      </c>
+      <c r="D71" t="s">
+        <v>125</v>
+      </c>
+      <c r="F71" t="s">
+        <v>129</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" t="s">
+        <v>77</v>
+      </c>
+      <c r="B72" t="s">
+        <v>118</v>
+      </c>
+      <c r="C72" t="s">
+        <v>123</v>
+      </c>
+      <c r="D72" t="s">
+        <v>125</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+      <c r="H72" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" t="s">
+        <v>78</v>
+      </c>
+      <c r="B73" t="s">
+        <v>119</v>
+      </c>
+      <c r="C73" t="s">
+        <v>123</v>
+      </c>
+      <c r="D73" t="s">
+        <v>125</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+      <c r="H73" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" t="s">
+        <v>79</v>
+      </c>
+      <c r="B74" t="s">
+        <v>110</v>
+      </c>
+      <c r="C74" t="s">
+        <v>123</v>
+      </c>
+      <c r="D74" t="s">
+        <v>125</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+      <c r="H74" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" t="s">
+        <v>80</v>
+      </c>
+      <c r="B75" t="s">
+        <v>120</v>
+      </c>
+      <c r="C75" t="s">
+        <v>124</v>
+      </c>
+      <c r="D75" t="s">
+        <v>125</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" t="s">
+        <v>81</v>
+      </c>
+      <c r="B76" t="s">
+        <v>121</v>
+      </c>
+      <c r="C76" t="s">
+        <v>124</v>
+      </c>
+      <c r="D76" t="s">
+        <v>125</v>
+      </c>
+      <c r="F76" t="s">
+        <v>129</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" t="s">
+        <v>82</v>
+      </c>
+      <c r="B77" t="s">
+        <v>122</v>
+      </c>
+      <c r="C77" t="s">
+        <v>124</v>
+      </c>
+      <c r="D77" t="s">
+        <v>125</v>
+      </c>
+      <c r="F77" t="s">
+        <v>128</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" t="s">
+        <v>83</v>
+      </c>
+      <c r="B78" t="s">
+        <v>111</v>
+      </c>
+      <c r="C78" t="s">
+        <v>123</v>
+      </c>
+      <c r="D78" t="s">
+        <v>125</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
+      <c r="H78" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/success_rates.xlsx
+++ b/Logs/success_rates.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="249">
   <si>
     <t>Timestamp</t>
   </si>
@@ -268,6 +268,78 @@
     <t>2025-09-02 07:17:13</t>
   </si>
   <si>
+    <t>2025-09-03 08:37:22</t>
+  </si>
+  <si>
+    <t>2025-09-03 10:52:23</t>
+  </si>
+  <si>
+    <t>2025-09-03 11:10:24</t>
+  </si>
+  <si>
+    <t>2025-09-03 11:15:50</t>
+  </si>
+  <si>
+    <t>2025-09-03 11:18:22</t>
+  </si>
+  <si>
+    <t>2025-09-03 11:43:01</t>
+  </si>
+  <si>
+    <t>2025-09-04 10:17:22</t>
+  </si>
+  <si>
+    <t>2025-09-04 12:14:45</t>
+  </si>
+  <si>
+    <t>2025-09-04 12:55:57</t>
+  </si>
+  <si>
+    <t>2025-09-04 13:37:39</t>
+  </si>
+  <si>
+    <t>2025-09-04 13:38:25</t>
+  </si>
+  <si>
+    <t>2025-09-04 15:39:16</t>
+  </si>
+  <si>
+    <t>2025-09-04 15:39:54</t>
+  </si>
+  <si>
+    <t>2025-09-05 09:06:27</t>
+  </si>
+  <si>
+    <t>2025-09-05 11:39:24</t>
+  </si>
+  <si>
+    <t>2025-09-06 13:36:15</t>
+  </si>
+  <si>
+    <t>2025-09-09 17:07:39</t>
+  </si>
+  <si>
+    <t>2025-09-09 17:09:16</t>
+  </si>
+  <si>
+    <t>2025-09-10 05:48:14</t>
+  </si>
+  <si>
+    <t>2025-09-10 05:48:45</t>
+  </si>
+  <si>
+    <t>2025-09-11 11:07:57</t>
+  </si>
+  <si>
+    <t>2025-09-12 16:03:17</t>
+  </si>
+  <si>
+    <t>2025-09-15 10:12:29</t>
+  </si>
+  <si>
+    <t>2025-09-18 02:54:06</t>
+  </si>
+  <si>
     <t>CMM0246LCL0044</t>
   </si>
   <si>
@@ -385,6 +457,60 @@
     <t>CMM0608LCL0044</t>
   </si>
   <si>
+    <t>CMM0800LCL0076</t>
+  </si>
+  <si>
+    <t>CMM0800LCL0077</t>
+  </si>
+  <si>
+    <t>CMM0800LCL0078</t>
+  </si>
+  <si>
+    <t>CMM0922LCL0001</t>
+  </si>
+  <si>
+    <t>CMM0637LCL0008</t>
+  </si>
+  <si>
+    <t>CMM0637LCL0009</t>
+  </si>
+  <si>
+    <t>CMM0741LCL0014</t>
+  </si>
+  <si>
+    <t>CMM0741LCL0015</t>
+  </si>
+  <si>
+    <t>CMM0637LCL0012</t>
+  </si>
+  <si>
+    <t>CMM0014LCL0006</t>
+  </si>
+  <si>
+    <t>CMM0923LCL0001</t>
+  </si>
+  <si>
+    <t>CMM0547LCL0080</t>
+  </si>
+  <si>
+    <t>CMM0657LCL0128</t>
+  </si>
+  <si>
+    <t>CMM0800LCL0079</t>
+  </si>
+  <si>
+    <t>CMM0014LCL0007</t>
+  </si>
+  <si>
+    <t>CMM0914LCL0002</t>
+  </si>
+  <si>
+    <t>CMM0932LCL0001</t>
+  </si>
+  <si>
+    <t>CMM0868LCL0007</t>
+  </si>
+  <si>
     <t>Success</t>
   </si>
   <si>
@@ -406,6 +532,12 @@
     <t>Pickup charges are required for Door-to-Door shipment scope.</t>
   </si>
   <si>
+    <t>⚠️ FBA Code IUSF not found in FBA Locations sheet.</t>
+  </si>
+  <si>
+    <t>⚠️ FBA Code 18031, not found in FBA Locations sheet.</t>
+  </si>
+  <si>
     <t>1 minutes, 4.45 seconds</t>
   </si>
   <si>
@@ -581,6 +713,54 @@
   </si>
   <si>
     <t>0 minutes, 29.13 seconds</t>
+  </si>
+  <si>
+    <t>1 minutes, 14.51 seconds</t>
+  </si>
+  <si>
+    <t>1 minutes, 13.12 seconds</t>
+  </si>
+  <si>
+    <t>1 minutes, 24.53 seconds</t>
+  </si>
+  <si>
+    <t>1 minutes, 23.0 seconds</t>
+  </si>
+  <si>
+    <t>0 minutes, 51.22 seconds</t>
+  </si>
+  <si>
+    <t>0 minutes, 37.33 seconds</t>
+  </si>
+  <si>
+    <t>0 minutes, 46.28 seconds</t>
+  </si>
+  <si>
+    <t>0 minutes, 34.8 seconds</t>
+  </si>
+  <si>
+    <t>0 minutes, 30.39 seconds</t>
+  </si>
+  <si>
+    <t>0 minutes, 40.73 seconds</t>
+  </si>
+  <si>
+    <t>0 minutes, 51.16 seconds</t>
+  </si>
+  <si>
+    <t>0 minutes, 52.72 seconds</t>
+  </si>
+  <si>
+    <t>0 minutes, 47.82 seconds</t>
+  </si>
+  <si>
+    <t>0 minutes, 17.94 seconds</t>
+  </si>
+  <si>
+    <t>2 minutes, 0.49 seconds</t>
+  </si>
+  <si>
+    <t>0 minutes, 57.91 seconds</t>
   </si>
 </sst>
 </file>
@@ -938,7 +1118,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H78"/>
+  <dimension ref="A1:H102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -975,13 +1155,13 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="C2" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="D2" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="G2">
         <v>5</v>
@@ -992,13 +1172,13 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="C3" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="D3" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="G3">
         <v>5</v>
@@ -1009,19 +1189,19 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="C4" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="D4" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="G4">
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>130</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1029,19 +1209,19 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="C5" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="D5" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="G5">
         <v>3</v>
       </c>
       <c r="H5" t="s">
-        <v>131</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1049,19 +1229,19 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="C6" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="D6" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>132</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1069,19 +1249,19 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="C7" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="D7" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="G7">
         <v>3</v>
       </c>
       <c r="H7" t="s">
-        <v>133</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1089,19 +1269,19 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="C8" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="D8" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>134</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1109,19 +1289,19 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="C9" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="D9" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>135</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1129,19 +1309,19 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="C10" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="D10" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>136</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1149,19 +1329,19 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="C11" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="D11" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>137</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1169,19 +1349,19 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="C12" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="D12" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>138</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1189,19 +1369,19 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="C13" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="D13" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>139</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1209,22 +1389,22 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="C14" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="D14" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="F14" t="s">
-        <v>126</v>
+        <v>168</v>
       </c>
       <c r="G14">
         <v>2</v>
       </c>
       <c r="H14" t="s">
-        <v>140</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1232,22 +1412,22 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="C15" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="D15" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="F15" t="s">
-        <v>126</v>
+        <v>168</v>
       </c>
       <c r="G15">
         <v>2</v>
       </c>
       <c r="H15" t="s">
-        <v>141</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1255,22 +1435,22 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="C16" t="s">
-        <v>124</v>
+        <v>166</v>
       </c>
       <c r="D16" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="F16" t="s">
-        <v>127</v>
+        <v>169</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>142</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1278,19 +1458,19 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="C17" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="D17" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="G17">
         <v>3</v>
       </c>
       <c r="H17" t="s">
-        <v>143</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1298,19 +1478,19 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="C18" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="D18" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="G18">
         <v>3</v>
       </c>
       <c r="H18" t="s">
-        <v>144</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1318,19 +1498,19 @@
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="C19" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="D19" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>145</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1338,19 +1518,19 @@
         <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="C20" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="D20" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>146</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1358,19 +1538,19 @@
         <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="C21" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="D21" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>147</v>
+        <v>191</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1378,19 +1558,19 @@
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="C22" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="D22" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>148</v>
+        <v>192</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1398,19 +1578,19 @@
         <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="C23" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="D23" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>149</v>
+        <v>193</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1418,19 +1598,19 @@
         <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="C24" t="s">
-        <v>124</v>
+        <v>166</v>
       </c>
       <c r="D24" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>150</v>
+        <v>194</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1438,19 +1618,19 @@
         <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="C25" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="D25" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>151</v>
+        <v>195</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1458,19 +1638,19 @@
         <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="C26" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="D26" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="G26">
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>152</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1478,19 +1658,19 @@
         <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="C27" t="s">
-        <v>124</v>
+        <v>166</v>
       </c>
       <c r="D27" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>153</v>
+        <v>197</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1498,19 +1678,19 @@
         <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="C28" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="D28" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="G28">
         <v>1</v>
       </c>
       <c r="H28" t="s">
-        <v>154</v>
+        <v>198</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1518,19 +1698,19 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="C29" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="D29" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="G29">
         <v>1</v>
       </c>
       <c r="H29" t="s">
-        <v>155</v>
+        <v>199</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1538,19 +1718,19 @@
         <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="C30" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="D30" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="G30">
         <v>1</v>
       </c>
       <c r="H30" t="s">
-        <v>156</v>
+        <v>200</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1558,19 +1738,19 @@
         <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="C31" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="D31" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="G31">
         <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>157</v>
+        <v>201</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1578,19 +1758,19 @@
         <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="C32" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="D32" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="G32">
         <v>1</v>
       </c>
       <c r="H32" t="s">
-        <v>158</v>
+        <v>202</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1598,19 +1778,19 @@
         <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="C33" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="D33" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="G33">
         <v>1</v>
       </c>
       <c r="H33" t="s">
-        <v>159</v>
+        <v>203</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1618,19 +1798,19 @@
         <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="C34" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="D34" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="G34">
         <v>1</v>
       </c>
       <c r="H34" t="s">
-        <v>160</v>
+        <v>204</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1638,22 +1818,22 @@
         <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="C35" t="s">
-        <v>124</v>
+        <v>166</v>
       </c>
       <c r="D35" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="F35" t="s">
-        <v>128</v>
+        <v>170</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>161</v>
+        <v>205</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1661,19 +1841,19 @@
         <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="C36" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="D36" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="G36">
         <v>1</v>
       </c>
       <c r="H36" t="s">
-        <v>162</v>
+        <v>206</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1681,19 +1861,19 @@
         <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="C37" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="D37" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="G37">
         <v>1</v>
       </c>
       <c r="H37" t="s">
-        <v>163</v>
+        <v>207</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1701,19 +1881,19 @@
         <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="C38" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="D38" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="G38">
         <v>1</v>
       </c>
       <c r="H38" t="s">
-        <v>164</v>
+        <v>208</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1721,19 +1901,19 @@
         <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="C39" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="D39" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="G39">
         <v>1</v>
       </c>
       <c r="H39" t="s">
-        <v>165</v>
+        <v>209</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1741,19 +1921,19 @@
         <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="C40" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="D40" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="G40">
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>166</v>
+        <v>210</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1761,22 +1941,22 @@
         <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="C41" t="s">
-        <v>124</v>
+        <v>166</v>
       </c>
       <c r="D41" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="F41" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="G41">
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>167</v>
+        <v>211</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1784,22 +1964,22 @@
         <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="C42" t="s">
-        <v>124</v>
+        <v>166</v>
       </c>
       <c r="D42" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="F42" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="G42">
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>167</v>
+        <v>211</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1807,22 +1987,22 @@
         <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="C43" t="s">
-        <v>124</v>
+        <v>166</v>
       </c>
       <c r="D43" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="F43" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="G43">
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>167</v>
+        <v>211</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1830,22 +2010,22 @@
         <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="C44" t="s">
-        <v>124</v>
+        <v>166</v>
       </c>
       <c r="D44" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="F44" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="G44">
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>167</v>
+        <v>211</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1853,19 +2033,19 @@
         <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="C45" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="D45" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="G45">
         <v>2</v>
       </c>
       <c r="H45" t="s">
-        <v>168</v>
+        <v>212</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1873,22 +2053,22 @@
         <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="C46" t="s">
-        <v>124</v>
+        <v>166</v>
       </c>
       <c r="D46" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="F46" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="G46">
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>167</v>
+        <v>211</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1896,19 +2076,19 @@
         <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="C47" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="D47" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="G47">
         <v>2</v>
       </c>
       <c r="H47" t="s">
-        <v>169</v>
+        <v>213</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1916,22 +2096,22 @@
         <v>54</v>
       </c>
       <c r="B48" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="C48" t="s">
-        <v>124</v>
+        <v>166</v>
       </c>
       <c r="D48" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="F48" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="G48">
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>167</v>
+        <v>211</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1939,19 +2119,19 @@
         <v>55</v>
       </c>
       <c r="B49" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="C49" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="D49" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="G49">
         <v>3</v>
       </c>
       <c r="H49" t="s">
-        <v>170</v>
+        <v>214</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1959,22 +2139,22 @@
         <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="C50" t="s">
-        <v>124</v>
+        <v>166</v>
       </c>
       <c r="D50" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="F50" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="G50">
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>167</v>
+        <v>211</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1982,19 +2162,19 @@
         <v>57</v>
       </c>
       <c r="B51" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="C51" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="D51" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="G51">
         <v>3</v>
       </c>
       <c r="H51" t="s">
-        <v>171</v>
+        <v>215</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2002,19 +2182,19 @@
         <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="C52" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="D52" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="G52">
         <v>2</v>
       </c>
       <c r="H52" t="s">
-        <v>172</v>
+        <v>216</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2022,19 +2202,19 @@
         <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="C53" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="D53" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="G53">
         <v>1</v>
       </c>
       <c r="H53" t="s">
-        <v>173</v>
+        <v>217</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2042,19 +2222,19 @@
         <v>60</v>
       </c>
       <c r="B54" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="C54" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="D54" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="G54">
         <v>1</v>
       </c>
       <c r="H54" t="s">
-        <v>174</v>
+        <v>218</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2062,19 +2242,19 @@
         <v>61</v>
       </c>
       <c r="B55" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="C55" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="D55" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="G55">
         <v>1</v>
       </c>
       <c r="H55" t="s">
-        <v>132</v>
+        <v>176</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2082,19 +2262,19 @@
         <v>62</v>
       </c>
       <c r="B56" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="C56" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="D56" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="G56">
         <v>1</v>
       </c>
       <c r="H56" t="s">
-        <v>175</v>
+        <v>219</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2102,19 +2282,19 @@
         <v>63</v>
       </c>
       <c r="B57" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="C57" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="D57" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="G57">
         <v>1</v>
       </c>
       <c r="H57" t="s">
-        <v>176</v>
+        <v>220</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2122,19 +2302,19 @@
         <v>64</v>
       </c>
       <c r="B58" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="C58" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="D58" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="G58">
         <v>1</v>
       </c>
       <c r="H58" t="s">
-        <v>177</v>
+        <v>221</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2142,19 +2322,19 @@
         <v>65</v>
       </c>
       <c r="B59" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="C59" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="D59" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="G59">
         <v>1</v>
       </c>
       <c r="H59" t="s">
-        <v>178</v>
+        <v>222</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2162,19 +2342,19 @@
         <v>66</v>
       </c>
       <c r="B60" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="C60" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="D60" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="G60">
         <v>1</v>
       </c>
       <c r="H60" t="s">
-        <v>179</v>
+        <v>223</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2182,19 +2362,19 @@
         <v>67</v>
       </c>
       <c r="B61" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="C61" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="D61" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="G61">
         <v>1</v>
       </c>
       <c r="H61" t="s">
-        <v>180</v>
+        <v>224</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2202,22 +2382,22 @@
         <v>68</v>
       </c>
       <c r="B62" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="C62" t="s">
-        <v>124</v>
+        <v>166</v>
       </c>
       <c r="D62" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="F62" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="G62">
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>167</v>
+        <v>211</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2225,22 +2405,22 @@
         <v>69</v>
       </c>
       <c r="B63" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="C63" t="s">
-        <v>124</v>
+        <v>166</v>
       </c>
       <c r="D63" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="F63" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="G63">
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>167</v>
+        <v>211</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2248,22 +2428,22 @@
         <v>69</v>
       </c>
       <c r="B64" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="C64" t="s">
-        <v>124</v>
+        <v>166</v>
       </c>
       <c r="D64" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="F64" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="G64">
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>167</v>
+        <v>211</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2271,22 +2451,22 @@
         <v>70</v>
       </c>
       <c r="B65" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="C65" t="s">
-        <v>124</v>
+        <v>166</v>
       </c>
       <c r="D65" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="F65" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="G65">
         <v>0</v>
       </c>
       <c r="H65" t="s">
-        <v>167</v>
+        <v>211</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2294,19 +2474,19 @@
         <v>71</v>
       </c>
       <c r="B66" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="C66" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="D66" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="G66">
         <v>1</v>
       </c>
       <c r="H66" t="s">
-        <v>181</v>
+        <v>225</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2314,19 +2494,19 @@
         <v>72</v>
       </c>
       <c r="B67" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="C67" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="D67" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="G67">
         <v>1</v>
       </c>
       <c r="H67" t="s">
-        <v>182</v>
+        <v>226</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2334,19 +2514,19 @@
         <v>73</v>
       </c>
       <c r="B68" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="C68" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="D68" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="G68">
         <v>1</v>
       </c>
       <c r="H68" t="s">
-        <v>183</v>
+        <v>227</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2354,19 +2534,19 @@
         <v>74</v>
       </c>
       <c r="B69" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="C69" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="D69" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="G69">
         <v>1</v>
       </c>
       <c r="H69" t="s">
-        <v>184</v>
+        <v>228</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2374,22 +2554,22 @@
         <v>75</v>
       </c>
       <c r="B70" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="C70" t="s">
-        <v>124</v>
+        <v>166</v>
       </c>
       <c r="D70" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="F70" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="G70">
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>167</v>
+        <v>211</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2397,22 +2577,22 @@
         <v>76</v>
       </c>
       <c r="B71" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="C71" t="s">
-        <v>124</v>
+        <v>166</v>
       </c>
       <c r="D71" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="F71" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="G71">
         <v>0</v>
       </c>
       <c r="H71" t="s">
-        <v>167</v>
+        <v>211</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2420,19 +2600,19 @@
         <v>77</v>
       </c>
       <c r="B72" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="C72" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="D72" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="G72">
         <v>1</v>
       </c>
       <c r="H72" t="s">
-        <v>185</v>
+        <v>229</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2440,19 +2620,19 @@
         <v>78</v>
       </c>
       <c r="B73" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="C73" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="D73" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="G73">
         <v>1</v>
       </c>
       <c r="H73" t="s">
-        <v>186</v>
+        <v>230</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2460,19 +2640,19 @@
         <v>79</v>
       </c>
       <c r="B74" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="C74" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="D74" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="G74">
         <v>1</v>
       </c>
       <c r="H74" t="s">
-        <v>187</v>
+        <v>231</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2480,19 +2660,19 @@
         <v>80</v>
       </c>
       <c r="B75" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="C75" t="s">
-        <v>124</v>
+        <v>166</v>
       </c>
       <c r="D75" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="G75">
         <v>0</v>
       </c>
       <c r="H75" t="s">
-        <v>153</v>
+        <v>197</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2500,22 +2680,22 @@
         <v>81</v>
       </c>
       <c r="B76" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="C76" t="s">
-        <v>124</v>
+        <v>166</v>
       </c>
       <c r="D76" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="F76" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="G76">
         <v>0</v>
       </c>
       <c r="H76" t="s">
-        <v>167</v>
+        <v>211</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2523,22 +2703,22 @@
         <v>82</v>
       </c>
       <c r="B77" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="C77" t="s">
-        <v>124</v>
+        <v>166</v>
       </c>
       <c r="D77" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="F77" t="s">
-        <v>128</v>
+        <v>170</v>
       </c>
       <c r="G77">
         <v>0</v>
       </c>
       <c r="H77" t="s">
-        <v>150</v>
+        <v>194</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2546,19 +2726,514 @@
         <v>83</v>
       </c>
       <c r="B78" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="C78" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="D78" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="G78">
         <v>1</v>
       </c>
       <c r="H78" t="s">
-        <v>188</v>
+        <v>232</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" t="s">
+        <v>84</v>
+      </c>
+      <c r="B79" t="s">
+        <v>109</v>
+      </c>
+      <c r="C79" t="s">
+        <v>165</v>
+      </c>
+      <c r="D79" t="s">
+        <v>167</v>
+      </c>
+      <c r="G79">
+        <v>2</v>
+      </c>
+      <c r="H79" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" t="s">
+        <v>85</v>
+      </c>
+      <c r="B80" t="s">
+        <v>147</v>
+      </c>
+      <c r="C80" t="s">
+        <v>165</v>
+      </c>
+      <c r="D80" t="s">
+        <v>167</v>
+      </c>
+      <c r="G80">
+        <v>2</v>
+      </c>
+      <c r="H80" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" t="s">
+        <v>86</v>
+      </c>
+      <c r="B81" t="s">
+        <v>148</v>
+      </c>
+      <c r="C81" t="s">
+        <v>165</v>
+      </c>
+      <c r="D81" t="s">
+        <v>167</v>
+      </c>
+      <c r="G81">
+        <v>3</v>
+      </c>
+      <c r="H81" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" t="s">
+        <v>87</v>
+      </c>
+      <c r="B82" t="s">
+        <v>148</v>
+      </c>
+      <c r="C82" t="s">
+        <v>165</v>
+      </c>
+      <c r="D82" t="s">
+        <v>167</v>
+      </c>
+      <c r="G82">
+        <v>3</v>
+      </c>
+      <c r="H82" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" t="s">
+        <v>88</v>
+      </c>
+      <c r="B83" t="s">
+        <v>148</v>
+      </c>
+      <c r="C83" t="s">
+        <v>165</v>
+      </c>
+      <c r="D83" t="s">
+        <v>167</v>
+      </c>
+      <c r="G83">
+        <v>2</v>
+      </c>
+      <c r="H83" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" t="s">
+        <v>89</v>
+      </c>
+      <c r="B84" t="s">
+        <v>149</v>
+      </c>
+      <c r="C84" t="s">
+        <v>165</v>
+      </c>
+      <c r="D84" t="s">
+        <v>167</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+      <c r="H84" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" t="s">
+        <v>90</v>
+      </c>
+      <c r="B85" t="s">
+        <v>150</v>
+      </c>
+      <c r="C85" t="s">
+        <v>166</v>
+      </c>
+      <c r="D85" t="s">
+        <v>167</v>
+      </c>
+      <c r="F85" t="s">
+        <v>172</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" t="s">
+        <v>91</v>
+      </c>
+      <c r="B86" t="s">
+        <v>151</v>
+      </c>
+      <c r="C86" t="s">
+        <v>166</v>
+      </c>
+      <c r="D86" t="s">
+        <v>167</v>
+      </c>
+      <c r="F86" t="s">
+        <v>173</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" t="s">
+        <v>92</v>
+      </c>
+      <c r="B87" t="s">
+        <v>152</v>
+      </c>
+      <c r="C87" t="s">
+        <v>165</v>
+      </c>
+      <c r="D87" t="s">
+        <v>167</v>
+      </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
+      <c r="H87" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" t="s">
+        <v>93</v>
+      </c>
+      <c r="B88" t="s">
+        <v>153</v>
+      </c>
+      <c r="C88" t="s">
+        <v>166</v>
+      </c>
+      <c r="D88" t="s">
+        <v>167</v>
+      </c>
+      <c r="F88" t="s">
+        <v>171</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" t="s">
+        <v>94</v>
+      </c>
+      <c r="B89" t="s">
+        <v>153</v>
+      </c>
+      <c r="C89" t="s">
+        <v>165</v>
+      </c>
+      <c r="D89" t="s">
+        <v>167</v>
+      </c>
+      <c r="G89">
+        <v>1</v>
+      </c>
+      <c r="H89" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" t="s">
+        <v>95</v>
+      </c>
+      <c r="B90" t="s">
+        <v>154</v>
+      </c>
+      <c r="C90" t="s">
+        <v>166</v>
+      </c>
+      <c r="D90" t="s">
+        <v>167</v>
+      </c>
+      <c r="F90" t="s">
+        <v>171</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" t="s">
+        <v>96</v>
+      </c>
+      <c r="B91" t="s">
+        <v>154</v>
+      </c>
+      <c r="C91" t="s">
+        <v>165</v>
+      </c>
+      <c r="D91" t="s">
+        <v>167</v>
+      </c>
+      <c r="G91">
+        <v>1</v>
+      </c>
+      <c r="H91" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" t="s">
+        <v>97</v>
+      </c>
+      <c r="B92" t="s">
+        <v>155</v>
+      </c>
+      <c r="C92" t="s">
+        <v>165</v>
+      </c>
+      <c r="D92" t="s">
+        <v>167</v>
+      </c>
+      <c r="G92">
+        <v>1</v>
+      </c>
+      <c r="H92" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" t="s">
+        <v>98</v>
+      </c>
+      <c r="B93" t="s">
+        <v>156</v>
+      </c>
+      <c r="C93" t="s">
+        <v>165</v>
+      </c>
+      <c r="D93" t="s">
+        <v>167</v>
+      </c>
+      <c r="G93">
+        <v>1</v>
+      </c>
+      <c r="H93" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" t="s">
+        <v>99</v>
+      </c>
+      <c r="B94" t="s">
+        <v>157</v>
+      </c>
+      <c r="C94" t="s">
+        <v>165</v>
+      </c>
+      <c r="D94" t="s">
+        <v>167</v>
+      </c>
+      <c r="G94">
+        <v>1</v>
+      </c>
+      <c r="H94" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" t="s">
+        <v>100</v>
+      </c>
+      <c r="B95" t="s">
+        <v>158</v>
+      </c>
+      <c r="C95" t="s">
+        <v>166</v>
+      </c>
+      <c r="D95" t="s">
+        <v>167</v>
+      </c>
+      <c r="F95" t="s">
+        <v>171</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" t="s">
+        <v>101</v>
+      </c>
+      <c r="B96" t="s">
+        <v>159</v>
+      </c>
+      <c r="C96" t="s">
+        <v>165</v>
+      </c>
+      <c r="D96" t="s">
+        <v>167</v>
+      </c>
+      <c r="G96">
+        <v>1</v>
+      </c>
+      <c r="H96" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" t="s">
+        <v>102</v>
+      </c>
+      <c r="B97" t="s">
+        <v>160</v>
+      </c>
+      <c r="C97" t="s">
+        <v>166</v>
+      </c>
+      <c r="D97" t="s">
+        <v>167</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" t="s">
+        <v>103</v>
+      </c>
+      <c r="B98" t="s">
+        <v>160</v>
+      </c>
+      <c r="C98" t="s">
+        <v>166</v>
+      </c>
+      <c r="D98" t="s">
+        <v>167</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" t="s">
+        <v>104</v>
+      </c>
+      <c r="B99" t="s">
+        <v>161</v>
+      </c>
+      <c r="C99" t="s">
+        <v>165</v>
+      </c>
+      <c r="D99" t="s">
+        <v>167</v>
+      </c>
+      <c r="G99">
+        <v>1</v>
+      </c>
+      <c r="H99" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" t="s">
+        <v>105</v>
+      </c>
+      <c r="B100" t="s">
+        <v>162</v>
+      </c>
+      <c r="C100" t="s">
+        <v>165</v>
+      </c>
+      <c r="D100" t="s">
+        <v>167</v>
+      </c>
+      <c r="G100">
+        <v>1</v>
+      </c>
+      <c r="H100" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" t="s">
+        <v>106</v>
+      </c>
+      <c r="B101" t="s">
+        <v>163</v>
+      </c>
+      <c r="C101" t="s">
+        <v>166</v>
+      </c>
+      <c r="D101" t="s">
+        <v>167</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" t="s">
+        <v>107</v>
+      </c>
+      <c r="B102" t="s">
+        <v>164</v>
+      </c>
+      <c r="C102" t="s">
+        <v>165</v>
+      </c>
+      <c r="D102" t="s">
+        <v>167</v>
+      </c>
+      <c r="G102">
+        <v>1</v>
+      </c>
+      <c r="H102" t="s">
+        <v>248</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/success_rates.xlsx
+++ b/Logs/success_rates.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="264">
   <si>
     <t>Timestamp</t>
   </si>
@@ -340,6 +340,24 @@
     <t>2025-09-18 02:54:06</t>
   </si>
   <si>
+    <t>2025-09-18 11:10:00</t>
+  </si>
+  <si>
+    <t>2025-09-18 11:11:01</t>
+  </si>
+  <si>
+    <t>2025-09-18 11:28:37</t>
+  </si>
+  <si>
+    <t>2025-09-18 11:30:38</t>
+  </si>
+  <si>
+    <t>2025-09-18 20:00:52</t>
+  </si>
+  <si>
+    <t>2025-09-18 20:03:56</t>
+  </si>
+  <si>
     <t>CMM0246LCL0044</t>
   </si>
   <si>
@@ -511,6 +529,15 @@
     <t>CMM0868LCL0007</t>
   </si>
   <si>
+    <t>CMM0106LCL0006</t>
+  </si>
+  <si>
+    <t>CMM0637LCL0016</t>
+  </si>
+  <si>
+    <t>CMM0937LCL0001</t>
+  </si>
+  <si>
     <t>Success</t>
   </si>
   <si>
@@ -538,6 +565,9 @@
     <t>⚠️ FBA Code 18031, not found in FBA Locations sheet.</t>
   </si>
   <si>
+    <t>⚠️ FBA Code 32405, not found in FBA Locations sheet.</t>
+  </si>
+  <si>
     <t>1 minutes, 4.45 seconds</t>
   </si>
   <si>
@@ -761,6 +791,21 @@
   </si>
   <si>
     <t>0 minutes, 57.91 seconds</t>
+  </si>
+  <si>
+    <t>0 minutes, 32.64 seconds</t>
+  </si>
+  <si>
+    <t>0 minutes, 20.68 seconds</t>
+  </si>
+  <si>
+    <t>0 minutes, 32.68 seconds</t>
+  </si>
+  <si>
+    <t>1 minutes, 3.84 seconds</t>
+  </si>
+  <si>
+    <t>0 minutes, 56.33 seconds</t>
   </si>
 </sst>
 </file>
@@ -1118,7 +1163,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H102"/>
+  <dimension ref="A1:H108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1155,13 +1200,13 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C2" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D2" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G2">
         <v>5</v>
@@ -1172,13 +1217,13 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C3" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D3" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G3">
         <v>5</v>
@@ -1189,19 +1234,19 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C4" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D4" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G4">
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1209,19 +1254,19 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="C5" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D5" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G5">
         <v>3</v>
       </c>
       <c r="H5" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1229,19 +1274,19 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C6" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D6" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1249,19 +1294,19 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="C7" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D7" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G7">
         <v>3</v>
       </c>
       <c r="H7" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1269,19 +1314,19 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C8" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D8" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1289,19 +1334,19 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C9" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D9" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1309,19 +1354,19 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C10" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D10" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1329,19 +1374,19 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C11" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D11" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1349,19 +1394,19 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C12" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D12" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1369,19 +1414,19 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C13" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D13" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1389,22 +1434,22 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C14" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D14" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="F14" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="G14">
         <v>2</v>
       </c>
       <c r="H14" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1412,22 +1457,22 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C15" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D15" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="F15" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="G15">
         <v>2</v>
       </c>
       <c r="H15" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1435,22 +1480,22 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C16" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D16" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="F16" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1458,19 +1503,19 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C17" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D17" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G17">
         <v>3</v>
       </c>
       <c r="H17" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1478,19 +1523,19 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C18" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D18" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G18">
         <v>3</v>
       </c>
       <c r="H18" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1498,19 +1543,19 @@
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C19" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D19" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1518,19 +1563,19 @@
         <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C20" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D20" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1538,19 +1583,19 @@
         <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C21" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D21" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1558,19 +1603,19 @@
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C22" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D22" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1578,19 +1623,19 @@
         <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C23" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D23" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1598,19 +1643,19 @@
         <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C24" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D24" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1618,19 +1663,19 @@
         <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C25" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D25" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1638,19 +1683,19 @@
         <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C26" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D26" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G26">
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1658,19 +1703,19 @@
         <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C27" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D27" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1678,19 +1723,19 @@
         <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C28" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D28" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G28">
         <v>1</v>
       </c>
       <c r="H28" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1698,19 +1743,19 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C29" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D29" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G29">
         <v>1</v>
       </c>
       <c r="H29" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1718,19 +1763,19 @@
         <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C30" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D30" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G30">
         <v>1</v>
       </c>
       <c r="H30" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1738,19 +1783,19 @@
         <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C31" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D31" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G31">
         <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1758,19 +1803,19 @@
         <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C32" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D32" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G32">
         <v>1</v>
       </c>
       <c r="H32" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1778,19 +1823,19 @@
         <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C33" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D33" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G33">
         <v>1</v>
       </c>
       <c r="H33" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1798,19 +1843,19 @@
         <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C34" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D34" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G34">
         <v>1</v>
       </c>
       <c r="H34" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1818,22 +1863,22 @@
         <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C35" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D35" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="F35" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1841,19 +1886,19 @@
         <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C36" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D36" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G36">
         <v>1</v>
       </c>
       <c r="H36" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1861,19 +1906,19 @@
         <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C37" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D37" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G37">
         <v>1</v>
       </c>
       <c r="H37" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1881,19 +1926,19 @@
         <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C38" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D38" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G38">
         <v>1</v>
       </c>
       <c r="H38" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1901,19 +1946,19 @@
         <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C39" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D39" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G39">
         <v>1</v>
       </c>
       <c r="H39" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1921,19 +1966,19 @@
         <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C40" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D40" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G40">
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1941,22 +1986,22 @@
         <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C41" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D41" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="F41" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="G41">
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1964,22 +2009,22 @@
         <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C42" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D42" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="F42" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="G42">
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1987,22 +2032,22 @@
         <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C43" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D43" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="F43" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="G43">
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2010,22 +2055,22 @@
         <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C44" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D44" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="F44" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="G44">
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2033,19 +2078,19 @@
         <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C45" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D45" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G45">
         <v>2</v>
       </c>
       <c r="H45" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2053,22 +2098,22 @@
         <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="C46" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D46" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="F46" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="G46">
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2076,19 +2121,19 @@
         <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="C47" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D47" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G47">
         <v>2</v>
       </c>
       <c r="H47" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2096,22 +2141,22 @@
         <v>54</v>
       </c>
       <c r="B48" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C48" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D48" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="F48" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="G48">
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2119,19 +2164,19 @@
         <v>55</v>
       </c>
       <c r="B49" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C49" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D49" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G49">
         <v>3</v>
       </c>
       <c r="H49" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2139,22 +2184,22 @@
         <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="C50" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D50" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="F50" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="G50">
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2162,19 +2207,19 @@
         <v>57</v>
       </c>
       <c r="B51" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="C51" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D51" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G51">
         <v>3</v>
       </c>
       <c r="H51" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2182,19 +2227,19 @@
         <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C52" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D52" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G52">
         <v>2</v>
       </c>
       <c r="H52" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2202,19 +2247,19 @@
         <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C53" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D53" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G53">
         <v>1</v>
       </c>
       <c r="H53" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2222,19 +2267,19 @@
         <v>60</v>
       </c>
       <c r="B54" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C54" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D54" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G54">
         <v>1</v>
       </c>
       <c r="H54" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2242,19 +2287,19 @@
         <v>61</v>
       </c>
       <c r="B55" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="C55" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D55" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G55">
         <v>1</v>
       </c>
       <c r="H55" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2262,19 +2307,19 @@
         <v>62</v>
       </c>
       <c r="B56" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C56" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D56" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G56">
         <v>1</v>
       </c>
       <c r="H56" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2282,19 +2327,19 @@
         <v>63</v>
       </c>
       <c r="B57" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="C57" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D57" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G57">
         <v>1</v>
       </c>
       <c r="H57" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2302,19 +2347,19 @@
         <v>64</v>
       </c>
       <c r="B58" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C58" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D58" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G58">
         <v>1</v>
       </c>
       <c r="H58" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2322,19 +2367,19 @@
         <v>65</v>
       </c>
       <c r="B59" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C59" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D59" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G59">
         <v>1</v>
       </c>
       <c r="H59" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2342,19 +2387,19 @@
         <v>66</v>
       </c>
       <c r="B60" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C60" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D60" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G60">
         <v>1</v>
       </c>
       <c r="H60" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2362,19 +2407,19 @@
         <v>67</v>
       </c>
       <c r="B61" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C61" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D61" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G61">
         <v>1</v>
       </c>
       <c r="H61" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2382,22 +2427,22 @@
         <v>68</v>
       </c>
       <c r="B62" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C62" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D62" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="F62" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="G62">
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2405,22 +2450,22 @@
         <v>69</v>
       </c>
       <c r="B63" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C63" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D63" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="F63" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="G63">
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2428,22 +2473,22 @@
         <v>69</v>
       </c>
       <c r="B64" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C64" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D64" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="F64" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="G64">
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2451,22 +2496,22 @@
         <v>70</v>
       </c>
       <c r="B65" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C65" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D65" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="F65" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="G65">
         <v>0</v>
       </c>
       <c r="H65" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2474,19 +2519,19 @@
         <v>71</v>
       </c>
       <c r="B66" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="C66" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D66" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G66">
         <v>1</v>
       </c>
       <c r="H66" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2494,19 +2539,19 @@
         <v>72</v>
       </c>
       <c r="B67" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="C67" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D67" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G67">
         <v>1</v>
       </c>
       <c r="H67" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2514,19 +2559,19 @@
         <v>73</v>
       </c>
       <c r="B68" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C68" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D68" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G68">
         <v>1</v>
       </c>
       <c r="H68" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2534,19 +2579,19 @@
         <v>74</v>
       </c>
       <c r="B69" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="C69" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D69" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G69">
         <v>1</v>
       </c>
       <c r="H69" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2554,22 +2599,22 @@
         <v>75</v>
       </c>
       <c r="B70" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C70" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D70" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="F70" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="G70">
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2577,22 +2622,22 @@
         <v>76</v>
       </c>
       <c r="B71" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C71" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D71" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="F71" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="G71">
         <v>0</v>
       </c>
       <c r="H71" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2600,19 +2645,19 @@
         <v>77</v>
       </c>
       <c r="B72" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C72" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D72" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G72">
         <v>1</v>
       </c>
       <c r="H72" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2620,19 +2665,19 @@
         <v>78</v>
       </c>
       <c r="B73" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="C73" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D73" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G73">
         <v>1</v>
       </c>
       <c r="H73" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2640,19 +2685,19 @@
         <v>79</v>
       </c>
       <c r="B74" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="C74" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D74" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G74">
         <v>1</v>
       </c>
       <c r="H74" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2660,19 +2705,19 @@
         <v>80</v>
       </c>
       <c r="B75" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C75" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D75" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G75">
         <v>0</v>
       </c>
       <c r="H75" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2680,22 +2725,22 @@
         <v>81</v>
       </c>
       <c r="B76" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C76" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D76" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="F76" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="G76">
         <v>0</v>
       </c>
       <c r="H76" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2703,22 +2748,22 @@
         <v>82</v>
       </c>
       <c r="B77" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C77" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D77" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="F77" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="G77">
         <v>0</v>
       </c>
       <c r="H77" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2726,19 +2771,19 @@
         <v>83</v>
       </c>
       <c r="B78" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C78" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D78" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G78">
         <v>1</v>
       </c>
       <c r="H78" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2746,19 +2791,19 @@
         <v>84</v>
       </c>
       <c r="B79" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C79" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D79" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G79">
         <v>2</v>
       </c>
       <c r="H79" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2766,19 +2811,19 @@
         <v>85</v>
       </c>
       <c r="B80" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C80" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D80" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G80">
         <v>2</v>
       </c>
       <c r="H80" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2786,19 +2831,19 @@
         <v>86</v>
       </c>
       <c r="B81" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="C81" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D81" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G81">
         <v>3</v>
       </c>
       <c r="H81" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2806,19 +2851,19 @@
         <v>87</v>
       </c>
       <c r="B82" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="C82" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D82" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G82">
         <v>3</v>
       </c>
       <c r="H82" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2826,19 +2871,19 @@
         <v>88</v>
       </c>
       <c r="B83" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="C83" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D83" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G83">
         <v>2</v>
       </c>
       <c r="H83" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2846,19 +2891,19 @@
         <v>89</v>
       </c>
       <c r="B84" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C84" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D84" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G84">
         <v>1</v>
       </c>
       <c r="H84" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2866,22 +2911,22 @@
         <v>90</v>
       </c>
       <c r="B85" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C85" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D85" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="F85" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="G85">
         <v>0</v>
       </c>
       <c r="H85" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2889,22 +2934,22 @@
         <v>91</v>
       </c>
       <c r="B86" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C86" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D86" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="F86" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="G86">
         <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2912,19 +2957,19 @@
         <v>92</v>
       </c>
       <c r="B87" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C87" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D87" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G87">
         <v>1</v>
       </c>
       <c r="H87" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2932,22 +2977,22 @@
         <v>93</v>
       </c>
       <c r="B88" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C88" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D88" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="F88" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="G88">
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2955,19 +3000,19 @@
         <v>94</v>
       </c>
       <c r="B89" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C89" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D89" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G89">
         <v>1</v>
       </c>
       <c r="H89" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2975,22 +3020,22 @@
         <v>95</v>
       </c>
       <c r="B90" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="C90" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D90" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="F90" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="G90">
         <v>0</v>
       </c>
       <c r="H90" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2998,19 +3043,19 @@
         <v>96</v>
       </c>
       <c r="B91" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="C91" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D91" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G91">
         <v>1</v>
       </c>
       <c r="H91" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3018,19 +3063,19 @@
         <v>97</v>
       </c>
       <c r="B92" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="C92" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D92" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G92">
         <v>1</v>
       </c>
       <c r="H92" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3038,19 +3083,19 @@
         <v>98</v>
       </c>
       <c r="B93" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C93" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D93" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G93">
         <v>1</v>
       </c>
       <c r="H93" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3058,19 +3103,19 @@
         <v>99</v>
       </c>
       <c r="B94" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="C94" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D94" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G94">
         <v>1</v>
       </c>
       <c r="H94" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3078,22 +3123,22 @@
         <v>100</v>
       </c>
       <c r="B95" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C95" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D95" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="F95" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="G95">
         <v>0</v>
       </c>
       <c r="H95" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3101,19 +3146,19 @@
         <v>101</v>
       </c>
       <c r="B96" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="C96" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D96" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G96">
         <v>1</v>
       </c>
       <c r="H96" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3121,19 +3166,19 @@
         <v>102</v>
       </c>
       <c r="B97" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="C97" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D97" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G97">
         <v>0</v>
       </c>
       <c r="H97" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3141,19 +3186,19 @@
         <v>103</v>
       </c>
       <c r="B98" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="C98" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D98" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G98">
         <v>0</v>
       </c>
       <c r="H98" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3161,19 +3206,19 @@
         <v>104</v>
       </c>
       <c r="B99" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C99" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D99" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G99">
         <v>1</v>
       </c>
       <c r="H99" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3181,19 +3226,19 @@
         <v>105</v>
       </c>
       <c r="B100" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C100" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D100" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G100">
         <v>1</v>
       </c>
       <c r="H100" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3201,19 +3246,19 @@
         <v>106</v>
       </c>
       <c r="B101" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C101" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D101" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G101">
         <v>0</v>
       </c>
       <c r="H101" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3221,19 +3266,142 @@
         <v>107</v>
       </c>
       <c r="B102" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="C102" t="s">
+        <v>174</v>
+      </c>
+      <c r="D102" t="s">
+        <v>176</v>
+      </c>
+      <c r="G102">
+        <v>1</v>
+      </c>
+      <c r="H102" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" t="s">
+        <v>108</v>
+      </c>
+      <c r="B103" t="s">
+        <v>171</v>
+      </c>
+      <c r="C103" t="s">
+        <v>175</v>
+      </c>
+      <c r="D103" t="s">
+        <v>176</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" t="s">
+        <v>109</v>
+      </c>
+      <c r="B104" t="s">
+        <v>172</v>
+      </c>
+      <c r="C104" t="s">
+        <v>175</v>
+      </c>
+      <c r="D104" t="s">
+        <v>176</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" t="s">
+        <v>110</v>
+      </c>
+      <c r="B105" t="s">
+        <v>170</v>
+      </c>
+      <c r="C105" t="s">
+        <v>174</v>
+      </c>
+      <c r="D105" t="s">
+        <v>176</v>
+      </c>
+      <c r="G105">
+        <v>1</v>
+      </c>
+      <c r="H105" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" t="s">
+        <v>111</v>
+      </c>
+      <c r="B106" t="s">
         <v>165</v>
       </c>
-      <c r="D102" t="s">
-        <v>167</v>
-      </c>
-      <c r="G102">
-        <v>1</v>
-      </c>
-      <c r="H102" t="s">
-        <v>248</v>
+      <c r="C106" t="s">
+        <v>174</v>
+      </c>
+      <c r="D106" t="s">
+        <v>176</v>
+      </c>
+      <c r="G106">
+        <v>1</v>
+      </c>
+      <c r="H106" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" t="s">
+        <v>112</v>
+      </c>
+      <c r="B107" t="s">
+        <v>173</v>
+      </c>
+      <c r="C107" t="s">
+        <v>174</v>
+      </c>
+      <c r="D107" t="s">
+        <v>176</v>
+      </c>
+      <c r="F107" t="s">
+        <v>183</v>
+      </c>
+      <c r="G107">
+        <v>2</v>
+      </c>
+      <c r="H107" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" t="s">
+        <v>113</v>
+      </c>
+      <c r="B108" t="s">
+        <v>173</v>
+      </c>
+      <c r="C108" t="s">
+        <v>174</v>
+      </c>
+      <c r="D108" t="s">
+        <v>176</v>
+      </c>
+      <c r="G108">
+        <v>2</v>
+      </c>
+      <c r="H108" t="s">
+        <v>263</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/success_rates.xlsx
+++ b/Logs/success_rates.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="270">
   <si>
     <t>Timestamp</t>
   </si>
@@ -358,6 +358,18 @@
     <t>2025-09-18 20:03:56</t>
   </si>
   <si>
+    <t>2025-09-19 11:21:48</t>
+  </si>
+  <si>
+    <t>2025-09-19 11:21:55</t>
+  </si>
+  <si>
+    <t>2025-09-19 11:21:57</t>
+  </si>
+  <si>
+    <t>2025-09-19 11:22:44</t>
+  </si>
+  <si>
     <t>CMM0246LCL0044</t>
   </si>
   <si>
@@ -536,6 +548,12 @@
   </si>
   <si>
     <t>CMM0937LCL0001</t>
+  </si>
+  <si>
+    <t>CMM0608LCL0046</t>
+  </si>
+  <si>
+    <t>CMM0800LCL0089</t>
   </si>
   <si>
     <t>Success</t>
@@ -1163,7 +1181,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H108"/>
+  <dimension ref="A1:H112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1200,13 +1218,13 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C2" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D2" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G2">
         <v>5</v>
@@ -1217,13 +1235,13 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C3" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D3" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G3">
         <v>5</v>
@@ -1234,19 +1252,19 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C4" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D4" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G4">
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1254,19 +1272,19 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C5" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D5" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G5">
         <v>3</v>
       </c>
       <c r="H5" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1274,19 +1292,19 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C6" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D6" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1294,19 +1312,19 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G7">
         <v>3</v>
       </c>
       <c r="H7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1314,19 +1332,19 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C8" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D8" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1334,19 +1352,19 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C9" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D9" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1354,19 +1372,19 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C10" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D10" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1374,19 +1392,19 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C11" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D11" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1394,19 +1412,19 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C12" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D12" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1414,19 +1432,19 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C13" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D13" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1434,22 +1452,22 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C14" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D14" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="F14" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="G14">
         <v>2</v>
       </c>
       <c r="H14" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1457,22 +1475,22 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C15" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D15" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="F15" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="G15">
         <v>2</v>
       </c>
       <c r="H15" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1480,22 +1498,22 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C16" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="D16" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="F16" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1503,19 +1521,19 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C17" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D17" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G17">
         <v>3</v>
       </c>
       <c r="H17" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1523,19 +1541,19 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C18" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D18" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G18">
         <v>3</v>
       </c>
       <c r="H18" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1543,19 +1561,19 @@
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C19" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D19" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1563,19 +1581,19 @@
         <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C20" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D20" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1583,19 +1601,19 @@
         <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C21" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D21" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1603,19 +1621,19 @@
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C22" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D22" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1623,19 +1641,19 @@
         <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C23" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D23" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1643,19 +1661,19 @@
         <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C24" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="D24" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1663,19 +1681,19 @@
         <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C25" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D25" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1683,19 +1701,19 @@
         <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C26" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D26" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G26">
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1703,19 +1721,19 @@
         <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C27" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="D27" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1723,19 +1741,19 @@
         <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C28" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D28" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G28">
         <v>1</v>
       </c>
       <c r="H28" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1743,19 +1761,19 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C29" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D29" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G29">
         <v>1</v>
       </c>
       <c r="H29" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1763,19 +1781,19 @@
         <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C30" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D30" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G30">
         <v>1</v>
       </c>
       <c r="H30" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1783,19 +1801,19 @@
         <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C31" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D31" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G31">
         <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1803,19 +1821,19 @@
         <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C32" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D32" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G32">
         <v>1</v>
       </c>
       <c r="H32" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1823,19 +1841,19 @@
         <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C33" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D33" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G33">
         <v>1</v>
       </c>
       <c r="H33" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1843,19 +1861,19 @@
         <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C34" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D34" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G34">
         <v>1</v>
       </c>
       <c r="H34" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1863,22 +1881,22 @@
         <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C35" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="D35" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="F35" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1886,19 +1904,19 @@
         <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C36" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D36" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G36">
         <v>1</v>
       </c>
       <c r="H36" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1906,19 +1924,19 @@
         <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C37" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D37" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G37">
         <v>1</v>
       </c>
       <c r="H37" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1926,19 +1944,19 @@
         <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C38" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D38" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G38">
         <v>1</v>
       </c>
       <c r="H38" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1946,19 +1964,19 @@
         <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C39" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D39" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G39">
         <v>1</v>
       </c>
       <c r="H39" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1966,19 +1984,19 @@
         <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C40" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D40" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G40">
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1986,22 +2004,22 @@
         <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C41" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="D41" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="F41" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="G41">
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2009,22 +2027,22 @@
         <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C42" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="D42" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="F42" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="G42">
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2032,22 +2050,22 @@
         <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C43" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="D43" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="F43" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="G43">
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2055,22 +2073,22 @@
         <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C44" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="D44" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="F44" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="G44">
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2078,19 +2096,19 @@
         <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C45" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D45" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G45">
         <v>2</v>
       </c>
       <c r="H45" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2098,22 +2116,22 @@
         <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C46" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="D46" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="F46" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="G46">
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2121,19 +2139,19 @@
         <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C47" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D47" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G47">
         <v>2</v>
       </c>
       <c r="H47" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2141,22 +2159,22 @@
         <v>54</v>
       </c>
       <c r="B48" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C48" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="D48" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="F48" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="G48">
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2164,19 +2182,19 @@
         <v>55</v>
       </c>
       <c r="B49" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C49" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D49" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G49">
         <v>3</v>
       </c>
       <c r="H49" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2184,22 +2202,22 @@
         <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C50" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="D50" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="F50" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="G50">
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2207,19 +2225,19 @@
         <v>57</v>
       </c>
       <c r="B51" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C51" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D51" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G51">
         <v>3</v>
       </c>
       <c r="H51" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2227,19 +2245,19 @@
         <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C52" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D52" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G52">
         <v>2</v>
       </c>
       <c r="H52" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2247,19 +2265,19 @@
         <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C53" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D53" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G53">
         <v>1</v>
       </c>
       <c r="H53" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2267,19 +2285,19 @@
         <v>60</v>
       </c>
       <c r="B54" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C54" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D54" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G54">
         <v>1</v>
       </c>
       <c r="H54" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2287,19 +2305,19 @@
         <v>61</v>
       </c>
       <c r="B55" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C55" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D55" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G55">
         <v>1</v>
       </c>
       <c r="H55" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2307,19 +2325,19 @@
         <v>62</v>
       </c>
       <c r="B56" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C56" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D56" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G56">
         <v>1</v>
       </c>
       <c r="H56" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2327,19 +2345,19 @@
         <v>63</v>
       </c>
       <c r="B57" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C57" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D57" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G57">
         <v>1</v>
       </c>
       <c r="H57" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2347,19 +2365,19 @@
         <v>64</v>
       </c>
       <c r="B58" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C58" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D58" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G58">
         <v>1</v>
       </c>
       <c r="H58" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2367,19 +2385,19 @@
         <v>65</v>
       </c>
       <c r="B59" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C59" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D59" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G59">
         <v>1</v>
       </c>
       <c r="H59" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2387,19 +2405,19 @@
         <v>66</v>
       </c>
       <c r="B60" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C60" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D60" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G60">
         <v>1</v>
       </c>
       <c r="H60" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2407,19 +2425,19 @@
         <v>67</v>
       </c>
       <c r="B61" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C61" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D61" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G61">
         <v>1</v>
       </c>
       <c r="H61" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2427,22 +2445,22 @@
         <v>68</v>
       </c>
       <c r="B62" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C62" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="D62" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="F62" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="G62">
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2450,22 +2468,22 @@
         <v>69</v>
       </c>
       <c r="B63" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C63" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="D63" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="F63" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="G63">
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2473,22 +2491,22 @@
         <v>69</v>
       </c>
       <c r="B64" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C64" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="D64" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="F64" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="G64">
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2496,22 +2514,22 @@
         <v>70</v>
       </c>
       <c r="B65" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C65" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="D65" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="F65" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="G65">
         <v>0</v>
       </c>
       <c r="H65" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2519,19 +2537,19 @@
         <v>71</v>
       </c>
       <c r="B66" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C66" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D66" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G66">
         <v>1</v>
       </c>
       <c r="H66" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2539,19 +2557,19 @@
         <v>72</v>
       </c>
       <c r="B67" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C67" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D67" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G67">
         <v>1</v>
       </c>
       <c r="H67" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2559,19 +2577,19 @@
         <v>73</v>
       </c>
       <c r="B68" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C68" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D68" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G68">
         <v>1</v>
       </c>
       <c r="H68" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2579,19 +2597,19 @@
         <v>74</v>
       </c>
       <c r="B69" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C69" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D69" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G69">
         <v>1</v>
       </c>
       <c r="H69" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2599,22 +2617,22 @@
         <v>75</v>
       </c>
       <c r="B70" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C70" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="D70" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="F70" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="G70">
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2622,22 +2640,22 @@
         <v>76</v>
       </c>
       <c r="B71" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C71" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="D71" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="F71" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="G71">
         <v>0</v>
       </c>
       <c r="H71" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2645,19 +2663,19 @@
         <v>77</v>
       </c>
       <c r="B72" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C72" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D72" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G72">
         <v>1</v>
       </c>
       <c r="H72" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2665,19 +2683,19 @@
         <v>78</v>
       </c>
       <c r="B73" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C73" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D73" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G73">
         <v>1</v>
       </c>
       <c r="H73" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2685,19 +2703,19 @@
         <v>79</v>
       </c>
       <c r="B74" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C74" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D74" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G74">
         <v>1</v>
       </c>
       <c r="H74" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2705,19 +2723,19 @@
         <v>80</v>
       </c>
       <c r="B75" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C75" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="D75" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G75">
         <v>0</v>
       </c>
       <c r="H75" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2725,22 +2743,22 @@
         <v>81</v>
       </c>
       <c r="B76" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C76" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="D76" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="F76" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="G76">
         <v>0</v>
       </c>
       <c r="H76" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2748,22 +2766,22 @@
         <v>82</v>
       </c>
       <c r="B77" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C77" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="D77" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="F77" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="G77">
         <v>0</v>
       </c>
       <c r="H77" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2771,19 +2789,19 @@
         <v>83</v>
       </c>
       <c r="B78" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C78" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D78" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G78">
         <v>1</v>
       </c>
       <c r="H78" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2791,19 +2809,19 @@
         <v>84</v>
       </c>
       <c r="B79" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C79" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D79" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G79">
         <v>2</v>
       </c>
       <c r="H79" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2811,19 +2829,19 @@
         <v>85</v>
       </c>
       <c r="B80" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C80" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D80" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G80">
         <v>2</v>
       </c>
       <c r="H80" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2831,19 +2849,19 @@
         <v>86</v>
       </c>
       <c r="B81" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C81" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D81" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G81">
         <v>3</v>
       </c>
       <c r="H81" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2851,19 +2869,19 @@
         <v>87</v>
       </c>
       <c r="B82" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C82" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D82" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G82">
         <v>3</v>
       </c>
       <c r="H82" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2871,19 +2889,19 @@
         <v>88</v>
       </c>
       <c r="B83" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C83" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D83" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G83">
         <v>2</v>
       </c>
       <c r="H83" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2891,19 +2909,19 @@
         <v>89</v>
       </c>
       <c r="B84" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C84" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D84" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G84">
         <v>1</v>
       </c>
       <c r="H84" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2911,22 +2929,22 @@
         <v>90</v>
       </c>
       <c r="B85" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C85" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="D85" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="F85" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="G85">
         <v>0</v>
       </c>
       <c r="H85" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2934,22 +2952,22 @@
         <v>91</v>
       </c>
       <c r="B86" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C86" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="D86" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="F86" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="G86">
         <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2957,19 +2975,19 @@
         <v>92</v>
       </c>
       <c r="B87" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C87" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D87" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G87">
         <v>1</v>
       </c>
       <c r="H87" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2977,22 +2995,22 @@
         <v>93</v>
       </c>
       <c r="B88" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C88" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="D88" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="F88" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="G88">
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3000,19 +3018,19 @@
         <v>94</v>
       </c>
       <c r="B89" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C89" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D89" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G89">
         <v>1</v>
       </c>
       <c r="H89" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3020,22 +3038,22 @@
         <v>95</v>
       </c>
       <c r="B90" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C90" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="D90" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="F90" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="G90">
         <v>0</v>
       </c>
       <c r="H90" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3043,19 +3061,19 @@
         <v>96</v>
       </c>
       <c r="B91" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C91" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D91" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G91">
         <v>1</v>
       </c>
       <c r="H91" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3063,19 +3081,19 @@
         <v>97</v>
       </c>
       <c r="B92" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C92" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D92" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G92">
         <v>1</v>
       </c>
       <c r="H92" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3083,19 +3101,19 @@
         <v>98</v>
       </c>
       <c r="B93" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C93" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D93" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G93">
         <v>1</v>
       </c>
       <c r="H93" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3103,19 +3121,19 @@
         <v>99</v>
       </c>
       <c r="B94" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C94" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D94" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G94">
         <v>1</v>
       </c>
       <c r="H94" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3123,22 +3141,22 @@
         <v>100</v>
       </c>
       <c r="B95" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C95" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="D95" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="F95" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="G95">
         <v>0</v>
       </c>
       <c r="H95" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3146,19 +3164,19 @@
         <v>101</v>
       </c>
       <c r="B96" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C96" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D96" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G96">
         <v>1</v>
       </c>
       <c r="H96" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3166,19 +3184,19 @@
         <v>102</v>
       </c>
       <c r="B97" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C97" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="D97" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G97">
         <v>0</v>
       </c>
       <c r="H97" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3186,19 +3204,19 @@
         <v>103</v>
       </c>
       <c r="B98" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C98" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="D98" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G98">
         <v>0</v>
       </c>
       <c r="H98" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3206,19 +3224,19 @@
         <v>104</v>
       </c>
       <c r="B99" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C99" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D99" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G99">
         <v>1</v>
       </c>
       <c r="H99" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3226,19 +3244,19 @@
         <v>105</v>
       </c>
       <c r="B100" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C100" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D100" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G100">
         <v>1</v>
       </c>
       <c r="H100" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3246,19 +3264,19 @@
         <v>106</v>
       </c>
       <c r="B101" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C101" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="D101" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G101">
         <v>0</v>
       </c>
       <c r="H101" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3266,19 +3284,19 @@
         <v>107</v>
       </c>
       <c r="B102" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C102" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D102" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G102">
         <v>1</v>
       </c>
       <c r="H102" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3286,19 +3304,19 @@
         <v>108</v>
       </c>
       <c r="B103" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C103" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="D103" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G103">
         <v>0</v>
       </c>
       <c r="H103" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3306,19 +3324,19 @@
         <v>109</v>
       </c>
       <c r="B104" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C104" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="D104" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G104">
         <v>0</v>
       </c>
       <c r="H104" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3326,19 +3344,19 @@
         <v>110</v>
       </c>
       <c r="B105" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C105" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D105" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G105">
         <v>1</v>
       </c>
       <c r="H105" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3346,19 +3364,19 @@
         <v>111</v>
       </c>
       <c r="B106" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C106" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D106" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G106">
         <v>1</v>
       </c>
       <c r="H106" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3366,22 +3384,22 @@
         <v>112</v>
       </c>
       <c r="B107" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C107" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D107" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="F107" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="G107">
         <v>2</v>
       </c>
       <c r="H107" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3389,19 +3407,108 @@
         <v>113</v>
       </c>
       <c r="B108" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C108" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D108" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G108">
         <v>2</v>
       </c>
       <c r="H108" t="s">
-        <v>263</v>
+        <v>269</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" t="s">
+        <v>114</v>
+      </c>
+      <c r="B109" t="s">
+        <v>178</v>
+      </c>
+      <c r="C109" t="s">
+        <v>181</v>
+      </c>
+      <c r="D109" t="s">
+        <v>182</v>
+      </c>
+      <c r="F109" t="s">
+        <v>185</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" t="s">
+        <v>115</v>
+      </c>
+      <c r="B110" t="s">
+        <v>178</v>
+      </c>
+      <c r="C110" t="s">
+        <v>181</v>
+      </c>
+      <c r="D110" t="s">
+        <v>182</v>
+      </c>
+      <c r="F110" t="s">
+        <v>185</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" t="s">
+        <v>116</v>
+      </c>
+      <c r="B111" t="s">
+        <v>178</v>
+      </c>
+      <c r="C111" t="s">
+        <v>181</v>
+      </c>
+      <c r="D111" t="s">
+        <v>182</v>
+      </c>
+      <c r="F111" t="s">
+        <v>185</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" t="s">
+        <v>117</v>
+      </c>
+      <c r="B112" t="s">
+        <v>179</v>
+      </c>
+      <c r="C112" t="s">
+        <v>181</v>
+      </c>
+      <c r="D112" t="s">
+        <v>182</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/success_rates.xlsx
+++ b/Logs/success_rates.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="272">
   <si>
     <t>Timestamp</t>
   </si>
@@ -370,6 +370,9 @@
     <t>2025-09-19 11:22:44</t>
   </si>
   <si>
+    <t>2025-09-25 07:19:17</t>
+  </si>
+  <si>
     <t>CMM0246LCL0044</t>
   </si>
   <si>
@@ -554,6 +557,9 @@
   </si>
   <si>
     <t>CMM0800LCL0089</t>
+  </si>
+  <si>
+    <t>CMM0607LCL0008</t>
   </si>
   <si>
     <t>Success</t>
@@ -1181,7 +1187,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H112"/>
+  <dimension ref="A1:H113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1218,13 +1224,13 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G2">
         <v>5</v>
@@ -1235,13 +1241,13 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G3">
         <v>5</v>
@@ -1252,19 +1258,19 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C4" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D4" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G4">
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1272,19 +1278,19 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C5" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D5" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G5">
         <v>3</v>
       </c>
       <c r="H5" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1292,19 +1298,19 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C6" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D6" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1312,19 +1318,19 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G7">
         <v>3</v>
       </c>
       <c r="H7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1332,19 +1338,19 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C8" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D8" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1352,19 +1358,19 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C9" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D9" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1372,19 +1378,19 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C10" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D10" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1392,19 +1398,19 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C11" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D11" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1412,19 +1418,19 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C12" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D12" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1432,19 +1438,19 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C13" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D13" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1452,22 +1458,22 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C14" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D14" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F14" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G14">
         <v>2</v>
       </c>
       <c r="H14" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1475,22 +1481,22 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C15" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D15" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F15" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G15">
         <v>2</v>
       </c>
       <c r="H15" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1498,22 +1504,22 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C16" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D16" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F16" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1521,19 +1527,19 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C17" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D17" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G17">
         <v>3</v>
       </c>
       <c r="H17" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1541,19 +1547,19 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C18" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D18" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G18">
         <v>3</v>
       </c>
       <c r="H18" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1561,19 +1567,19 @@
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C19" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D19" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1581,19 +1587,19 @@
         <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C20" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D20" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1601,19 +1607,19 @@
         <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C21" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D21" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1621,19 +1627,19 @@
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C22" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D22" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1641,19 +1647,19 @@
         <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C23" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D23" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1661,19 +1667,19 @@
         <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C24" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D24" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1681,19 +1687,19 @@
         <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C25" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D25" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1701,19 +1707,19 @@
         <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C26" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D26" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G26">
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1721,19 +1727,19 @@
         <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C27" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D27" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1741,19 +1747,19 @@
         <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C28" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D28" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G28">
         <v>1</v>
       </c>
       <c r="H28" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1761,19 +1767,19 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C29" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D29" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G29">
         <v>1</v>
       </c>
       <c r="H29" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1781,19 +1787,19 @@
         <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C30" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D30" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G30">
         <v>1</v>
       </c>
       <c r="H30" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1801,19 +1807,19 @@
         <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C31" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D31" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G31">
         <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1821,19 +1827,19 @@
         <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C32" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D32" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G32">
         <v>1</v>
       </c>
       <c r="H32" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1841,19 +1847,19 @@
         <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C33" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D33" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G33">
         <v>1</v>
       </c>
       <c r="H33" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1861,19 +1867,19 @@
         <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C34" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D34" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G34">
         <v>1</v>
       </c>
       <c r="H34" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1881,22 +1887,22 @@
         <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C35" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D35" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F35" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1904,19 +1910,19 @@
         <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C36" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D36" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G36">
         <v>1</v>
       </c>
       <c r="H36" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1924,19 +1930,19 @@
         <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C37" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D37" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G37">
         <v>1</v>
       </c>
       <c r="H37" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1944,19 +1950,19 @@
         <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C38" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D38" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G38">
         <v>1</v>
       </c>
       <c r="H38" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1964,19 +1970,19 @@
         <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C39" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D39" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G39">
         <v>1</v>
       </c>
       <c r="H39" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1984,19 +1990,19 @@
         <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C40" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D40" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G40">
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2004,22 +2010,22 @@
         <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C41" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D41" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F41" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G41">
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2027,22 +2033,22 @@
         <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C42" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D42" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F42" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G42">
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2050,22 +2056,22 @@
         <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C43" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D43" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F43" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G43">
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2073,22 +2079,22 @@
         <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C44" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D44" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F44" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G44">
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2096,19 +2102,19 @@
         <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C45" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D45" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G45">
         <v>2</v>
       </c>
       <c r="H45" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2116,22 +2122,22 @@
         <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C46" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D46" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F46" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G46">
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2139,19 +2145,19 @@
         <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C47" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D47" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G47">
         <v>2</v>
       </c>
       <c r="H47" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2159,22 +2165,22 @@
         <v>54</v>
       </c>
       <c r="B48" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C48" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D48" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F48" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G48">
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2182,19 +2188,19 @@
         <v>55</v>
       </c>
       <c r="B49" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C49" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D49" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G49">
         <v>3</v>
       </c>
       <c r="H49" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2202,22 +2208,22 @@
         <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C50" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D50" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F50" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G50">
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2225,19 +2231,19 @@
         <v>57</v>
       </c>
       <c r="B51" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C51" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D51" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G51">
         <v>3</v>
       </c>
       <c r="H51" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2245,19 +2251,19 @@
         <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C52" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D52" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G52">
         <v>2</v>
       </c>
       <c r="H52" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2265,19 +2271,19 @@
         <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C53" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D53" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G53">
         <v>1</v>
       </c>
       <c r="H53" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2285,19 +2291,19 @@
         <v>60</v>
       </c>
       <c r="B54" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C54" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D54" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G54">
         <v>1</v>
       </c>
       <c r="H54" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2305,19 +2311,19 @@
         <v>61</v>
       </c>
       <c r="B55" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C55" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D55" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G55">
         <v>1</v>
       </c>
       <c r="H55" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2325,19 +2331,19 @@
         <v>62</v>
       </c>
       <c r="B56" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C56" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D56" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G56">
         <v>1</v>
       </c>
       <c r="H56" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2345,19 +2351,19 @@
         <v>63</v>
       </c>
       <c r="B57" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C57" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D57" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G57">
         <v>1</v>
       </c>
       <c r="H57" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2365,19 +2371,19 @@
         <v>64</v>
       </c>
       <c r="B58" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C58" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D58" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G58">
         <v>1</v>
       </c>
       <c r="H58" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2385,19 +2391,19 @@
         <v>65</v>
       </c>
       <c r="B59" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C59" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D59" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G59">
         <v>1</v>
       </c>
       <c r="H59" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2405,19 +2411,19 @@
         <v>66</v>
       </c>
       <c r="B60" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C60" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D60" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G60">
         <v>1</v>
       </c>
       <c r="H60" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2425,19 +2431,19 @@
         <v>67</v>
       </c>
       <c r="B61" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C61" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D61" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G61">
         <v>1</v>
       </c>
       <c r="H61" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2445,22 +2451,22 @@
         <v>68</v>
       </c>
       <c r="B62" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C62" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D62" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F62" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G62">
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2468,22 +2474,22 @@
         <v>69</v>
       </c>
       <c r="B63" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C63" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D63" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F63" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G63">
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2491,22 +2497,22 @@
         <v>69</v>
       </c>
       <c r="B64" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C64" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D64" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F64" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G64">
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2514,22 +2520,22 @@
         <v>70</v>
       </c>
       <c r="B65" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C65" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D65" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F65" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G65">
         <v>0</v>
       </c>
       <c r="H65" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2537,19 +2543,19 @@
         <v>71</v>
       </c>
       <c r="B66" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C66" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D66" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G66">
         <v>1</v>
       </c>
       <c r="H66" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2557,19 +2563,19 @@
         <v>72</v>
       </c>
       <c r="B67" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C67" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D67" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G67">
         <v>1</v>
       </c>
       <c r="H67" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2577,19 +2583,19 @@
         <v>73</v>
       </c>
       <c r="B68" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C68" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D68" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G68">
         <v>1</v>
       </c>
       <c r="H68" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2597,19 +2603,19 @@
         <v>74</v>
       </c>
       <c r="B69" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C69" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D69" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G69">
         <v>1</v>
       </c>
       <c r="H69" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2617,22 +2623,22 @@
         <v>75</v>
       </c>
       <c r="B70" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C70" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D70" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F70" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G70">
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2640,22 +2646,22 @@
         <v>76</v>
       </c>
       <c r="B71" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C71" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D71" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F71" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G71">
         <v>0</v>
       </c>
       <c r="H71" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2663,19 +2669,19 @@
         <v>77</v>
       </c>
       <c r="B72" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C72" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D72" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G72">
         <v>1</v>
       </c>
       <c r="H72" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2683,19 +2689,19 @@
         <v>78</v>
       </c>
       <c r="B73" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C73" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D73" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G73">
         <v>1</v>
       </c>
       <c r="H73" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2703,19 +2709,19 @@
         <v>79</v>
       </c>
       <c r="B74" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C74" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D74" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G74">
         <v>1</v>
       </c>
       <c r="H74" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2723,19 +2729,19 @@
         <v>80</v>
       </c>
       <c r="B75" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C75" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D75" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G75">
         <v>0</v>
       </c>
       <c r="H75" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2743,22 +2749,22 @@
         <v>81</v>
       </c>
       <c r="B76" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C76" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D76" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F76" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G76">
         <v>0</v>
       </c>
       <c r="H76" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2766,22 +2772,22 @@
         <v>82</v>
       </c>
       <c r="B77" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C77" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D77" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F77" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G77">
         <v>0</v>
       </c>
       <c r="H77" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2789,19 +2795,19 @@
         <v>83</v>
       </c>
       <c r="B78" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C78" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D78" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G78">
         <v>1</v>
       </c>
       <c r="H78" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2809,19 +2815,19 @@
         <v>84</v>
       </c>
       <c r="B79" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C79" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D79" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G79">
         <v>2</v>
       </c>
       <c r="H79" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2829,19 +2835,19 @@
         <v>85</v>
       </c>
       <c r="B80" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C80" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D80" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G80">
         <v>2</v>
       </c>
       <c r="H80" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2849,19 +2855,19 @@
         <v>86</v>
       </c>
       <c r="B81" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C81" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D81" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G81">
         <v>3</v>
       </c>
       <c r="H81" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2869,19 +2875,19 @@
         <v>87</v>
       </c>
       <c r="B82" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C82" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D82" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G82">
         <v>3</v>
       </c>
       <c r="H82" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2889,19 +2895,19 @@
         <v>88</v>
       </c>
       <c r="B83" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C83" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D83" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G83">
         <v>2</v>
       </c>
       <c r="H83" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2909,19 +2915,19 @@
         <v>89</v>
       </c>
       <c r="B84" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C84" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D84" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G84">
         <v>1</v>
       </c>
       <c r="H84" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2929,22 +2935,22 @@
         <v>90</v>
       </c>
       <c r="B85" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C85" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D85" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F85" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G85">
         <v>0</v>
       </c>
       <c r="H85" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2952,22 +2958,22 @@
         <v>91</v>
       </c>
       <c r="B86" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C86" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D86" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F86" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G86">
         <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2975,19 +2981,19 @@
         <v>92</v>
       </c>
       <c r="B87" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C87" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D87" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G87">
         <v>1</v>
       </c>
       <c r="H87" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2995,22 +3001,22 @@
         <v>93</v>
       </c>
       <c r="B88" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C88" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D88" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F88" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G88">
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3018,19 +3024,19 @@
         <v>94</v>
       </c>
       <c r="B89" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C89" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D89" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G89">
         <v>1</v>
       </c>
       <c r="H89" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3038,22 +3044,22 @@
         <v>95</v>
       </c>
       <c r="B90" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C90" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D90" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F90" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G90">
         <v>0</v>
       </c>
       <c r="H90" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3061,19 +3067,19 @@
         <v>96</v>
       </c>
       <c r="B91" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C91" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D91" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G91">
         <v>1</v>
       </c>
       <c r="H91" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3081,19 +3087,19 @@
         <v>97</v>
       </c>
       <c r="B92" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C92" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D92" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G92">
         <v>1</v>
       </c>
       <c r="H92" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3101,19 +3107,19 @@
         <v>98</v>
       </c>
       <c r="B93" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C93" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D93" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G93">
         <v>1</v>
       </c>
       <c r="H93" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3121,19 +3127,19 @@
         <v>99</v>
       </c>
       <c r="B94" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C94" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D94" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G94">
         <v>1</v>
       </c>
       <c r="H94" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3141,22 +3147,22 @@
         <v>100</v>
       </c>
       <c r="B95" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C95" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D95" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F95" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G95">
         <v>0</v>
       </c>
       <c r="H95" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3164,19 +3170,19 @@
         <v>101</v>
       </c>
       <c r="B96" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C96" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D96" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G96">
         <v>1</v>
       </c>
       <c r="H96" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3184,19 +3190,19 @@
         <v>102</v>
       </c>
       <c r="B97" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C97" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D97" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G97">
         <v>0</v>
       </c>
       <c r="H97" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3204,19 +3210,19 @@
         <v>103</v>
       </c>
       <c r="B98" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C98" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D98" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G98">
         <v>0</v>
       </c>
       <c r="H98" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3224,19 +3230,19 @@
         <v>104</v>
       </c>
       <c r="B99" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C99" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D99" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G99">
         <v>1</v>
       </c>
       <c r="H99" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3244,19 +3250,19 @@
         <v>105</v>
       </c>
       <c r="B100" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C100" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D100" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G100">
         <v>1</v>
       </c>
       <c r="H100" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3264,19 +3270,19 @@
         <v>106</v>
       </c>
       <c r="B101" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C101" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D101" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G101">
         <v>0</v>
       </c>
       <c r="H101" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3284,19 +3290,19 @@
         <v>107</v>
       </c>
       <c r="B102" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C102" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D102" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G102">
         <v>1</v>
       </c>
       <c r="H102" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3304,19 +3310,19 @@
         <v>108</v>
       </c>
       <c r="B103" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C103" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D103" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G103">
         <v>0</v>
       </c>
       <c r="H103" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3324,19 +3330,19 @@
         <v>109</v>
       </c>
       <c r="B104" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C104" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D104" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G104">
         <v>0</v>
       </c>
       <c r="H104" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3344,19 +3350,19 @@
         <v>110</v>
       </c>
       <c r="B105" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C105" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D105" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G105">
         <v>1</v>
       </c>
       <c r="H105" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3364,19 +3370,19 @@
         <v>111</v>
       </c>
       <c r="B106" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C106" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D106" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G106">
         <v>1</v>
       </c>
       <c r="H106" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3384,22 +3390,22 @@
         <v>112</v>
       </c>
       <c r="B107" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C107" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D107" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F107" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G107">
         <v>2</v>
       </c>
       <c r="H107" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3407,19 +3413,19 @@
         <v>113</v>
       </c>
       <c r="B108" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C108" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D108" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G108">
         <v>2</v>
       </c>
       <c r="H108" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3427,22 +3433,22 @@
         <v>114</v>
       </c>
       <c r="B109" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C109" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D109" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F109" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G109">
         <v>0</v>
       </c>
       <c r="H109" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3450,22 +3456,22 @@
         <v>115</v>
       </c>
       <c r="B110" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C110" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D110" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F110" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G110">
         <v>0</v>
       </c>
       <c r="H110" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3473,22 +3479,22 @@
         <v>116</v>
       </c>
       <c r="B111" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C111" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D111" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F111" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G111">
         <v>0</v>
       </c>
       <c r="H111" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3496,19 +3502,39 @@
         <v>117</v>
       </c>
       <c r="B112" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C112" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D112" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G112">
         <v>0</v>
       </c>
       <c r="H112" t="s">
-        <v>221</v>
+        <v>223</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113" t="s">
+        <v>118</v>
+      </c>
+      <c r="B113" t="s">
+        <v>181</v>
+      </c>
+      <c r="C113" t="s">
+        <v>183</v>
+      </c>
+      <c r="D113" t="s">
+        <v>184</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>
